--- a/code/Post/results.xlsx
+++ b/code/Post/results.xlsx
@@ -1,21 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achom\Desktop\Main\Code\Scientific-Computing\Physics-Neural-Networks\PINN\code\Post\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B2B4F7-0FF2-4EB5-B089-8643942E6AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Complete" sheetId="1" r:id="rId1"/>
     <sheet name="Filtered" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Filtered!$A$2:$Q$32</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="77">
   <si>
     <t>TL</t>
   </si>
@@ -180,13 +189,82 @@
   </si>
   <si>
     <t>S34</t>
+  </si>
+  <si>
+    <t>BORN ION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Architecture </t>
+  </si>
+  <si>
+    <t>Loss terms</t>
+  </si>
+  <si>
+    <t>N° Sim</t>
+  </si>
+  <si>
+    <t>Mesh</t>
+  </si>
+  <si>
+    <t>HL</t>
+  </si>
+  <si>
+    <t>NpL</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Coarse</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>mala</t>
+  </si>
+  <si>
+    <t>buena</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Fine</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>Noise</t>
+  </si>
+  <si>
+    <t>Cualitativo</t>
+  </si>
+  <si>
+    <t>BUENA</t>
+  </si>
+  <si>
+    <t>Results</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.00.E+00"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,15 +281,39 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -234,28 +336,153 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -293,7 +520,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -327,6 +554,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -361,9 +589,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -536,14 +765,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -611,15 +840,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B2">
-        <v>46.520428</v>
+        <v>46.520428000000003</v>
       </c>
       <c r="C2">
-        <v>0.15931457</v>
+        <v>0.15931456999999999</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -628,28 +857,28 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.295192E-05</v>
+        <v>6.2951919999999997E-5</v>
       </c>
       <c r="G2">
-        <v>0.3163076</v>
+        <v>0.31630760000000002</v>
       </c>
       <c r="H2">
-        <v>1.8718184E-06</v>
+        <v>1.8718184000000001E-6</v>
       </c>
       <c r="I2">
-        <v>3.5624438E-05</v>
+        <v>3.5624438000000001E-5</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>4.7131773E-05</v>
+        <v>4.7131773000000001E-5</v>
       </c>
       <c r="L2">
-        <v>5.2727864E-06</v>
+        <v>5.2727864000000004E-6</v>
       </c>
       <c r="M2">
-        <v>0.0032134587</v>
+        <v>3.2134587E-3</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -664,10 +893,10 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>232.195</v>
+        <v>232.19499999999999</v>
       </c>
       <c r="S2">
-        <v>0.2851</v>
+        <v>0.28510000000000002</v>
       </c>
       <c r="T2">
         <v>197.5</v>
@@ -676,13 +905,13 @@
         <v>46.52</v>
       </c>
       <c r="V2">
-        <v>0.4789</v>
+        <v>0.47889999999999999</v>
       </c>
       <c r="W2">
-        <v>0.003303</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23">
+        <v>3.3029999999999999E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -699,28 +928,28 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0014541721</v>
+        <v>1.4541720999999999E-3</v>
       </c>
       <c r="G3">
-        <v>3.0316129</v>
+        <v>3.0316128999999998</v>
       </c>
       <c r="H3">
-        <v>3.474421E-06</v>
+        <v>3.4744210000000001E-6</v>
       </c>
       <c r="I3">
-        <v>3.9751456E-05</v>
+        <v>3.9751456E-5</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>3.3207383E-05</v>
+        <v>3.3207382999999997E-5</v>
       </c>
       <c r="L3">
-        <v>0.000455439</v>
+        <v>4.5543899999999997E-4</v>
       </c>
       <c r="M3">
-        <v>0.0002478091</v>
+        <v>2.4780910000000002E-4</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -735,10 +964,10 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>-248.181</v>
+        <v>-248.18100000000001</v>
       </c>
       <c r="S3">
-        <v>1.037</v>
+        <v>1.0369999999999999</v>
       </c>
       <c r="T3">
         <v>512.6</v>
@@ -747,13 +976,13 @@
         <v>3.278</v>
       </c>
       <c r="V3">
-        <v>3.277</v>
+        <v>3.2770000000000001</v>
       </c>
       <c r="W3">
-        <v>0.0007797</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23">
+        <v>7.7970000000000003E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -761,7 +990,7 @@
         <v>372605.06</v>
       </c>
       <c r="C4">
-        <v>2755.7517</v>
+        <v>2755.7516999999998</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -770,31 +999,31 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.008433416500000001</v>
+        <v>8.4334165000000006E-3</v>
       </c>
       <c r="G4">
         <v>106977.78</v>
       </c>
       <c r="H4">
-        <v>6.8456836E-09</v>
+        <v>6.8456835999999998E-9</v>
       </c>
       <c r="I4">
-        <v>8.493127E-05</v>
+        <v>8.4931269999999996E-5</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2.3087941E-05</v>
+        <v>2.3087940999999998E-5</v>
       </c>
       <c r="L4">
-        <v>0.0016187779</v>
+        <v>1.6187778999999999E-3</v>
       </c>
       <c r="M4">
-        <v>0.0071034385</v>
+        <v>7.1034384999999999E-3</v>
       </c>
       <c r="N4">
-        <v>6.4173946E-07</v>
+        <v>6.4173946000000003E-7</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -806,10 +1035,10 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>32.485</v>
+        <v>32.484999999999999</v>
       </c>
       <c r="S4">
-        <v>0.9928</v>
+        <v>0.99280000000000002</v>
       </c>
       <c r="T4">
         <v>1161</v>
@@ -821,18 +1050,18 @@
         <v>109700</v>
       </c>
       <c r="W4">
-        <v>0.008831</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23">
+        <v>8.8310000000000003E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B5">
-        <v>6732.919</v>
+        <v>6732.9189999999999</v>
       </c>
       <c r="C5">
-        <v>0.0009918244</v>
+        <v>9.9182440000000001E-4</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -841,28 +1070,28 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>6.981214E-07</v>
+        <v>6.9812139999999995E-7</v>
       </c>
       <c r="G5">
-        <v>0.37912902</v>
+        <v>0.37912901999999998</v>
       </c>
       <c r="H5">
-        <v>3.231413E-11</v>
+        <v>3.2314130000000002E-11</v>
       </c>
       <c r="I5">
-        <v>1.2034398E-07</v>
+        <v>1.2034397999999999E-7</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.1303194E-07</v>
+        <v>1.1303194E-7</v>
       </c>
       <c r="L5">
-        <v>7.6363435E-08</v>
+        <v>7.6363434999999997E-8</v>
       </c>
       <c r="M5">
-        <v>5.979953E-07</v>
+        <v>5.9799530000000003E-7</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -877,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0.712</v>
+        <v>0.71199999999999997</v>
       </c>
       <c r="S5">
         <v>1.093</v>
@@ -889,13 +1118,13 @@
         <v>6733</v>
       </c>
       <c r="V5">
-        <v>0.3801</v>
+        <v>0.38009999999999999</v>
       </c>
       <c r="W5">
         <v>546.5</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -903,7 +1132,7 @@
         <v>259315.28</v>
       </c>
       <c r="C6">
-        <v>0.00011806969</v>
+        <v>1.1806969E-4</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -912,34 +1141,34 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.006896506</v>
+        <v>6.8965060000000002E-3</v>
       </c>
       <c r="G6">
-        <v>7.07404E-07</v>
+        <v>7.07404E-7</v>
       </c>
       <c r="H6">
-        <v>1.3475453E-08</v>
+        <v>1.3475453E-8</v>
       </c>
       <c r="I6">
-        <v>4.9748403E-05</v>
+        <v>4.9748403000000001E-5</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>4.550263E-05</v>
+        <v>4.5502630000000002E-5</v>
       </c>
       <c r="L6">
-        <v>0.000508343</v>
+        <v>5.0834299999999997E-4</v>
       </c>
       <c r="M6">
-        <v>0.018634804</v>
+        <v>1.8634804000000001E-2</v>
       </c>
       <c r="N6">
-        <v>1.6723206E-06</v>
+        <v>1.6723206E-6</v>
       </c>
       <c r="O6">
-        <v>710.5411</v>
+        <v>710.54110000000003</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -948,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="R6">
-        <v>30.944</v>
+        <v>30.943999999999999</v>
       </c>
       <c r="S6">
-        <v>0.9416</v>
+        <v>0.94159999999999999</v>
       </c>
       <c r="T6">
         <v>723.6</v>
@@ -960,13 +1189,13 @@
         <v>259300</v>
       </c>
       <c r="V6">
-        <v>0.02616</v>
+        <v>2.6159999999999999E-2</v>
       </c>
       <c r="W6">
         <v>710.6</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
@@ -986,13 +1215,13 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>35741.703</v>
+        <v>35741.703000000001</v>
       </c>
       <c r="H7">
-        <v>1.2988275E-07</v>
+        <v>1.2988274999999999E-7</v>
       </c>
       <c r="I7">
-        <v>0.0006038742</v>
+        <v>6.0387419999999997E-4</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1001,13 +1230,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.0038444141</v>
+        <v>3.8444141E-3</v>
       </c>
       <c r="M7">
-        <v>0.04607599</v>
+        <v>4.6075989999999997E-2</v>
       </c>
       <c r="N7">
-        <v>3.490461E-07</v>
+        <v>3.4904610000000001E-7</v>
       </c>
       <c r="O7">
         <v>236.5753</v>
@@ -1022,7 +1251,7 @@
         <v>48.058</v>
       </c>
       <c r="S7">
-        <v>0.985</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="T7">
         <v>1875</v>
@@ -1037,15 +1266,15 @@
         <v>236.6</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B8">
-        <v>10.398217</v>
+        <v>10.398217000000001</v>
       </c>
       <c r="C8">
-        <v>3.8523638E-05</v>
+        <v>3.8523638000000002E-5</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1057,13 +1286,13 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>8.7840874E-07</v>
+        <v>8.7840873999999997E-7</v>
       </c>
       <c r="H8">
-        <v>5.326038E-10</v>
+        <v>5.3260379999999997E-10</v>
       </c>
       <c r="I8">
-        <v>3.7930263E-06</v>
+        <v>3.7930263E-6</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1072,16 +1301,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>4.2887333E-08</v>
+        <v>4.2887333000000002E-8</v>
       </c>
       <c r="M8">
-        <v>2.057204E-08</v>
+        <v>2.057204E-8</v>
       </c>
       <c r="N8">
-        <v>0.000142245</v>
+        <v>1.4224499999999999E-4</v>
       </c>
       <c r="O8">
-        <v>7.8995254E-05</v>
+        <v>7.8995254E-5</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1090,10 +1319,10 @@
         <v>0</v>
       </c>
       <c r="R8">
-        <v>-1.187</v>
+        <v>-1.1870000000000001</v>
       </c>
       <c r="S8">
-        <v>0.5274</v>
+        <v>0.52739999999999998</v>
       </c>
       <c r="T8">
         <v>44.21</v>
@@ -1102,13 +1331,13 @@
         <v>10.4</v>
       </c>
       <c r="V8">
-        <v>0.0001817</v>
+        <v>1.817E-4</v>
       </c>
       <c r="W8">
-        <v>0.0002251</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23">
+        <v>2.251E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -1116,7 +1345,7 @@
         <v>702649.8</v>
       </c>
       <c r="C9">
-        <v>0.0013444003</v>
+        <v>1.3444003E-3</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1125,34 +1354,34 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0012696753</v>
+        <v>1.2696752999999999E-3</v>
       </c>
       <c r="G9">
-        <v>0.0052585546</v>
+        <v>5.2585545999999997E-3</v>
       </c>
       <c r="H9">
         <v>3.8591436E-10</v>
       </c>
       <c r="I9">
-        <v>3.1927596E-06</v>
+        <v>3.1927596000000001E-6</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.0287245E-06</v>
+        <v>1.0287244999999999E-6</v>
       </c>
       <c r="L9">
-        <v>0.00011688182</v>
+        <v>1.1688182E-4</v>
       </c>
       <c r="M9">
-        <v>0.00062875694</v>
+        <v>6.2875693999999999E-4</v>
       </c>
       <c r="N9">
-        <v>0.0031443094</v>
+        <v>3.1443094000000002E-3</v>
       </c>
       <c r="O9">
-        <v>210.37782</v>
+        <v>210.37782000000001</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1161,33 +1390,33 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>4.942</v>
+        <v>4.9420000000000002</v>
       </c>
       <c r="S9">
-        <v>0.9985000000000001</v>
+        <v>0.99850000000000005</v>
       </c>
       <c r="T9">
-        <v>306.4</v>
+        <v>306.39999999999998</v>
       </c>
       <c r="U9">
         <v>702600</v>
       </c>
       <c r="V9">
-        <v>0.01176</v>
+        <v>1.176E-2</v>
       </c>
       <c r="W9">
         <v>210.4</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B10">
-        <v>16835.258</v>
+        <v>16835.258000000002</v>
       </c>
       <c r="C10">
-        <v>0.3620034</v>
+        <v>0.36200339999999998</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1199,13 +1428,13 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.7581321</v>
+        <v>0.75813209999999998</v>
       </c>
       <c r="H10">
-        <v>2.2923713E-08</v>
+        <v>2.2923712999999999E-8</v>
       </c>
       <c r="I10">
-        <v>4.250492E-05</v>
+        <v>4.2504920000000002E-5</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1214,16 +1443,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>3.1944688E-05</v>
+        <v>3.1944688E-5</v>
       </c>
       <c r="M10">
-        <v>6.966335E-06</v>
+        <v>6.9663349999999996E-6</v>
       </c>
       <c r="N10">
-        <v>1.4284916</v>
+        <v>1.4284916000000001</v>
       </c>
       <c r="O10">
-        <v>15.532832</v>
+        <v>15.532832000000001</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1232,10 +1461,10 @@
         <v>0</v>
       </c>
       <c r="R10">
-        <v>-14.575</v>
+        <v>-14.574999999999999</v>
       </c>
       <c r="S10">
-        <v>0.855</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="T10">
         <v>282.7</v>
@@ -1244,21 +1473,21 @@
         <v>16840</v>
       </c>
       <c r="V10">
-        <v>2.549</v>
+        <v>2.5489999999999999</v>
       </c>
       <c r="W10">
         <v>16.96</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B11">
-        <v>4.3089542</v>
+        <v>4.3089541999999996</v>
       </c>
       <c r="C11">
-        <v>0.068344116</v>
+        <v>6.8344115999999996E-2</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1267,34 +1496,34 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.02342143</v>
+        <v>2.342143E-2</v>
       </c>
       <c r="G11">
-        <v>4.0950947</v>
+        <v>4.0950946999999998</v>
       </c>
       <c r="H11">
-        <v>2.788601E-07</v>
+        <v>2.7886009999999999E-7</v>
       </c>
       <c r="I11">
-        <v>0.0012898775</v>
+        <v>1.2898775E-3</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.0010279979</v>
+        <v>1.0279979E-3</v>
       </c>
       <c r="L11">
-        <v>0.0046020495</v>
+        <v>4.6020495000000002E-3</v>
       </c>
       <c r="M11">
-        <v>0.040873464</v>
+        <v>4.0873463999999998E-2</v>
       </c>
       <c r="N11">
-        <v>52.906445</v>
+        <v>52.906444999999998</v>
       </c>
       <c r="O11">
-        <v>182.4398</v>
+        <v>182.43979999999999</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1303,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="R11">
-        <v>97.86499999999999</v>
+        <v>97.864999999999995</v>
       </c>
       <c r="S11">
-        <v>0.9305</v>
+        <v>0.93049999999999999</v>
       </c>
       <c r="T11">
         <v>2269</v>
       </c>
       <c r="U11">
-        <v>4.309</v>
+        <v>4.3090000000000002</v>
       </c>
       <c r="V11">
         <v>57.14</v>
@@ -1321,15 +1550,15 @@
         <v>235.4</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B12">
-        <v>0.30157658</v>
+        <v>0.30157657999999998</v>
       </c>
       <c r="C12">
-        <v>0.1869196</v>
+        <v>0.18691959999999999</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1344,10 +1573,10 @@
         <v>0.11411916</v>
       </c>
       <c r="H12">
-        <v>1.6603013E-06</v>
+        <v>1.6603013000000001E-6</v>
       </c>
       <c r="I12">
-        <v>1.1049837E-05</v>
+        <v>1.1049837E-5</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1356,10 +1585,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.000100432306</v>
+        <v>1.00432306E-4</v>
       </c>
       <c r="M12">
-        <v>0.00016213668</v>
+        <v>1.6213668E-4</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1377,30 +1606,30 @@
         <v>-38.634</v>
       </c>
       <c r="S12">
-        <v>0.7033</v>
+        <v>0.70330000000000004</v>
       </c>
       <c r="T12">
-        <v>620.2</v>
+        <v>620.20000000000005</v>
       </c>
       <c r="U12">
-        <v>0.3016</v>
+        <v>0.30159999999999998</v>
       </c>
       <c r="V12">
-        <v>0.3013</v>
+        <v>0.30130000000000001</v>
       </c>
       <c r="W12">
-        <v>0.0002753</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
+        <v>2.7530000000000002E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B13">
-        <v>1826.0881</v>
+        <v>1826.0880999999999</v>
       </c>
       <c r="C13">
-        <v>4.485293E-07</v>
+        <v>4.4852930000000001E-7</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1409,34 +1638,34 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.9703083E-06</v>
+        <v>2.9703082999999998E-6</v>
       </c>
       <c r="G13">
-        <v>7.225383E-07</v>
+        <v>7.2253829999999998E-7</v>
       </c>
       <c r="H13">
         <v>8.0915885E-11</v>
       </c>
       <c r="I13">
-        <v>1.1292168E-07</v>
+        <v>1.1292168E-7</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.1011608E-07</v>
+        <v>2.1011608E-7</v>
       </c>
       <c r="L13">
-        <v>4.3859965E-09</v>
+        <v>4.3859965000000001E-9</v>
       </c>
       <c r="M13">
-        <v>6.7883715E-10</v>
+        <v>6.7883715000000003E-10</v>
       </c>
       <c r="N13">
-        <v>7.2893505E-07</v>
+        <v>7.2893505E-7</v>
       </c>
       <c r="O13">
-        <v>296.2188</v>
+        <v>296.21879999999999</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1445,10 +1674,10 @@
         <v>0</v>
       </c>
       <c r="R13">
-        <v>0.645</v>
+        <v>0.64500000000000002</v>
       </c>
       <c r="S13">
-        <v>0.911</v>
+        <v>0.91100000000000003</v>
       </c>
       <c r="T13">
         <v>11.93</v>
@@ -1457,13 +1686,13 @@
         <v>1826</v>
       </c>
       <c r="V13">
-        <v>4.875E-06</v>
+        <v>4.8749999999999999E-6</v>
       </c>
       <c r="W13">
         <v>296.2</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
@@ -1471,7 +1700,7 @@
         <v>1538.7827</v>
       </c>
       <c r="C14">
-        <v>4.553634E-09</v>
+        <v>4.5536339999999997E-9</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1483,13 +1712,13 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>6.365447E-07</v>
+        <v>6.3654470000000001E-7</v>
       </c>
       <c r="H14">
-        <v>6.839901E-09</v>
+        <v>6.8399010000000002E-9</v>
       </c>
       <c r="I14">
-        <v>3.3267384E-05</v>
+        <v>3.3267384000000002E-5</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1498,16 +1727,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.542247E-11</v>
+        <v>8.5422470000000005E-11</v>
       </c>
       <c r="M14">
-        <v>9.786051999999999E-10</v>
+        <v>9.7860519999999991E-10</v>
       </c>
       <c r="N14">
-        <v>1.8339051E-06</v>
+        <v>1.8339051E-6</v>
       </c>
       <c r="O14">
-        <v>0.5076585</v>
+        <v>0.50765850000000001</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1516,10 +1745,10 @@
         <v>0</v>
       </c>
       <c r="R14">
-        <v>-4.655</v>
+        <v>-4.6550000000000002</v>
       </c>
       <c r="S14">
-        <v>0.007249</v>
+        <v>7.2490000000000002E-3</v>
       </c>
       <c r="T14">
         <v>49.09</v>
@@ -1528,21 +1757,21 @@
         <v>1539</v>
       </c>
       <c r="V14">
-        <v>2.476E-06</v>
+        <v>2.4760000000000001E-6</v>
       </c>
       <c r="W14">
-        <v>0.5077</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23">
+        <v>0.50770000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B15">
-        <v>0.4641002</v>
+        <v>0.46410020000000002</v>
       </c>
       <c r="C15">
-        <v>0.00010124081</v>
+        <v>1.0124081E-4</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1554,13 +1783,13 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>8.570638E-05</v>
+        <v>8.5706379999999995E-5</v>
       </c>
       <c r="H15">
-        <v>1.1893891E-12</v>
+        <v>1.1893890999999999E-12</v>
       </c>
       <c r="I15">
-        <v>1.1816284E-09</v>
+        <v>1.1816284000000001E-9</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1569,10 +1798,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>5.8866544E-07</v>
+        <v>5.8866543999999997E-7</v>
       </c>
       <c r="M15">
-        <v>3.4624976E-11</v>
+        <v>3.4624976000000002E-11</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1587,33 +1816,33 @@
         <v>0</v>
       </c>
       <c r="R15">
-        <v>0.074</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="S15">
-        <v>0.9999</v>
+        <v>0.99990000000000001</v>
       </c>
       <c r="T15">
         <v>16.61</v>
       </c>
       <c r="U15">
-        <v>0.4641</v>
+        <v>0.46410000000000001</v>
       </c>
       <c r="V15">
-        <v>0.0001875</v>
+        <v>1.875E-4</v>
       </c>
       <c r="W15">
-        <v>5.899E-07</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23">
+        <v>5.8989999999999996E-7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B16">
-        <v>7.0844164</v>
+        <v>7.0844164000000003</v>
       </c>
       <c r="C16">
-        <v>0.065074325</v>
+        <v>6.5074325000000002E-2</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1625,13 +1854,13 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>7.0093164</v>
+        <v>7.0093164000000003</v>
       </c>
       <c r="H16">
-        <v>3.2918445E-06</v>
+        <v>3.2918445E-6</v>
       </c>
       <c r="I16">
-        <v>1.75136E-05</v>
+        <v>1.7513600000000001E-5</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1640,10 +1869,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.0032595617</v>
+        <v>3.2595617E-3</v>
       </c>
       <c r="M16">
-        <v>0.001742668</v>
+        <v>1.742668E-3</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1658,25 +1887,25 @@
         <v>0</v>
       </c>
       <c r="R16">
-        <v>-70.176</v>
+        <v>-70.176000000000002</v>
       </c>
       <c r="S16">
-        <v>0.9696</v>
+        <v>0.96960000000000002</v>
       </c>
       <c r="T16">
         <v>910.5</v>
       </c>
       <c r="U16">
-        <v>7.084</v>
+        <v>7.0839999999999996</v>
       </c>
       <c r="V16">
-        <v>7.079</v>
+        <v>7.0789999999999997</v>
       </c>
       <c r="W16">
-        <v>0.005023</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23">
+        <v>5.0229999999999997E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
@@ -1684,7 +1913,7 @@
         <v>706.59875</v>
       </c>
       <c r="C17">
-        <v>0.002133193</v>
+        <v>2.1331929999999998E-3</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1693,34 +1922,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.609739E-06</v>
+        <v>1.609739E-6</v>
       </c>
       <c r="G17">
         <v>3.79671</v>
       </c>
       <c r="H17">
-        <v>2.385905E-12</v>
+        <v>2.3859049999999998E-12</v>
       </c>
       <c r="I17">
-        <v>8.072627999999999E-09</v>
+        <v>8.0726279999999994E-9</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.1416465E-08</v>
+        <v>1.1416465E-8</v>
       </c>
       <c r="L17">
-        <v>2.9603171E-07</v>
+        <v>2.9603170999999999E-7</v>
       </c>
       <c r="M17">
-        <v>3.4189424E-07</v>
+        <v>3.4189423999999997E-7</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>7.6468034</v>
+        <v>7.6468033999999996</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1738,21 +1967,21 @@
         <v>706.6</v>
       </c>
       <c r="V17">
-        <v>3.799</v>
+        <v>3.7989999999999999</v>
       </c>
       <c r="W17">
-        <v>7.647</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23">
+        <v>7.6470000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B18">
-        <v>403.68307</v>
+        <v>403.68306999999999</v>
       </c>
       <c r="C18">
-        <v>0.0025596353</v>
+        <v>2.5596352999999999E-3</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1761,28 +1990,28 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.6823625E-06</v>
+        <v>1.6823624999999999E-6</v>
       </c>
       <c r="G18">
-        <v>1.4939272</v>
+        <v>1.4939271999999999</v>
       </c>
       <c r="H18">
-        <v>5.6135196E-13</v>
+        <v>5.6135196000000003E-13</v>
       </c>
       <c r="I18">
-        <v>2.8793294E-09</v>
+        <v>2.8793294E-9</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>5.5208833E-09</v>
+        <v>5.5208833000000003E-9</v>
       </c>
       <c r="L18">
-        <v>2.6072914E-07</v>
+        <v>2.6072913999999998E-7</v>
       </c>
       <c r="M18">
-        <v>1.1584766E-06</v>
+        <v>1.1584766E-6</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1797,10 +2026,10 @@
         <v>0</v>
       </c>
       <c r="R18">
-        <v>-0.276</v>
+        <v>-0.27600000000000002</v>
       </c>
       <c r="S18">
-        <v>1.019</v>
+        <v>1.0189999999999999</v>
       </c>
       <c r="U18">
         <v>403.7</v>
@@ -1809,15 +2038,15 @@
         <v>1.496</v>
       </c>
       <c r="W18">
-        <v>3.104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23">
+        <v>3.1040000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B19">
-        <v>143.38802</v>
+        <v>143.38802000000001</v>
       </c>
       <c r="C19">
         <v>0.19380997</v>
@@ -1829,28 +2058,28 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.1193018E-05</v>
+        <v>2.1193018000000001E-5</v>
       </c>
       <c r="G19">
         <v>4.258292</v>
       </c>
       <c r="H19">
-        <v>3.1387333E-09</v>
+        <v>3.1387333000000002E-9</v>
       </c>
       <c r="I19">
-        <v>1.0293432E-05</v>
+        <v>1.0293432E-5</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>5.1285415E-06</v>
+        <v>5.1285415000000003E-6</v>
       </c>
       <c r="L19">
-        <v>8.54614E-06</v>
+        <v>8.5461400000000005E-6</v>
       </c>
       <c r="M19">
-        <v>0.00015542883</v>
+        <v>1.5542883000000001E-4</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1865,10 +2094,10 @@
         <v>0</v>
       </c>
       <c r="R19">
-        <v>-0.972</v>
+        <v>-0.97199999999999998</v>
       </c>
       <c r="S19">
-        <v>1.235</v>
+        <v>1.2350000000000001</v>
       </c>
       <c r="T19">
         <v>32.31</v>
@@ -1880,18 +2109,18 @@
         <v>4.452</v>
       </c>
       <c r="W19">
-        <v>0.0001794</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23">
+        <v>1.794E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B20">
-        <v>0.2839492</v>
+        <v>0.28394920000000001</v>
       </c>
       <c r="C20">
-        <v>4.345902E-06</v>
+        <v>4.3459019999999998E-6</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1900,28 +2129,28 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.5661558E-06</v>
+        <v>1.5661557999999999E-6</v>
       </c>
       <c r="G20">
-        <v>9.705832E-06</v>
+        <v>9.7058320000000004E-6</v>
       </c>
       <c r="H20">
-        <v>1.2876196E-12</v>
+        <v>1.2876196000000001E-12</v>
       </c>
       <c r="I20">
-        <v>5.4315095E-08</v>
+        <v>5.4315095000000001E-8</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.0957892E-07</v>
+        <v>1.0957892000000001E-7</v>
       </c>
       <c r="L20">
-        <v>7.610060000000001E-08</v>
+        <v>7.6100600000000006E-8</v>
       </c>
       <c r="M20">
-        <v>1.4317835E-09</v>
+        <v>1.4317835000000001E-9</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1939,22 +2168,22 @@
         <v>0.83</v>
       </c>
       <c r="S20">
-        <v>0.8182</v>
+        <v>0.81820000000000004</v>
       </c>
       <c r="T20">
         <v>17.29</v>
       </c>
       <c r="U20">
-        <v>0.2839</v>
+        <v>0.28389999999999999</v>
       </c>
       <c r="V20">
-        <v>1.57E-05</v>
+        <v>1.5699999999999999E-5</v>
       </c>
       <c r="W20">
-        <v>2.414E-07</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23">
+        <v>2.4139999999999998E-7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
@@ -1962,7 +2191,7 @@
         <v>18.747356</v>
       </c>
       <c r="C21">
-        <v>0.043774776</v>
+        <v>4.3774776000000001E-2</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1971,28 +2200,28 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.8371613E-06</v>
+        <v>3.8371613000000001E-6</v>
       </c>
       <c r="G21">
-        <v>8.526935999999999</v>
+        <v>8.5269359999999992</v>
       </c>
       <c r="H21">
-        <v>5.823444000000001E-11</v>
+        <v>5.8234440000000006E-11</v>
       </c>
       <c r="I21">
-        <v>9.68144E-08</v>
+        <v>9.6814400000000004E-8</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.0724405E-07</v>
+        <v>1.0724405E-7</v>
       </c>
       <c r="L21">
-        <v>6.2191504E-07</v>
+        <v>6.2191503999999995E-7</v>
       </c>
       <c r="M21">
-        <v>8.932117E-06</v>
+        <v>8.9321170000000003E-6</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -2019,21 +2248,21 @@
         <v>18.75</v>
       </c>
       <c r="V21">
-        <v>8.571</v>
+        <v>8.5709999999999997</v>
       </c>
       <c r="W21">
-        <v>9.758E-06</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23">
+        <v>9.7580000000000004E-6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B22">
-        <v>5.5890684</v>
+        <v>5.5890684000000004</v>
       </c>
       <c r="C22">
-        <v>0.008040810000000001</v>
+        <v>8.0408100000000007E-3</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -2042,28 +2271,28 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>5.7091643E-06</v>
+        <v>5.7091643E-6</v>
       </c>
       <c r="G22">
-        <v>2.5732641</v>
+        <v>2.5732640999999998</v>
       </c>
       <c r="H22">
-        <v>2.1005372E-10</v>
+        <v>2.1005371999999999E-10</v>
       </c>
       <c r="I22">
-        <v>1.396035E-07</v>
+        <v>1.396035E-7</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.2949066E-07</v>
+        <v>1.2949065999999999E-7</v>
       </c>
       <c r="L22">
-        <v>8.7775544E-07</v>
+        <v>8.7775544000000002E-7</v>
       </c>
       <c r="M22">
-        <v>3.513971E-07</v>
+        <v>3.513971E-7</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2081,30 +2310,30 @@
         <v>1.655</v>
       </c>
       <c r="S22">
-        <v>0.8677</v>
+        <v>0.86770000000000003</v>
       </c>
       <c r="T22">
         <v>50.72</v>
       </c>
       <c r="U22">
-        <v>5.589</v>
+        <v>5.5890000000000004</v>
       </c>
       <c r="V22">
         <v>2.581</v>
       </c>
       <c r="W22">
-        <v>1.498E-06</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23">
+        <v>1.4980000000000001E-6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B23">
-        <v>2.2426019</v>
+        <v>2.2426018999999999</v>
       </c>
       <c r="C23">
-        <v>0.005010925</v>
+        <v>5.0109250000000003E-3</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -2113,28 +2342,28 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.36143E-07</v>
+        <v>4.3614300000000002E-7</v>
       </c>
       <c r="G23">
-        <v>0.6017661</v>
+        <v>0.60176609999999997</v>
       </c>
       <c r="H23">
-        <v>1.1612685E-12</v>
+        <v>1.1612684999999999E-12</v>
       </c>
       <c r="I23">
-        <v>7.645375E-09</v>
+        <v>7.6453750000000004E-9</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.4959765E-07</v>
+        <v>1.4959764999999999E-7</v>
       </c>
       <c r="L23">
-        <v>2.0499976E-07</v>
+        <v>2.0499976E-7</v>
       </c>
       <c r="M23">
-        <v>1.6205885E-06</v>
+        <v>1.6205885E-6</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2152,22 +2381,22 @@
         <v>0.49</v>
       </c>
       <c r="S23">
-        <v>0.9475</v>
+        <v>0.94750000000000001</v>
       </c>
       <c r="T23">
         <v>43.25</v>
       </c>
       <c r="U23">
-        <v>2.243</v>
+        <v>2.2429999999999999</v>
       </c>
       <c r="V23">
-        <v>0.6068</v>
+        <v>0.60680000000000001</v>
       </c>
       <c r="W23">
-        <v>1.983E-06</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23">
+        <v>1.9829999999999999E-6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
@@ -2175,7 +2404,7 @@
         <v>15.655376</v>
       </c>
       <c r="C24">
-        <v>0.0054118605</v>
+        <v>5.4118604999999998E-3</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -2184,28 +2413,28 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.00037478787</v>
+        <v>3.7478787000000001E-4</v>
       </c>
       <c r="G24">
-        <v>0.193731</v>
+        <v>0.19373099999999999</v>
       </c>
       <c r="H24">
-        <v>1.78685E-09</v>
+        <v>1.7868500000000001E-9</v>
       </c>
       <c r="I24">
-        <v>9.803020000000001E-06</v>
+        <v>9.8030200000000005E-6</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.0315937E-05</v>
+        <v>1.0315937E-5</v>
       </c>
       <c r="L24">
-        <v>2.881357E-05</v>
+        <v>2.8813569999999999E-5</v>
       </c>
       <c r="M24">
-        <v>1.5121114E-07</v>
+        <v>1.5121113999999999E-7</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2220,10 +2449,10 @@
         <v>0</v>
       </c>
       <c r="R24">
-        <v>8.856999999999999</v>
+        <v>8.8569999999999993</v>
       </c>
       <c r="S24">
-        <v>0.7963</v>
+        <v>0.79630000000000001</v>
       </c>
       <c r="T24">
         <v>64.88</v>
@@ -2232,21 +2461,21 @@
         <v>15.66</v>
       </c>
       <c r="V24">
-        <v>0.1995</v>
+        <v>0.19950000000000001</v>
       </c>
       <c r="W24">
-        <v>4.909E-05</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23">
+        <v>4.9089999999999999E-5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B25">
-        <v>34.03742</v>
+        <v>34.037419999999997</v>
       </c>
       <c r="C25">
-        <v>0.01859292</v>
+        <v>1.8592919999999999E-2</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -2255,28 +2484,28 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.00029261006</v>
+        <v>2.9261005999999998E-4</v>
       </c>
       <c r="G25">
-        <v>0.965365</v>
+        <v>0.96536500000000003</v>
       </c>
       <c r="H25">
-        <v>6.182035E-09</v>
+        <v>6.1820349999999999E-9</v>
       </c>
       <c r="I25">
-        <v>2.565506E-05</v>
+        <v>2.5655060000000002E-5</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.847E-05</v>
+        <v>2.847E-5</v>
       </c>
       <c r="L25">
-        <v>5.2063733E-05</v>
+        <v>5.2063732999999998E-5</v>
       </c>
       <c r="M25">
-        <v>5.78937E-08</v>
+        <v>5.7893699999999999E-8</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2291,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="R25">
-        <v>13.934</v>
+        <v>13.933999999999999</v>
       </c>
       <c r="S25">
-        <v>0.6051</v>
+        <v>0.60509999999999997</v>
       </c>
       <c r="T25">
         <v>178.5</v>
@@ -2303,21 +2532,21 @@
         <v>34.04</v>
       </c>
       <c r="V25">
-        <v>0.9843</v>
+        <v>0.98429999999999995</v>
       </c>
       <c r="W25">
-        <v>0.0001063</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23">
+        <v>1.063E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B26">
-        <v>22.116901</v>
+        <v>22.116900999999999</v>
       </c>
       <c r="C26">
-        <v>0.03653617</v>
+        <v>3.653617E-2</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -2326,28 +2555,28 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>0.00048567555</v>
+        <v>4.8567555E-4</v>
       </c>
       <c r="G26">
-        <v>0.9843456</v>
+        <v>0.98434560000000004</v>
       </c>
       <c r="H26">
-        <v>2.5071495E-10</v>
+        <v>2.5071494999999998E-10</v>
       </c>
       <c r="I26">
-        <v>1.753577E-07</v>
+        <v>1.753577E-7</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
       <c r="K26">
-        <v>2.0951433E-07</v>
+        <v>2.0951433000000001E-7</v>
       </c>
       <c r="L26">
-        <v>1.9872212E-05</v>
+        <v>1.9872211999999999E-5</v>
       </c>
       <c r="M26">
-        <v>8.011663E-08</v>
+        <v>8.0116629999999997E-8</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2362,10 +2591,10 @@
         <v>0</v>
       </c>
       <c r="R26">
-        <v>7.539</v>
+        <v>7.5389999999999997</v>
       </c>
       <c r="S26">
-        <v>0.9339</v>
+        <v>0.93389999999999995</v>
       </c>
       <c r="T26">
         <v>236.4</v>
@@ -2374,13 +2603,13 @@
         <v>22.12</v>
       </c>
       <c r="V26">
-        <v>1.021</v>
+        <v>1.0209999999999999</v>
       </c>
       <c r="W26">
-        <v>2.034E-05</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23">
+        <v>2.0339999999999998E-5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>47</v>
       </c>
@@ -2388,7 +2617,7 @@
         <v>42168.61</v>
       </c>
       <c r="C27">
-        <v>0.025718747</v>
+        <v>2.5718747E-2</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -2397,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.7848886E-05</v>
+        <v>1.7848886E-5</v>
       </c>
       <c r="G27">
         <v>11.306758</v>
@@ -2406,25 +2635,25 @@
         <v>1.13341235E-13</v>
       </c>
       <c r="I27">
-        <v>2.041612E-10</v>
+        <v>2.0416119999999999E-10</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
       <c r="K27">
-        <v>1.3047458E-08</v>
+        <v>1.3047458E-8</v>
       </c>
       <c r="L27">
-        <v>2.6003477E-06</v>
+        <v>2.6003477000000001E-6</v>
       </c>
       <c r="M27">
-        <v>5.182006E-08</v>
+        <v>5.1820060000000003E-8</v>
       </c>
       <c r="N27">
         <v>0</v>
       </c>
       <c r="O27">
-        <v>245.16739</v>
+        <v>245.16739000000001</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -2436,7 +2665,7 @@
         <v>2.59</v>
       </c>
       <c r="S27">
-        <v>0.9976</v>
+        <v>0.99760000000000004</v>
       </c>
       <c r="U27">
         <v>42170</v>
@@ -2448,15 +2677,15 @@
         <v>245.2</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B28">
-        <v>25.820711</v>
+        <v>25.820710999999999</v>
       </c>
       <c r="C28">
-        <v>0.03351911</v>
+        <v>3.3519109999999998E-2</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -2465,28 +2694,28 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>5.647187E-06</v>
+        <v>5.6471870000000002E-6</v>
       </c>
       <c r="G28">
-        <v>12.827697</v>
+        <v>12.827697000000001</v>
       </c>
       <c r="H28">
         <v>1.0157297E-10</v>
       </c>
       <c r="I28">
-        <v>3.740889E-07</v>
+        <v>3.7408890000000002E-7</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
       <c r="K28">
-        <v>2.2343309E-07</v>
+        <v>2.2343309E-7</v>
       </c>
       <c r="L28">
-        <v>9.43371E-07</v>
+        <v>9.4337099999999998E-7</v>
       </c>
       <c r="M28">
-        <v>5.4602538E-06</v>
+        <v>5.4602538000000002E-6</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2501,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="R28">
-        <v>0.406</v>
+        <v>0.40600000000000003</v>
       </c>
       <c r="S28">
-        <v>1.037</v>
+        <v>1.0369999999999999</v>
       </c>
       <c r="T28">
         <v>30.45</v>
@@ -2516,18 +2745,18 @@
         <v>12.86</v>
       </c>
       <c r="W28">
-        <v>7.001E-06</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23">
+        <v>7.0010000000000004E-6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B29">
-        <v>180.53441</v>
+        <v>180.53441000000001</v>
       </c>
       <c r="C29">
-        <v>5.5712542E-05</v>
+        <v>5.5712542000000001E-5</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -2536,34 +2765,34 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.3446212E-05</v>
+        <v>1.3446212E-5</v>
       </c>
       <c r="G29">
-        <v>0.2324035</v>
+        <v>0.23240350000000001</v>
       </c>
       <c r="H29">
-        <v>2.1045691E-11</v>
+        <v>2.1045691000000002E-11</v>
       </c>
       <c r="I29">
-        <v>1.1861536E-07</v>
+        <v>1.1861536E-7</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
       <c r="K29">
-        <v>3.5116102E-07</v>
+        <v>3.5116102000000002E-7</v>
       </c>
       <c r="L29">
-        <v>1.6332784E-07</v>
+        <v>1.6332783999999999E-7</v>
       </c>
       <c r="M29">
-        <v>1.6136484E-09</v>
+        <v>1.6136484E-9</v>
       </c>
       <c r="N29">
         <v>0</v>
       </c>
       <c r="O29">
-        <v>16.761597</v>
+        <v>16.761596999999998</v>
       </c>
       <c r="P29">
         <v>0</v>
@@ -2572,10 +2801,10 @@
         <v>0</v>
       </c>
       <c r="R29">
-        <v>-0.005</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="S29">
-        <v>1.09</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="T29">
         <v>26.8</v>
@@ -2584,21 +2813,21 @@
         <v>180.5</v>
       </c>
       <c r="V29">
-        <v>0.2325</v>
+        <v>0.23250000000000001</v>
       </c>
       <c r="W29">
-        <v>16.76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23">
+        <v>16.760000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B30">
-        <v>2363.6143</v>
+        <v>2363.6143000000002</v>
       </c>
       <c r="C30">
-        <v>2.7794866E-10</v>
+        <v>2.7794865999999998E-10</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -2610,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>7.3158346E-09</v>
+        <v>7.3158346000000002E-9</v>
       </c>
       <c r="H30">
-        <v>2.0998208E-09</v>
+        <v>2.0998208000000001E-9</v>
       </c>
       <c r="I30">
-        <v>9.044518E-06</v>
+        <v>9.0445180000000005E-6</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -2625,16 +2854,16 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>5.2165816E-15</v>
+        <v>5.2165815999999998E-15</v>
       </c>
       <c r="M30">
-        <v>3.8023868E-14</v>
+        <v>3.8023868000000003E-14</v>
       </c>
       <c r="N30">
         <v>0</v>
       </c>
       <c r="O30">
-        <v>851.7478599999999</v>
+        <v>851.74785999999995</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -2643,10 +2872,10 @@
         <v>0</v>
       </c>
       <c r="R30">
-        <v>-6.052</v>
+        <v>-6.0519999999999996</v>
       </c>
       <c r="S30">
-        <v>5.078E-05</v>
+        <v>5.0779999999999998E-5</v>
       </c>
       <c r="T30">
         <v>108.4</v>
@@ -2655,13 +2884,13 @@
         <v>2364</v>
       </c>
       <c r="V30">
-        <v>7.594E-09</v>
+        <v>7.594E-9</v>
       </c>
       <c r="W30">
         <v>851.7</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>51</v>
       </c>
@@ -2669,7 +2898,7 @@
         <v>1.6246246</v>
       </c>
       <c r="C31">
-        <v>3.2165717E-06</v>
+        <v>3.2165717000000001E-6</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -2681,13 +2910,13 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>7.347703E-06</v>
+        <v>7.3477029999999998E-6</v>
       </c>
       <c r="H31">
-        <v>5.971779E-13</v>
+        <v>5.9717789999999999E-13</v>
       </c>
       <c r="I31">
-        <v>1.05041245E-07</v>
+        <v>1.05041245E-7</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -2696,16 +2925,16 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <v>5.7467187E-09</v>
+        <v>5.7467186999999998E-9</v>
       </c>
       <c r="M31">
-        <v>4.2767387E-10</v>
+        <v>4.2767387000000001E-10</v>
       </c>
       <c r="N31">
         <v>0</v>
       </c>
       <c r="O31">
-        <v>0.0009155913</v>
+        <v>9.1559129999999999E-4</v>
       </c>
       <c r="P31">
         <v>0</v>
@@ -2714,7 +2943,7 @@
         <v>0</v>
       </c>
       <c r="R31">
-        <v>-0.672</v>
+        <v>-0.67200000000000004</v>
       </c>
       <c r="S31">
         <v>0.5796</v>
@@ -2726,21 +2955,21 @@
         <v>1.625</v>
       </c>
       <c r="V31">
-        <v>1.057E-05</v>
+        <v>1.057E-5</v>
       </c>
       <c r="W31">
-        <v>0.0009157</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23">
+        <v>9.1569999999999998E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B32">
-        <v>59.897373</v>
+        <v>59.897373000000002</v>
       </c>
       <c r="C32">
-        <v>8.68191E-05</v>
+        <v>8.6819100000000004E-5</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -2749,28 +2978,28 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>3.0601862E-07</v>
+        <v>3.0601862000000001E-7</v>
       </c>
       <c r="G32">
-        <v>0.0033972478</v>
+        <v>3.3972478000000002E-3</v>
       </c>
       <c r="H32">
         <v>8.873178E-12</v>
       </c>
       <c r="I32">
-        <v>5.6501378E-08</v>
+        <v>5.6501377999999999E-8</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
       <c r="K32">
-        <v>3.469742E-07</v>
+        <v>3.4697419999999998E-7</v>
       </c>
       <c r="L32">
-        <v>7.1143544E-09</v>
+        <v>7.1143543999999997E-9</v>
       </c>
       <c r="M32">
-        <v>2.3403185E-08</v>
+        <v>2.3403185000000001E-8</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2785,10 +3014,10 @@
         <v>0</v>
       </c>
       <c r="R32">
-        <v>-0.411</v>
+        <v>-0.41099999999999998</v>
       </c>
       <c r="S32">
-        <v>0.6912</v>
+        <v>0.69120000000000004</v>
       </c>
       <c r="T32">
         <v>30.97</v>
@@ -2797,21 +3026,21 @@
         <v>59.9</v>
       </c>
       <c r="V32">
-        <v>0.003484</v>
+        <v>3.4840000000000001E-3</v>
       </c>
       <c r="W32">
-        <v>4.471</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23">
+        <v>4.4710000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B33">
-        <v>13735.568</v>
+        <v>13735.567999999999</v>
       </c>
       <c r="C33">
-        <v>0.0029846649</v>
+        <v>2.9846649E-3</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -2826,10 +3055,10 @@
         <v>0.11399246</v>
       </c>
       <c r="H33">
-        <v>7.581986000000001E-12</v>
+        <v>7.5819860000000006E-12</v>
       </c>
       <c r="I33">
-        <v>4.3490125E-08</v>
+        <v>4.3490124999999998E-8</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -2838,10 +3067,10 @@
         <v>0</v>
       </c>
       <c r="L33">
-        <v>2.897741E-07</v>
+        <v>2.8977409999999998E-7</v>
       </c>
       <c r="M33">
-        <v>3.1397146E-08</v>
+        <v>3.1397146E-8</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -2856,33 +3085,33 @@
         <v>0</v>
       </c>
       <c r="R33">
-        <v>-0.359</v>
+        <v>-0.35899999999999999</v>
       </c>
       <c r="S33">
-        <v>0.9876</v>
+        <v>0.98760000000000003</v>
       </c>
       <c r="T33">
-        <v>33.8</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="U33">
         <v>13740</v>
       </c>
       <c r="V33">
-        <v>0.117</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="W33">
         <v>15.99</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B34">
-        <v>93.67041999999999</v>
+        <v>93.670419999999993</v>
       </c>
       <c r="C34">
-        <v>3.7237272</v>
+        <v>3.7237271999999999</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -2891,34 +3120,34 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>0.015501542</v>
+        <v>1.5501542E-2</v>
       </c>
       <c r="G34">
-        <v>89.859146</v>
+        <v>89.859145999999996</v>
       </c>
       <c r="H34">
-        <v>1.3123862E-07</v>
+        <v>1.3123862E-7</v>
       </c>
       <c r="I34">
-        <v>5.8291193E-05</v>
+        <v>5.8291193000000003E-5</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
       <c r="K34">
-        <v>2.8574994E-05</v>
+        <v>2.8574994E-5</v>
       </c>
       <c r="L34">
-        <v>0.0029260423</v>
+        <v>2.9260422999999999E-3</v>
       </c>
       <c r="M34">
-        <v>0.03304541</v>
+        <v>3.3045409999999997E-2</v>
       </c>
       <c r="N34">
         <v>0</v>
       </c>
       <c r="O34">
-        <v>0.16999131</v>
+        <v>0.16999131000000001</v>
       </c>
       <c r="P34">
         <v>0</v>
@@ -2927,10 +3156,10 @@
         <v>0</v>
       </c>
       <c r="R34">
-        <v>34.074</v>
+        <v>34.073999999999998</v>
       </c>
       <c r="S34">
-        <v>1.007</v>
+        <v>1.0069999999999999</v>
       </c>
       <c r="T34">
         <v>1532</v>
@@ -2942,7 +3171,7 @@
         <v>93.63</v>
       </c>
       <c r="W34">
-        <v>0.206</v>
+        <v>0.20599999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2951,784 +3180,1556 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="N12" sqref="N12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="3" max="4" width="9.81640625" style="2" customWidth="1"/>
+    <col min="5" max="7" width="6.26953125" style="2" customWidth="1"/>
+    <col min="8" max="10" width="6.26953125" customWidth="1"/>
+    <col min="11" max="11" width="10.54296875" style="16" customWidth="1"/>
+    <col min="12" max="17" width="11.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="M2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="N2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="O2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="P2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="Q2" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B2">
-        <v>232.195</v>
-      </c>
-      <c r="C2">
+      <c r="B3" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="7">
+        <v>4</v>
+      </c>
+      <c r="D3" s="7">
+        <v>200</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="L3" s="17">
+        <v>232.19499999999999</v>
+      </c>
+      <c r="M3" s="18">
         <v>197.5</v>
       </c>
-      <c r="D2">
-        <v>5.2727864E-06</v>
-      </c>
-      <c r="E2">
-        <v>0.0032134587</v>
-      </c>
-      <c r="F2">
-        <v>0.4789</v>
-      </c>
-      <c r="G2">
-        <v>0.003303</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
+      <c r="N3" s="18">
+        <v>5.2727864000000004E-6</v>
+      </c>
+      <c r="O3" s="18">
+        <v>3.2134587E-3</v>
+      </c>
+      <c r="P3" s="18">
+        <v>0.47889999999999999</v>
+      </c>
+      <c r="Q3" s="18">
+        <v>3.3029999999999999E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="7">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7">
+        <v>120</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" s="17">
+        <v>-0.97199999999999998</v>
+      </c>
+      <c r="M4" s="18">
+        <v>32.31</v>
+      </c>
+      <c r="N4" s="18">
+        <v>8.5461400000000005E-6</v>
+      </c>
+      <c r="O4" s="18">
+        <v>1.5542883000000001E-4</v>
+      </c>
+      <c r="P4" s="18">
+        <v>4.452</v>
+      </c>
+      <c r="Q4" s="18">
+        <v>1.794E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="7">
+        <v>4</v>
+      </c>
+      <c r="D5" s="7">
+        <v>200</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" s="17">
+        <v>0.83</v>
+      </c>
+      <c r="M5" s="18">
+        <v>17.29</v>
+      </c>
+      <c r="N5" s="18">
+        <v>7.6100600000000006E-8</v>
+      </c>
+      <c r="O5" s="18">
+        <v>1.4317835000000001E-9</v>
+      </c>
+      <c r="P5" s="18">
+        <v>1.5699999999999999E-5</v>
+      </c>
+      <c r="Q5" s="18">
+        <v>2.4139999999999998E-7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="7">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7">
+        <v>120</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="L6" s="17">
+        <v>-0.122</v>
+      </c>
+      <c r="M6" s="18">
+        <v>31.31</v>
+      </c>
+      <c r="N6" s="18">
+        <v>6.2191503999999995E-7</v>
+      </c>
+      <c r="O6" s="18">
+        <v>8.9321170000000003E-6</v>
+      </c>
+      <c r="P6" s="18">
+        <v>8.5709999999999997</v>
+      </c>
+      <c r="Q6" s="18">
+        <v>9.7580000000000004E-6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="7">
+        <v>4</v>
+      </c>
+      <c r="D7" s="7">
+        <v>200</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" s="17">
+        <v>1.655</v>
+      </c>
+      <c r="M7" s="18">
+        <v>50.72</v>
+      </c>
+      <c r="N7" s="18">
+        <v>8.7775544000000002E-7</v>
+      </c>
+      <c r="O7" s="18">
+        <v>3.513971E-7</v>
+      </c>
+      <c r="P7" s="18">
+        <v>2.581</v>
+      </c>
+      <c r="Q7" s="18">
+        <v>1.4980000000000001E-6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="7">
+        <v>3</v>
+      </c>
+      <c r="D8" s="7">
+        <v>120</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" s="17">
+        <v>0.49</v>
+      </c>
+      <c r="M8" s="18">
+        <v>43.25</v>
+      </c>
+      <c r="N8" s="18">
+        <v>2.0499976E-7</v>
+      </c>
+      <c r="O8" s="18">
+        <v>1.6205885E-6</v>
+      </c>
+      <c r="P8" s="18">
+        <v>0.60680000000000001</v>
+      </c>
+      <c r="Q8" s="18">
+        <v>1.9829999999999999E-6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="7">
+        <v>4</v>
+      </c>
+      <c r="D9" s="7">
+        <v>200</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="L9" s="17">
+        <v>8.8569999999999993</v>
+      </c>
+      <c r="M9" s="18">
+        <v>64.88</v>
+      </c>
+      <c r="N9" s="18">
+        <v>2.8813569999999999E-5</v>
+      </c>
+      <c r="O9" s="18">
+        <v>1.5121113999999999E-7</v>
+      </c>
+      <c r="P9" s="18">
+        <v>0.19950000000000001</v>
+      </c>
+      <c r="Q9" s="18">
+        <v>4.9089999999999999E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="7">
+        <v>4</v>
+      </c>
+      <c r="D10" s="7">
+        <v>200</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="L10" s="17">
+        <v>13.933999999999999</v>
+      </c>
+      <c r="M10" s="18">
+        <v>178.5</v>
+      </c>
+      <c r="N10" s="18">
+        <v>5.2063732999999998E-5</v>
+      </c>
+      <c r="O10" s="18">
+        <v>5.7893699999999999E-8</v>
+      </c>
+      <c r="P10" s="18">
+        <v>0.98429999999999995</v>
+      </c>
+      <c r="Q10" s="18">
+        <v>1.063E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="7">
+        <v>4</v>
+      </c>
+      <c r="D11" s="7">
+        <v>200</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="17">
+        <v>7.5389999999999997</v>
+      </c>
+      <c r="M11" s="18">
+        <v>236.4</v>
+      </c>
+      <c r="N11" s="18">
+        <v>1.9872211999999999E-5</v>
+      </c>
+      <c r="O11" s="18">
+        <v>8.0116629999999997E-8</v>
+      </c>
+      <c r="P11" s="18">
+        <v>1.0209999999999999</v>
+      </c>
+      <c r="Q11" s="18">
+        <v>2.0339999999999998E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B3">
-        <v>-248.181</v>
-      </c>
-      <c r="C3">
+      <c r="B12" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="8">
+        <v>4</v>
+      </c>
+      <c r="D12" s="8">
+        <v>200</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="L12" s="17">
+        <v>-248.18100000000001</v>
+      </c>
+      <c r="M12" s="18">
         <v>512.6</v>
       </c>
-      <c r="D3">
-        <v>0.000455439</v>
-      </c>
-      <c r="E3">
-        <v>0.0002478091</v>
-      </c>
-      <c r="F3">
-        <v>3.277</v>
-      </c>
-      <c r="G3">
-        <v>0.0007797</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
+      <c r="N12" s="18">
+        <v>4.5543899999999997E-4</v>
+      </c>
+      <c r="O12" s="18">
+        <v>2.4780910000000002E-4</v>
+      </c>
+      <c r="P12" s="18">
+        <v>3.2770000000000001</v>
+      </c>
+      <c r="Q12" s="18">
+        <v>7.7970000000000003E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B4">
-        <v>32.485</v>
-      </c>
-      <c r="C4">
+      <c r="B13" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="9">
+        <v>4</v>
+      </c>
+      <c r="D13" s="9">
+        <v>200</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" s="9"/>
+      <c r="K13" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="L13" s="17">
+        <v>32.484999999999999</v>
+      </c>
+      <c r="M13" s="18">
         <v>1161</v>
       </c>
-      <c r="D4">
-        <v>0.0016187779</v>
-      </c>
-      <c r="E4">
-        <v>0.0071034385</v>
-      </c>
-      <c r="F4">
+      <c r="N13" s="18">
+        <v>1.6187778999999999E-3</v>
+      </c>
+      <c r="O13" s="18">
+        <v>7.1034384999999999E-3</v>
+      </c>
+      <c r="P13" s="18">
         <v>109700</v>
       </c>
-      <c r="G4">
-        <v>0.008831</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
+      <c r="Q13" s="18">
+        <v>8.8310000000000003E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B5">
-        <v>0.712</v>
-      </c>
-      <c r="C5">
+      <c r="B14" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="9">
+        <v>4</v>
+      </c>
+      <c r="D14" s="9">
+        <v>200</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="L14" s="17">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="M14" s="18">
         <v>25.21</v>
       </c>
-      <c r="D5">
-        <v>7.6363435E-08</v>
-      </c>
-      <c r="E5">
-        <v>5.979953E-07</v>
-      </c>
-      <c r="F5">
-        <v>0.3801</v>
-      </c>
-      <c r="G5">
+      <c r="N14" s="18">
+        <v>7.6363434999999997E-8</v>
+      </c>
+      <c r="O14" s="18">
+        <v>5.9799530000000003E-7</v>
+      </c>
+      <c r="P14" s="18">
+        <v>0.38009999999999999</v>
+      </c>
+      <c r="Q14" s="18">
         <v>546.5</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A15" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B6">
-        <v>30.944</v>
-      </c>
-      <c r="C6">
+      <c r="B15" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="9">
+        <v>4</v>
+      </c>
+      <c r="D15" s="9">
+        <v>200</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="L15" s="17">
+        <v>30.943999999999999</v>
+      </c>
+      <c r="M15" s="18">
         <v>723.6</v>
       </c>
-      <c r="D6">
-        <v>0.000508343</v>
-      </c>
-      <c r="E6">
-        <v>0.018634804</v>
-      </c>
-      <c r="F6">
-        <v>0.02616</v>
-      </c>
-      <c r="G6">
+      <c r="N15" s="18">
+        <v>5.0834299999999997E-4</v>
+      </c>
+      <c r="O15" s="18">
+        <v>1.8634804000000001E-2</v>
+      </c>
+      <c r="P15" s="18">
+        <v>2.6159999999999999E-2</v>
+      </c>
+      <c r="Q15" s="18">
         <v>710.6</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A16" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B7">
+      <c r="B16" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="9">
+        <v>4</v>
+      </c>
+      <c r="D16" s="9">
+        <v>200</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="L16" s="17">
         <v>48.058</v>
       </c>
-      <c r="C7">
+      <c r="M16" s="18">
         <v>1875</v>
       </c>
-      <c r="D7">
-        <v>0.0038444141</v>
-      </c>
-      <c r="E7">
-        <v>0.04607599</v>
-      </c>
-      <c r="F7">
+      <c r="N16" s="18">
+        <v>3.8444141E-3</v>
+      </c>
+      <c r="O16" s="18">
+        <v>4.6075989999999997E-2</v>
+      </c>
+      <c r="P16" s="18">
         <v>62320</v>
       </c>
-      <c r="G7">
+      <c r="Q16" s="18">
         <v>236.6</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B8">
-        <v>-1.187</v>
-      </c>
-      <c r="C8">
+      <c r="B17" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="9">
+        <v>4</v>
+      </c>
+      <c r="D17" s="9">
+        <v>200</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="L17" s="17">
+        <v>-1.1870000000000001</v>
+      </c>
+      <c r="M17" s="18">
         <v>44.21</v>
       </c>
-      <c r="D8">
-        <v>4.2887333E-08</v>
-      </c>
-      <c r="E8">
-        <v>2.057204E-08</v>
-      </c>
-      <c r="F8">
-        <v>0.0001817</v>
-      </c>
-      <c r="G8">
-        <v>0.0002251</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
+      <c r="N17" s="18">
+        <v>4.2887333000000002E-8</v>
+      </c>
+      <c r="O17" s="18">
+        <v>2.057204E-8</v>
+      </c>
+      <c r="P17" s="18">
+        <v>1.817E-4</v>
+      </c>
+      <c r="Q17" s="18">
+        <v>2.251E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A18" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B9">
-        <v>4.942</v>
-      </c>
-      <c r="C9">
-        <v>306.4</v>
-      </c>
-      <c r="D9">
-        <v>0.00011688182</v>
-      </c>
-      <c r="E9">
-        <v>0.00062875694</v>
-      </c>
-      <c r="F9">
-        <v>0.01176</v>
-      </c>
-      <c r="G9">
+      <c r="B18" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="9">
+        <v>4</v>
+      </c>
+      <c r="D18" s="9">
+        <v>200</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="L18" s="17">
+        <v>4.9420000000000002</v>
+      </c>
+      <c r="M18" s="18">
+        <v>306.39999999999998</v>
+      </c>
+      <c r="N18" s="18">
+        <v>1.1688182E-4</v>
+      </c>
+      <c r="O18" s="18">
+        <v>6.2875693999999999E-4</v>
+      </c>
+      <c r="P18" s="18">
+        <v>1.176E-2</v>
+      </c>
+      <c r="Q18" s="18">
         <v>210.4</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A19" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B10">
-        <v>-14.575</v>
-      </c>
-      <c r="C10">
+      <c r="B19" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="9">
+        <v>4</v>
+      </c>
+      <c r="D19" s="9">
+        <v>200</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="L19" s="17">
+        <v>-14.574999999999999</v>
+      </c>
+      <c r="M19" s="18">
         <v>282.7</v>
       </c>
-      <c r="D10">
-        <v>3.1944688E-05</v>
-      </c>
-      <c r="E10">
-        <v>6.966335E-06</v>
-      </c>
-      <c r="F10">
-        <v>2.549</v>
-      </c>
-      <c r="G10">
+      <c r="N19" s="18">
+        <v>3.1944688E-5</v>
+      </c>
+      <c r="O19" s="18">
+        <v>6.9663349999999996E-6</v>
+      </c>
+      <c r="P19" s="18">
+        <v>2.5489999999999999</v>
+      </c>
+      <c r="Q19" s="18">
         <v>16.96</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A20" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B11">
-        <v>97.86499999999999</v>
-      </c>
-      <c r="C11">
+      <c r="B20" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="9">
+        <v>4</v>
+      </c>
+      <c r="D20" s="9">
+        <v>200</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="L20" s="17">
+        <v>97.864999999999995</v>
+      </c>
+      <c r="M20" s="18">
         <v>2269</v>
       </c>
-      <c r="D11">
-        <v>0.0046020495</v>
-      </c>
-      <c r="E11">
-        <v>0.040873464</v>
-      </c>
-      <c r="F11">
+      <c r="N20" s="18">
+        <v>4.6020495000000002E-3</v>
+      </c>
+      <c r="O20" s="18">
+        <v>4.0873463999999998E-2</v>
+      </c>
+      <c r="P20" s="18">
         <v>57.14</v>
       </c>
-      <c r="G11">
+      <c r="Q20" s="18">
         <v>235.4</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1" t="s">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A21" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B12">
+      <c r="B21" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="9">
+        <v>4</v>
+      </c>
+      <c r="D21" s="9">
+        <v>200</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="L21" s="17">
         <v>-38.634</v>
       </c>
-      <c r="C12">
-        <v>620.2</v>
-      </c>
-      <c r="D12">
-        <v>0.000100432306</v>
-      </c>
-      <c r="E12">
-        <v>0.00016213668</v>
-      </c>
-      <c r="F12">
-        <v>0.3013</v>
-      </c>
-      <c r="G12">
-        <v>0.0002753</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1" t="s">
+      <c r="M21" s="18">
+        <v>620.20000000000005</v>
+      </c>
+      <c r="N21" s="18">
+        <v>1.00432306E-4</v>
+      </c>
+      <c r="O21" s="18">
+        <v>1.6213668E-4</v>
+      </c>
+      <c r="P21" s="18">
+        <v>0.30130000000000001</v>
+      </c>
+      <c r="Q21" s="18">
+        <v>2.7530000000000002E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A22" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B13">
-        <v>0.645</v>
-      </c>
-      <c r="C13">
+      <c r="B22" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="12">
+        <v>4</v>
+      </c>
+      <c r="D22" s="12">
+        <v>200</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="L22" s="17">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="M22" s="18">
         <v>11.93</v>
       </c>
-      <c r="D13">
-        <v>4.3859965E-09</v>
-      </c>
-      <c r="E13">
-        <v>6.7883715E-10</v>
-      </c>
-      <c r="F13">
-        <v>4.875E-06</v>
-      </c>
-      <c r="G13">
+      <c r="N22" s="18">
+        <v>4.3859965000000001E-9</v>
+      </c>
+      <c r="O22" s="18">
+        <v>6.7883715000000003E-10</v>
+      </c>
+      <c r="P22" s="18">
+        <v>4.8749999999999999E-6</v>
+      </c>
+      <c r="Q22" s="18">
         <v>296.2</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1" t="s">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A23" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B14">
-        <v>-4.655</v>
-      </c>
-      <c r="C14">
+      <c r="B23" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="12">
+        <v>4</v>
+      </c>
+      <c r="D23" s="12">
+        <v>200</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="L23" s="17">
+        <v>-4.6550000000000002</v>
+      </c>
+      <c r="M23" s="18">
         <v>49.09</v>
       </c>
-      <c r="D14">
-        <v>8.542247E-11</v>
-      </c>
-      <c r="E14">
-        <v>9.786051999999999E-10</v>
-      </c>
-      <c r="F14">
-        <v>2.476E-06</v>
-      </c>
-      <c r="G14">
-        <v>0.5077</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1" t="s">
+      <c r="N23" s="18">
+        <v>8.5422470000000005E-11</v>
+      </c>
+      <c r="O23" s="18">
+        <v>9.7860519999999991E-10</v>
+      </c>
+      <c r="P23" s="18">
+        <v>2.4760000000000001E-6</v>
+      </c>
+      <c r="Q23" s="18">
+        <v>0.50770000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A24" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B15">
-        <v>0.074</v>
-      </c>
-      <c r="C15">
+      <c r="B24" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="12">
+        <v>4</v>
+      </c>
+      <c r="D24" s="12">
+        <v>200</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="L24" s="17">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="M24" s="18">
         <v>16.61</v>
       </c>
-      <c r="D15">
-        <v>5.8866544E-07</v>
-      </c>
-      <c r="E15">
-        <v>3.4624976E-11</v>
-      </c>
-      <c r="F15">
-        <v>0.0001875</v>
-      </c>
-      <c r="G15">
-        <v>5.899E-07</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1" t="s">
+      <c r="N24" s="18">
+        <v>5.8866543999999997E-7</v>
+      </c>
+      <c r="O24" s="18">
+        <v>3.4624976000000002E-11</v>
+      </c>
+      <c r="P24" s="18">
+        <v>1.875E-4</v>
+      </c>
+      <c r="Q24" s="18">
+        <v>5.8989999999999996E-7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A25" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B16">
-        <v>-70.176</v>
-      </c>
-      <c r="C16">
+      <c r="B25" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="12">
+        <v>4</v>
+      </c>
+      <c r="D25" s="12">
+        <v>200</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="L25" s="17">
+        <v>-70.176000000000002</v>
+      </c>
+      <c r="M25" s="18">
         <v>910.5</v>
       </c>
-      <c r="D16">
-        <v>0.0032595617</v>
-      </c>
-      <c r="E16">
-        <v>0.001742668</v>
-      </c>
-      <c r="F16">
-        <v>7.079</v>
-      </c>
-      <c r="G16">
-        <v>0.005023</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17">
-        <v>-0.126</v>
-      </c>
-      <c r="D17">
-        <v>2.9603171E-07</v>
-      </c>
-      <c r="E17">
-        <v>3.4189424E-07</v>
-      </c>
-      <c r="F17">
-        <v>3.799</v>
-      </c>
-      <c r="G17">
-        <v>7.647</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18">
-        <v>-0.276</v>
-      </c>
-      <c r="D18">
-        <v>2.6072914E-07</v>
-      </c>
-      <c r="E18">
-        <v>1.1584766E-06</v>
-      </c>
-      <c r="F18">
-        <v>1.496</v>
-      </c>
-      <c r="G18">
-        <v>3.104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19">
-        <v>-0.972</v>
-      </c>
-      <c r="C19">
-        <v>32.31</v>
-      </c>
-      <c r="D19">
-        <v>8.54614E-06</v>
-      </c>
-      <c r="E19">
-        <v>0.00015542883</v>
-      </c>
-      <c r="F19">
-        <v>4.452</v>
-      </c>
-      <c r="G19">
-        <v>0.0001794</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20">
-        <v>0.83</v>
-      </c>
-      <c r="C20">
-        <v>17.29</v>
-      </c>
-      <c r="D20">
-        <v>7.610060000000001E-08</v>
-      </c>
-      <c r="E20">
-        <v>1.4317835E-09</v>
-      </c>
-      <c r="F20">
-        <v>1.57E-05</v>
-      </c>
-      <c r="G20">
-        <v>2.414E-07</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21">
-        <v>-0.122</v>
-      </c>
-      <c r="C21">
-        <v>31.31</v>
-      </c>
-      <c r="D21">
-        <v>6.2191504E-07</v>
-      </c>
-      <c r="E21">
-        <v>8.932117E-06</v>
-      </c>
-      <c r="F21">
-        <v>8.571</v>
-      </c>
-      <c r="G21">
-        <v>9.758E-06</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22">
-        <v>1.655</v>
-      </c>
-      <c r="C22">
-        <v>50.72</v>
-      </c>
-      <c r="D22">
-        <v>8.7775544E-07</v>
-      </c>
-      <c r="E22">
-        <v>3.513971E-07</v>
-      </c>
-      <c r="F22">
-        <v>2.581</v>
-      </c>
-      <c r="G22">
-        <v>1.498E-06</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23">
-        <v>0.49</v>
-      </c>
-      <c r="C23">
-        <v>43.25</v>
-      </c>
-      <c r="D23">
-        <v>2.0499976E-07</v>
-      </c>
-      <c r="E23">
-        <v>1.6205885E-06</v>
-      </c>
-      <c r="F23">
-        <v>0.6068</v>
-      </c>
-      <c r="G23">
-        <v>1.983E-06</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24">
-        <v>8.856999999999999</v>
-      </c>
-      <c r="C24">
-        <v>64.88</v>
-      </c>
-      <c r="D24">
-        <v>2.881357E-05</v>
-      </c>
-      <c r="E24">
-        <v>1.5121114E-07</v>
-      </c>
-      <c r="F24">
-        <v>0.1995</v>
-      </c>
-      <c r="G24">
-        <v>4.909E-05</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25">
-        <v>13.934</v>
-      </c>
-      <c r="C25">
-        <v>178.5</v>
-      </c>
-      <c r="D25">
-        <v>5.2063733E-05</v>
-      </c>
-      <c r="E25">
-        <v>5.78937E-08</v>
-      </c>
-      <c r="F25">
-        <v>0.9843</v>
-      </c>
-      <c r="G25">
-        <v>0.0001063</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26">
-        <v>7.539</v>
-      </c>
-      <c r="C26">
-        <v>236.4</v>
-      </c>
-      <c r="D26">
-        <v>1.9872212E-05</v>
-      </c>
-      <c r="E26">
-        <v>8.011663E-08</v>
-      </c>
-      <c r="F26">
-        <v>1.021</v>
-      </c>
-      <c r="G26">
-        <v>2.034E-05</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27">
-        <v>2.59</v>
-      </c>
-      <c r="D27">
-        <v>2.6003477E-06</v>
-      </c>
-      <c r="E27">
-        <v>5.182006E-08</v>
-      </c>
-      <c r="F27">
-        <v>11.33</v>
-      </c>
-      <c r="G27">
-        <v>245.2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="1" t="s">
+      <c r="N25" s="18">
+        <v>3.2595617E-3</v>
+      </c>
+      <c r="O25" s="18">
+        <v>1.742668E-3</v>
+      </c>
+      <c r="P25" s="18">
+        <v>7.0789999999999997</v>
+      </c>
+      <c r="Q25" s="18">
+        <v>5.0229999999999997E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A26" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B28">
-        <v>0.406</v>
-      </c>
-      <c r="C28">
+      <c r="B26" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="14">
+        <v>4</v>
+      </c>
+      <c r="D26" s="14">
+        <v>200</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="L26" s="17">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="M26" s="18">
         <v>30.45</v>
       </c>
-      <c r="D28">
-        <v>9.43371E-07</v>
-      </c>
-      <c r="E28">
-        <v>5.4602538E-06</v>
-      </c>
-      <c r="F28">
+      <c r="N26" s="18">
+        <v>9.4337099999999998E-7</v>
+      </c>
+      <c r="O26" s="18">
+        <v>5.4602538000000002E-6</v>
+      </c>
+      <c r="P26" s="18">
         <v>12.86</v>
       </c>
-      <c r="G28">
-        <v>7.001E-06</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="1" t="s">
+      <c r="Q26" s="18">
+        <v>7.0010000000000004E-6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A27" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B29">
-        <v>-0.005</v>
-      </c>
-      <c r="C29">
+      <c r="B27" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="14">
+        <v>4</v>
+      </c>
+      <c r="D27" s="14">
+        <v>200</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="K27" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="L27" s="17">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="M27" s="18">
         <v>26.8</v>
       </c>
-      <c r="D29">
-        <v>1.6332784E-07</v>
-      </c>
-      <c r="E29">
-        <v>1.6136484E-09</v>
-      </c>
-      <c r="F29">
-        <v>0.2325</v>
-      </c>
-      <c r="G29">
-        <v>16.76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="1" t="s">
+      <c r="N27" s="18">
+        <v>1.6332783999999999E-7</v>
+      </c>
+      <c r="O27" s="18">
+        <v>1.6136484E-9</v>
+      </c>
+      <c r="P27" s="18">
+        <v>0.23250000000000001</v>
+      </c>
+      <c r="Q27" s="18">
+        <v>16.760000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A28" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B30">
-        <v>-6.052</v>
-      </c>
-      <c r="C30">
+      <c r="B28" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="14">
+        <v>4</v>
+      </c>
+      <c r="D28" s="14">
+        <v>200</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="L28" s="17">
+        <v>-6.0519999999999996</v>
+      </c>
+      <c r="M28" s="18">
         <v>108.4</v>
       </c>
-      <c r="D30">
-        <v>5.2165816E-15</v>
-      </c>
-      <c r="E30">
-        <v>3.8023868E-14</v>
-      </c>
-      <c r="F30">
-        <v>7.594E-09</v>
-      </c>
-      <c r="G30">
+      <c r="N28" s="18">
+        <v>5.2165815999999998E-15</v>
+      </c>
+      <c r="O28" s="18">
+        <v>3.8023868000000003E-14</v>
+      </c>
+      <c r="P28" s="18">
+        <v>7.594E-9</v>
+      </c>
+      <c r="Q28" s="18">
         <v>851.7</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="1" t="s">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A29" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B31">
-        <v>-0.672</v>
-      </c>
-      <c r="C31">
+      <c r="B29" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="14">
+        <v>4</v>
+      </c>
+      <c r="D29" s="14">
+        <v>200</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="K29" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="L29" s="17">
+        <v>-0.67200000000000004</v>
+      </c>
+      <c r="M29" s="18">
         <v>31.51</v>
       </c>
-      <c r="D31">
-        <v>5.7467187E-09</v>
-      </c>
-      <c r="E31">
-        <v>4.2767387E-10</v>
-      </c>
-      <c r="F31">
-        <v>1.057E-05</v>
-      </c>
-      <c r="G31">
-        <v>0.0009157</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="1" t="s">
+      <c r="N29" s="18">
+        <v>5.7467186999999998E-9</v>
+      </c>
+      <c r="O29" s="18">
+        <v>4.2767387000000001E-10</v>
+      </c>
+      <c r="P29" s="18">
+        <v>1.057E-5</v>
+      </c>
+      <c r="Q29" s="18">
+        <v>9.1569999999999998E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A30" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B32">
-        <v>-0.411</v>
-      </c>
-      <c r="C32">
+      <c r="B30" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="14">
+        <v>4</v>
+      </c>
+      <c r="D30" s="14">
+        <v>200</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="K30" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="L30" s="17">
+        <v>-0.41099999999999998</v>
+      </c>
+      <c r="M30" s="18">
         <v>30.97</v>
       </c>
-      <c r="D32">
-        <v>7.1143544E-09</v>
-      </c>
-      <c r="E32">
-        <v>2.3403185E-08</v>
-      </c>
-      <c r="F32">
-        <v>0.003484</v>
-      </c>
-      <c r="G32">
-        <v>4.471</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="1" t="s">
+      <c r="N30" s="18">
+        <v>7.1143543999999997E-9</v>
+      </c>
+      <c r="O30" s="18">
+        <v>2.3403185000000001E-8</v>
+      </c>
+      <c r="P30" s="18">
+        <v>3.4840000000000001E-3</v>
+      </c>
+      <c r="Q30" s="18">
+        <v>4.4710000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A31" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B33">
-        <v>-0.359</v>
-      </c>
-      <c r="C33">
-        <v>33.8</v>
-      </c>
-      <c r="D33">
-        <v>2.897741E-07</v>
-      </c>
-      <c r="E33">
-        <v>3.1397146E-08</v>
-      </c>
-      <c r="F33">
-        <v>0.117</v>
-      </c>
-      <c r="G33">
+      <c r="B31" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="14">
+        <v>4</v>
+      </c>
+      <c r="D31" s="14">
+        <v>200</v>
+      </c>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="K31" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="L31" s="17">
+        <v>-0.35899999999999999</v>
+      </c>
+      <c r="M31" s="18">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="N31" s="18">
+        <v>2.8977409999999998E-7</v>
+      </c>
+      <c r="O31" s="18">
+        <v>3.1397146E-8</v>
+      </c>
+      <c r="P31" s="18">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="Q31" s="18">
         <v>15.99</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="1" t="s">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A32" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B34">
-        <v>34.074</v>
-      </c>
-      <c r="C34">
+      <c r="B32" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="14">
+        <v>4</v>
+      </c>
+      <c r="D32" s="14">
+        <v>200</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="K32" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="L32" s="17">
+        <v>34.073999999999998</v>
+      </c>
+      <c r="M32" s="18">
         <v>1532</v>
       </c>
-      <c r="D34">
-        <v>0.0029260423</v>
-      </c>
-      <c r="E34">
-        <v>0.03304541</v>
-      </c>
-      <c r="F34">
+      <c r="N32" s="18">
+        <v>2.9260422999999999E-3</v>
+      </c>
+      <c r="O32" s="18">
+        <v>3.3045409999999997E-2</v>
+      </c>
+      <c r="P32" s="18">
         <v>93.63</v>
       </c>
-      <c r="G34">
-        <v>0.206</v>
-      </c>
+      <c r="Q32" s="18">
+        <v>0.20599999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:Q32" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:Q1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="K3:K1048576">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+      <formula>"buena"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"mala"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"media"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/code/Post/results.xlsx
+++ b/code/Post/results.xlsx
@@ -8,23 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achom\Desktop\Main\Code\Scientific-Computing\Physics-Neural-Networks\PINN\code\Post\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B2B4F7-0FF2-4EB5-B089-8643942E6AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2276DE6D-49F4-4ECA-993E-D67B4C24A904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Complete" sheetId="1" r:id="rId1"/>
     <sheet name="Filtered" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Filtered!$A$2:$Q$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Filtered!$A$2:$R$32</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="92">
   <si>
     <t>TL</t>
   </si>
@@ -255,6 +255,51 @@
   </si>
   <si>
     <t>Results</t>
+  </si>
+  <si>
+    <t>S51</t>
+  </si>
+  <si>
+    <t>S52</t>
+  </si>
+  <si>
+    <t>S53</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>ARCH</t>
+  </si>
+  <si>
+    <t>FCNN</t>
+  </si>
+  <si>
+    <t>ResNet</t>
+  </si>
+  <si>
+    <t>S54</t>
+  </si>
+  <si>
+    <t>S55</t>
+  </si>
+  <si>
+    <t>S56</t>
+  </si>
+  <si>
+    <t>S57</t>
+  </si>
+  <si>
+    <t>S58</t>
+  </si>
+  <si>
+    <t>S59</t>
+  </si>
+  <si>
+    <t>S60</t>
+  </si>
+  <si>
+    <t>S61</t>
   </si>
 </sst>
 </file>
@@ -262,7 +307,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.00.E+00"/>
+    <numFmt numFmtId="164" formatCode="0.00.E+00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -281,7 +326,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -309,6 +354,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,21 +417,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -411,30 +453,60 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -448,21 +520,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3181,1553 +3239,2057 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N12" sqref="N12"/>
+      <selection pane="bottomRight" activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="12.453125" customWidth="1"/>
-    <col min="3" max="4" width="9.81640625" style="2" customWidth="1"/>
-    <col min="5" max="7" width="6.26953125" style="2" customWidth="1"/>
-    <col min="8" max="10" width="6.26953125" customWidth="1"/>
-    <col min="11" max="11" width="10.54296875" style="16" customWidth="1"/>
-    <col min="12" max="17" width="11.7265625" customWidth="1"/>
+    <col min="3" max="3" width="7.36328125" customWidth="1"/>
+    <col min="4" max="5" width="9.81640625" style="26" customWidth="1"/>
+    <col min="6" max="6" width="6.26953125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="6.26953125" style="31" customWidth="1"/>
+    <col min="8" max="8" width="6.26953125" style="2" customWidth="1"/>
+    <col min="9" max="11" width="6.26953125" customWidth="1"/>
+    <col min="12" max="12" width="10.54296875" style="13" customWidth="1"/>
+    <col min="13" max="18" width="11.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A1" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5" t="s">
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5" t="s">
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="P2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="21">
         <v>4</v>
       </c>
-      <c r="D3" s="7">
+      <c r="E3" s="21">
         <v>200</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="12" t="s">
+      <c r="F3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="L3" s="17">
+      <c r="M3" s="14">
         <v>232.19499999999999</v>
       </c>
-      <c r="M3" s="18">
+      <c r="N3" s="15">
         <v>197.5</v>
       </c>
-      <c r="N3" s="18">
+      <c r="O3" s="15">
         <v>5.2727864000000004E-6</v>
       </c>
-      <c r="O3" s="18">
+      <c r="P3" s="15">
         <v>3.2134587E-3</v>
       </c>
-      <c r="P3" s="18">
+      <c r="Q3" s="15">
         <v>0.47889999999999999</v>
       </c>
-      <c r="Q3" s="18">
+      <c r="R3" s="15">
         <v>3.3029999999999999E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="21">
         <v>3</v>
       </c>
-      <c r="D4" s="7">
+      <c r="E4" s="21">
         <v>120</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="12" t="s">
+      <c r="F4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="L4" s="17">
+      <c r="M4" s="14">
         <v>-0.97199999999999998</v>
       </c>
-      <c r="M4" s="18">
+      <c r="N4" s="15">
         <v>32.31</v>
       </c>
-      <c r="N4" s="18">
+      <c r="O4" s="15">
         <v>8.5461400000000005E-6</v>
       </c>
-      <c r="O4" s="18">
+      <c r="P4" s="15">
         <v>1.5542883000000001E-4</v>
       </c>
-      <c r="P4" s="18">
+      <c r="Q4" s="15">
         <v>4.452</v>
       </c>
-      <c r="Q4" s="18">
+      <c r="R4" s="15">
         <v>1.794E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="21">
         <v>4</v>
       </c>
-      <c r="D5" s="7">
+      <c r="E5" s="21">
         <v>200</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="12" t="s">
+      <c r="F5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="L5" s="17">
+      <c r="M5" s="14">
         <v>0.83</v>
       </c>
-      <c r="M5" s="18">
+      <c r="N5" s="15">
         <v>17.29</v>
       </c>
-      <c r="N5" s="18">
+      <c r="O5" s="15">
         <v>7.6100600000000006E-8</v>
       </c>
-      <c r="O5" s="18">
+      <c r="P5" s="15">
         <v>1.4317835000000001E-9</v>
       </c>
-      <c r="P5" s="18">
+      <c r="Q5" s="15">
         <v>1.5699999999999999E-5</v>
       </c>
-      <c r="Q5" s="18">
+      <c r="R5" s="15">
         <v>2.4139999999999998E-7</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="21">
         <v>3</v>
       </c>
-      <c r="D6" s="7">
+      <c r="E6" s="21">
         <v>120</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="12" t="s">
+      <c r="F6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="L6" s="17">
+      <c r="M6" s="14">
         <v>-0.122</v>
       </c>
-      <c r="M6" s="18">
+      <c r="N6" s="15">
         <v>31.31</v>
       </c>
-      <c r="N6" s="18">
+      <c r="O6" s="15">
         <v>6.2191503999999995E-7</v>
       </c>
-      <c r="O6" s="18">
+      <c r="P6" s="15">
         <v>8.9321170000000003E-6</v>
       </c>
-      <c r="P6" s="18">
+      <c r="Q6" s="15">
         <v>8.5709999999999997</v>
       </c>
-      <c r="Q6" s="18">
+      <c r="R6" s="15">
         <v>9.7580000000000004E-6</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="21">
         <v>4</v>
       </c>
-      <c r="D7" s="7">
+      <c r="E7" s="21">
         <v>200</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="12" t="s">
+      <c r="F7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="L7" s="17">
+      <c r="M7" s="14">
         <v>1.655</v>
       </c>
-      <c r="M7" s="18">
+      <c r="N7" s="15">
         <v>50.72</v>
       </c>
-      <c r="N7" s="18">
+      <c r="O7" s="15">
         <v>8.7775544000000002E-7</v>
       </c>
-      <c r="O7" s="18">
+      <c r="P7" s="15">
         <v>3.513971E-7</v>
       </c>
-      <c r="P7" s="18">
+      <c r="Q7" s="15">
         <v>2.581</v>
       </c>
-      <c r="Q7" s="18">
+      <c r="R7" s="15">
         <v>1.4980000000000001E-6</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="21">
         <v>3</v>
       </c>
-      <c r="D8" s="7">
+      <c r="E8" s="21">
         <v>120</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="12" t="s">
+      <c r="F8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="L8" s="17">
+      <c r="M8" s="14">
         <v>0.49</v>
       </c>
-      <c r="M8" s="18">
+      <c r="N8" s="15">
         <v>43.25</v>
       </c>
-      <c r="N8" s="18">
+      <c r="O8" s="15">
         <v>2.0499976E-7</v>
       </c>
-      <c r="O8" s="18">
+      <c r="P8" s="15">
         <v>1.6205885E-6</v>
       </c>
-      <c r="P8" s="18">
+      <c r="Q8" s="15">
         <v>0.60680000000000001</v>
       </c>
-      <c r="Q8" s="18">
+      <c r="R8" s="15">
         <v>1.9829999999999999E-6</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="21">
         <v>4</v>
       </c>
-      <c r="D9" s="7">
+      <c r="E9" s="21">
         <v>200</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="12" t="s">
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="L9" s="17">
+      <c r="M9" s="14">
         <v>8.8569999999999993</v>
       </c>
-      <c r="M9" s="18">
+      <c r="N9" s="15">
         <v>64.88</v>
       </c>
-      <c r="N9" s="18">
+      <c r="O9" s="15">
         <v>2.8813569999999999E-5</v>
       </c>
-      <c r="O9" s="18">
+      <c r="P9" s="15">
         <v>1.5121113999999999E-7</v>
       </c>
-      <c r="P9" s="18">
+      <c r="Q9" s="15">
         <v>0.19950000000000001</v>
       </c>
-      <c r="Q9" s="18">
+      <c r="R9" s="15">
         <v>4.9089999999999999E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="21">
         <v>4</v>
       </c>
-      <c r="D10" s="7">
+      <c r="E10" s="21">
         <v>200</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="12" t="s">
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="L10" s="17">
+      <c r="M10" s="14">
         <v>13.933999999999999</v>
       </c>
-      <c r="M10" s="18">
+      <c r="N10" s="15">
         <v>178.5</v>
       </c>
-      <c r="N10" s="18">
+      <c r="O10" s="15">
         <v>5.2063732999999998E-5</v>
       </c>
-      <c r="O10" s="18">
+      <c r="P10" s="15">
         <v>5.7893699999999999E-8</v>
       </c>
-      <c r="P10" s="18">
+      <c r="Q10" s="15">
         <v>0.98429999999999995</v>
       </c>
-      <c r="Q10" s="18">
+      <c r="R10" s="15">
         <v>1.063E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="21">
         <v>4</v>
       </c>
-      <c r="D11" s="7">
+      <c r="E11" s="21">
         <v>200</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="12" t="s">
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="L11" s="17">
+      <c r="M11" s="14">
         <v>7.5389999999999997</v>
       </c>
-      <c r="M11" s="18">
+      <c r="N11" s="15">
         <v>236.4</v>
       </c>
-      <c r="N11" s="18">
+      <c r="O11" s="15">
         <v>1.9872211999999999E-5</v>
       </c>
-      <c r="O11" s="18">
+      <c r="P11" s="15">
         <v>8.0116629999999997E-8</v>
       </c>
-      <c r="P11" s="18">
+      <c r="Q11" s="15">
         <v>1.0209999999999999</v>
       </c>
-      <c r="Q11" s="18">
+      <c r="R11" s="15">
         <v>2.0339999999999998E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="22">
         <v>4</v>
       </c>
-      <c r="D12" s="8">
+      <c r="E12" s="22">
         <v>200</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="12" t="s">
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="L12" s="17">
+      <c r="M12" s="14">
         <v>-248.18100000000001</v>
       </c>
-      <c r="M12" s="18">
+      <c r="N12" s="15">
         <v>512.6</v>
       </c>
-      <c r="N12" s="18">
+      <c r="O12" s="15">
         <v>4.5543899999999997E-4</v>
       </c>
-      <c r="O12" s="18">
+      <c r="P12" s="15">
         <v>2.4780910000000002E-4</v>
       </c>
-      <c r="P12" s="18">
+      <c r="Q12" s="15">
         <v>3.2770000000000001</v>
       </c>
-      <c r="Q12" s="18">
+      <c r="R12" s="15">
         <v>7.7970000000000003E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="23">
         <v>4</v>
       </c>
-      <c r="D13" s="9">
+      <c r="E13" s="23">
         <v>200</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="12" t="s">
+      <c r="F13" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" s="6"/>
+      <c r="L13" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="L13" s="17">
+      <c r="M13" s="14">
         <v>32.484999999999999</v>
       </c>
-      <c r="M13" s="18">
+      <c r="N13" s="15">
         <v>1161</v>
       </c>
-      <c r="N13" s="18">
+      <c r="O13" s="15">
         <v>1.6187778999999999E-3</v>
       </c>
-      <c r="O13" s="18">
+      <c r="P13" s="15">
         <v>7.1034384999999999E-3</v>
       </c>
-      <c r="P13" s="18">
+      <c r="Q13" s="15">
         <v>109700</v>
       </c>
-      <c r="Q13" s="18">
+      <c r="R13" s="15">
         <v>8.8310000000000003E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="23">
         <v>4</v>
       </c>
-      <c r="D14" s="9">
+      <c r="E14" s="23">
         <v>200</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="K14" s="12" t="s">
+      <c r="F14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="L14" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="L14" s="17">
+      <c r="M14" s="14">
         <v>0.71199999999999997</v>
       </c>
-      <c r="M14" s="18">
+      <c r="N14" s="15">
         <v>25.21</v>
       </c>
-      <c r="N14" s="18">
+      <c r="O14" s="15">
         <v>7.6363434999999997E-8</v>
       </c>
-      <c r="O14" s="18">
+      <c r="P14" s="15">
         <v>5.9799530000000003E-7</v>
       </c>
-      <c r="P14" s="18">
+      <c r="Q14" s="15">
         <v>0.38009999999999999</v>
       </c>
-      <c r="Q14" s="18">
+      <c r="R14" s="15">
         <v>546.5</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="23">
         <v>4</v>
       </c>
-      <c r="D15" s="9">
+      <c r="E15" s="23">
         <v>200</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="K15" s="12" t="s">
+      <c r="F15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="L15" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="L15" s="17">
+      <c r="M15" s="14">
         <v>30.943999999999999</v>
       </c>
-      <c r="M15" s="18">
+      <c r="N15" s="15">
         <v>723.6</v>
       </c>
-      <c r="N15" s="18">
+      <c r="O15" s="15">
         <v>5.0834299999999997E-4</v>
       </c>
-      <c r="O15" s="18">
+      <c r="P15" s="15">
         <v>1.8634804000000001E-2</v>
       </c>
-      <c r="P15" s="18">
+      <c r="Q15" s="15">
         <v>2.6159999999999999E-2</v>
       </c>
-      <c r="Q15" s="18">
+      <c r="R15" s="15">
         <v>710.6</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="23">
         <v>4</v>
       </c>
-      <c r="D16" s="9">
+      <c r="E16" s="23">
         <v>200</v>
       </c>
-      <c r="E16" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="K16" s="12" t="s">
+      <c r="F16" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="L16" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="L16" s="17">
+      <c r="M16" s="14">
         <v>48.058</v>
       </c>
-      <c r="M16" s="18">
+      <c r="N16" s="15">
         <v>1875</v>
       </c>
-      <c r="N16" s="18">
+      <c r="O16" s="15">
         <v>3.8444141E-3</v>
       </c>
-      <c r="O16" s="18">
+      <c r="P16" s="15">
         <v>4.6075989999999997E-2</v>
       </c>
-      <c r="P16" s="18">
+      <c r="Q16" s="15">
         <v>62320</v>
       </c>
-      <c r="Q16" s="18">
+      <c r="R16" s="15">
         <v>236.6</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="23">
         <v>4</v>
       </c>
-      <c r="D17" s="9">
+      <c r="E17" s="23">
         <v>200</v>
       </c>
-      <c r="E17" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="K17" s="12" t="s">
+      <c r="F17" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="L17" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="L17" s="17">
+      <c r="M17" s="14">
         <v>-1.1870000000000001</v>
       </c>
-      <c r="M17" s="18">
+      <c r="N17" s="15">
         <v>44.21</v>
       </c>
-      <c r="N17" s="18">
+      <c r="O17" s="15">
         <v>4.2887333000000002E-8</v>
       </c>
-      <c r="O17" s="18">
+      <c r="P17" s="15">
         <v>2.057204E-8</v>
       </c>
-      <c r="P17" s="18">
+      <c r="Q17" s="15">
         <v>1.817E-4</v>
       </c>
-      <c r="Q17" s="18">
+      <c r="R17" s="15">
         <v>2.251E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="23">
         <v>4</v>
       </c>
-      <c r="D18" s="9">
+      <c r="E18" s="23">
         <v>200</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="K18" s="12" t="s">
+      <c r="F18" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="L18" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="L18" s="17">
+      <c r="M18" s="14">
         <v>4.9420000000000002</v>
       </c>
-      <c r="M18" s="18">
+      <c r="N18" s="15">
         <v>306.39999999999998</v>
       </c>
-      <c r="N18" s="18">
+      <c r="O18" s="15">
         <v>1.1688182E-4</v>
       </c>
-      <c r="O18" s="18">
+      <c r="P18" s="15">
         <v>6.2875693999999999E-4</v>
       </c>
-      <c r="P18" s="18">
+      <c r="Q18" s="15">
         <v>1.176E-2</v>
       </c>
-      <c r="Q18" s="18">
+      <c r="R18" s="15">
         <v>210.4</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="23">
         <v>4</v>
       </c>
-      <c r="D19" s="9">
+      <c r="E19" s="23">
         <v>200</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="K19" s="12" t="s">
+      <c r="F19" s="6"/>
+      <c r="G19" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="L19" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="L19" s="17">
+      <c r="M19" s="14">
         <v>-14.574999999999999</v>
       </c>
-      <c r="M19" s="18">
+      <c r="N19" s="15">
         <v>282.7</v>
       </c>
-      <c r="N19" s="18">
+      <c r="O19" s="15">
         <v>3.1944688E-5</v>
       </c>
-      <c r="O19" s="18">
+      <c r="P19" s="15">
         <v>6.9663349999999996E-6</v>
       </c>
-      <c r="P19" s="18">
+      <c r="Q19" s="15">
         <v>2.5489999999999999</v>
       </c>
-      <c r="Q19" s="18">
+      <c r="R19" s="15">
         <v>16.96</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="23">
         <v>4</v>
       </c>
-      <c r="D20" s="9">
+      <c r="E20" s="23">
         <v>200</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="K20" s="12" t="s">
+      <c r="F20" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="L20" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="L20" s="17">
+      <c r="M20" s="14">
         <v>97.864999999999995</v>
       </c>
-      <c r="M20" s="18">
+      <c r="N20" s="15">
         <v>2269</v>
       </c>
-      <c r="N20" s="18">
+      <c r="O20" s="15">
         <v>4.6020495000000002E-3</v>
       </c>
-      <c r="O20" s="18">
+      <c r="P20" s="15">
         <v>4.0873463999999998E-2</v>
       </c>
-      <c r="P20" s="18">
+      <c r="Q20" s="15">
         <v>57.14</v>
       </c>
-      <c r="Q20" s="18">
+      <c r="R20" s="15">
         <v>235.4</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="23">
         <v>4</v>
       </c>
-      <c r="D21" s="9">
+      <c r="E21" s="23">
         <v>200</v>
       </c>
-      <c r="E21" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="12" t="s">
+      <c r="F21" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="L21" s="17">
+      <c r="M21" s="14">
         <v>-38.634</v>
       </c>
-      <c r="M21" s="18">
+      <c r="N21" s="15">
         <v>620.20000000000005</v>
       </c>
-      <c r="N21" s="18">
+      <c r="O21" s="15">
         <v>1.00432306E-4</v>
       </c>
-      <c r="O21" s="18">
+      <c r="P21" s="15">
         <v>1.6213668E-4</v>
       </c>
-      <c r="P21" s="18">
+      <c r="Q21" s="15">
         <v>0.30130000000000001</v>
       </c>
-      <c r="Q21" s="18">
+      <c r="R21" s="15">
         <v>2.7530000000000002E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A22" s="11" t="s">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A22" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="24">
         <v>4</v>
       </c>
-      <c r="D22" s="12">
+      <c r="E22" s="24">
         <v>200</v>
       </c>
-      <c r="E22" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="J22" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="K22" s="12" t="s">
+      <c r="F22" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="L22" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="L22" s="17">
+      <c r="M22" s="14">
         <v>0.64500000000000002</v>
       </c>
-      <c r="M22" s="18">
+      <c r="N22" s="15">
         <v>11.93</v>
       </c>
-      <c r="N22" s="18">
+      <c r="O22" s="15">
         <v>4.3859965000000001E-9</v>
       </c>
-      <c r="O22" s="18">
+      <c r="P22" s="15">
         <v>6.7883715000000003E-10</v>
       </c>
-      <c r="P22" s="18">
+      <c r="Q22" s="15">
         <v>4.8749999999999999E-6</v>
       </c>
-      <c r="Q22" s="18">
+      <c r="R22" s="15">
         <v>296.2</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A23" s="11" t="s">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A23" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="24">
         <v>4</v>
       </c>
-      <c r="D23" s="12">
+      <c r="E23" s="24">
         <v>200</v>
       </c>
-      <c r="E23" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="J23" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="K23" s="12" t="s">
+      <c r="F23" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="L23" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="L23" s="17">
+      <c r="M23" s="14">
         <v>-4.6550000000000002</v>
       </c>
-      <c r="M23" s="18">
+      <c r="N23" s="15">
         <v>49.09</v>
       </c>
-      <c r="N23" s="18">
+      <c r="O23" s="15">
         <v>8.5422470000000005E-11</v>
       </c>
-      <c r="O23" s="18">
+      <c r="P23" s="15">
         <v>9.7860519999999991E-10</v>
       </c>
-      <c r="P23" s="18">
+      <c r="Q23" s="15">
         <v>2.4760000000000001E-6</v>
       </c>
-      <c r="Q23" s="18">
+      <c r="R23" s="15">
         <v>0.50770000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A24" s="11" t="s">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A24" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="24">
         <v>4</v>
       </c>
-      <c r="D24" s="12">
+      <c r="E24" s="24">
         <v>200</v>
       </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12" t="s">
+      <c r="F24" s="9"/>
+      <c r="G24" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="L24" s="17">
+      <c r="M24" s="14">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="M24" s="18">
+      <c r="N24" s="15">
         <v>16.61</v>
       </c>
-      <c r="N24" s="18">
+      <c r="O24" s="15">
         <v>5.8866543999999997E-7</v>
       </c>
-      <c r="O24" s="18">
+      <c r="P24" s="15">
         <v>3.4624976000000002E-11</v>
       </c>
-      <c r="P24" s="18">
+      <c r="Q24" s="15">
         <v>1.875E-4</v>
       </c>
-      <c r="Q24" s="18">
+      <c r="R24" s="15">
         <v>5.8989999999999996E-7</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A25" s="11" t="s">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A25" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="24">
         <v>4</v>
       </c>
-      <c r="D25" s="12">
+      <c r="E25" s="24">
         <v>200</v>
       </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12" t="s">
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="L25" s="17">
+      <c r="M25" s="14">
         <v>-70.176000000000002</v>
       </c>
-      <c r="M25" s="18">
+      <c r="N25" s="15">
         <v>910.5</v>
       </c>
-      <c r="N25" s="18">
+      <c r="O25" s="15">
         <v>3.2595617E-3</v>
       </c>
-      <c r="O25" s="18">
+      <c r="P25" s="15">
         <v>1.742668E-3</v>
       </c>
-      <c r="P25" s="18">
+      <c r="Q25" s="15">
         <v>7.0789999999999997</v>
       </c>
-      <c r="Q25" s="18">
+      <c r="R25" s="15">
         <v>5.0229999999999997E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A26" s="13" t="s">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A26" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="25">
         <v>4</v>
       </c>
-      <c r="D26" s="14">
+      <c r="E26" s="25">
         <v>200</v>
       </c>
-      <c r="E26" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14" t="s">
+      <c r="F26" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="12" t="s">
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="L26" s="17">
+      <c r="M26" s="14">
         <v>0.40600000000000003</v>
       </c>
-      <c r="M26" s="18">
+      <c r="N26" s="15">
         <v>30.45</v>
       </c>
-      <c r="N26" s="18">
+      <c r="O26" s="15">
         <v>9.4337099999999998E-7</v>
       </c>
-      <c r="O26" s="18">
+      <c r="P26" s="15">
         <v>5.4602538000000002E-6</v>
       </c>
-      <c r="P26" s="18">
+      <c r="Q26" s="15">
         <v>12.86</v>
       </c>
-      <c r="Q26" s="18">
+      <c r="R26" s="15">
         <v>7.0010000000000004E-6</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A27" s="13" t="s">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A27" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="25">
         <v>4</v>
       </c>
-      <c r="D27" s="14">
+      <c r="E27" s="25">
         <v>200</v>
       </c>
-      <c r="E27" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14" t="s">
+      <c r="F27" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="K27" s="14" t="s">
+      <c r="J27" s="11"/>
+      <c r="K27" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="L27" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="L27" s="17">
+      <c r="M27" s="14">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="M27" s="18">
+      <c r="N27" s="15">
         <v>26.8</v>
       </c>
-      <c r="N27" s="18">
+      <c r="O27" s="15">
         <v>1.6332783999999999E-7</v>
       </c>
-      <c r="O27" s="18">
+      <c r="P27" s="15">
         <v>1.6136484E-9</v>
       </c>
-      <c r="P27" s="18">
+      <c r="Q27" s="15">
         <v>0.23250000000000001</v>
       </c>
-      <c r="Q27" s="18">
+      <c r="R27" s="15">
         <v>16.760000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A28" s="13" t="s">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A28" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="25">
         <v>4</v>
       </c>
-      <c r="D28" s="14">
+      <c r="E28" s="25">
         <v>200</v>
       </c>
-      <c r="E28" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="K28" s="12" t="s">
+      <c r="F28" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="L28" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="L28" s="17">
+      <c r="M28" s="14">
         <v>-6.0519999999999996</v>
       </c>
-      <c r="M28" s="18">
+      <c r="N28" s="15">
         <v>108.4</v>
       </c>
-      <c r="N28" s="18">
+      <c r="O28" s="15">
         <v>5.2165815999999998E-15</v>
       </c>
-      <c r="O28" s="18">
+      <c r="P28" s="15">
         <v>3.8023868000000003E-14</v>
       </c>
-      <c r="P28" s="18">
+      <c r="Q28" s="15">
         <v>7.594E-9</v>
       </c>
-      <c r="Q28" s="18">
+      <c r="R28" s="15">
         <v>851.7</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A29" s="13" t="s">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A29" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="25">
         <v>4</v>
       </c>
-      <c r="D29" s="14">
+      <c r="E29" s="25">
         <v>200</v>
       </c>
-      <c r="E29" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="G29" s="14" t="s">
+      <c r="F29" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H29" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="K29" s="14" t="s">
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="L29" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="L29" s="17">
+      <c r="M29" s="14">
         <v>-0.67200000000000004</v>
       </c>
-      <c r="M29" s="18">
+      <c r="N29" s="15">
         <v>31.51</v>
       </c>
-      <c r="N29" s="18">
+      <c r="O29" s="15">
         <v>5.7467186999999998E-9</v>
       </c>
-      <c r="O29" s="18">
+      <c r="P29" s="15">
         <v>4.2767387000000001E-10</v>
       </c>
-      <c r="P29" s="18">
+      <c r="Q29" s="15">
         <v>1.057E-5</v>
       </c>
-      <c r="Q29" s="18">
+      <c r="R29" s="15">
         <v>9.1569999999999998E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A30" s="13" t="s">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A30" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="25">
         <v>4</v>
       </c>
-      <c r="D30" s="14">
+      <c r="E30" s="25">
         <v>200</v>
       </c>
-      <c r="E30" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="G30" s="14" t="s">
+      <c r="F30" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H30" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="H30" s="14" t="s">
+      <c r="I30" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="K30" s="14" t="s">
+      <c r="J30" s="11"/>
+      <c r="K30" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="L30" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="L30" s="17">
+      <c r="M30" s="14">
         <v>-0.41099999999999998</v>
       </c>
-      <c r="M30" s="18">
+      <c r="N30" s="15">
         <v>30.97</v>
       </c>
-      <c r="N30" s="18">
+      <c r="O30" s="15">
         <v>7.1143543999999997E-9</v>
       </c>
-      <c r="O30" s="18">
+      <c r="P30" s="15">
         <v>2.3403185000000001E-8</v>
       </c>
-      <c r="P30" s="18">
+      <c r="Q30" s="15">
         <v>3.4840000000000001E-3</v>
       </c>
-      <c r="Q30" s="18">
+      <c r="R30" s="15">
         <v>4.4710000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A31" s="13" t="s">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A31" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="14">
+      <c r="C31" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="25">
         <v>4</v>
       </c>
-      <c r="D31" s="14">
+      <c r="E31" s="25">
         <v>200</v>
       </c>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="G31" s="14" t="s">
+      <c r="F31" s="11"/>
+      <c r="G31" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H31" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="K31" s="14" t="s">
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="L31" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="L31" s="17">
+      <c r="M31" s="14">
         <v>-0.35899999999999999</v>
       </c>
-      <c r="M31" s="18">
+      <c r="N31" s="15">
         <v>33.799999999999997</v>
       </c>
-      <c r="N31" s="18">
+      <c r="O31" s="15">
         <v>2.8977409999999998E-7</v>
       </c>
-      <c r="O31" s="18">
+      <c r="P31" s="15">
         <v>3.1397146E-8</v>
       </c>
-      <c r="P31" s="18">
+      <c r="Q31" s="15">
         <v>0.11700000000000001</v>
       </c>
-      <c r="Q31" s="18">
+      <c r="R31" s="15">
         <v>15.99</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A32" s="13" t="s">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A32" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="14">
+      <c r="C32" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="25">
         <v>4</v>
       </c>
-      <c r="D32" s="14">
+      <c r="E32" s="25">
         <v>200</v>
       </c>
-      <c r="E32" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="14" t="s">
+      <c r="F32" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G32" s="11"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="K32" s="14" t="s">
+      <c r="J32" s="11"/>
+      <c r="K32" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="L32" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="L32" s="17">
+      <c r="M32" s="14">
         <v>34.073999999999998</v>
       </c>
-      <c r="M32" s="18">
+      <c r="N32" s="15">
         <v>1532</v>
       </c>
-      <c r="N32" s="18">
+      <c r="O32" s="15">
         <v>2.9260422999999999E-3</v>
       </c>
-      <c r="O32" s="18">
+      <c r="P32" s="15">
         <v>3.3045409999999997E-2</v>
       </c>
-      <c r="P32" s="18">
+      <c r="Q32" s="15">
         <v>93.63</v>
       </c>
-      <c r="Q32" s="18">
+      <c r="R32" s="15">
         <v>0.20599999999999999</v>
       </c>
     </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35"/>
-      <c r="F35"/>
-      <c r="G35"/>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A33" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="29">
+        <v>4</v>
+      </c>
+      <c r="E33" s="29">
+        <v>200</v>
+      </c>
+      <c r="F33" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="G33" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="H33" s="30"/>
+      <c r="I33" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="L33" s="28"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15"/>
+      <c r="R33" s="15"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A34" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="29">
+        <v>4</v>
+      </c>
+      <c r="E34" s="29">
+        <v>200</v>
+      </c>
+      <c r="F34" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="G34" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="H34" s="30"/>
+      <c r="I34" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="L34" s="28"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="15"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A35" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" s="29">
+        <v>4</v>
+      </c>
+      <c r="E35" s="29">
+        <v>300</v>
+      </c>
+      <c r="F35" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="H35" s="30"/>
+      <c r="I35" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="L35" s="28"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="15"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A36" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" s="29">
+        <v>4</v>
+      </c>
+      <c r="E36" s="29">
+        <v>120</v>
+      </c>
+      <c r="F36" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="G36" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="H36" s="30"/>
+      <c r="I36" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="L36" s="28"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="15"/>
+      <c r="R36" s="15"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A37" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" s="29">
+        <v>3</v>
+      </c>
+      <c r="E37" s="29">
+        <v>200</v>
+      </c>
+      <c r="F37" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="G37" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="H37" s="30"/>
+      <c r="I37" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="L37" s="28"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="15"/>
+      <c r="R37" s="15"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A38" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" s="29">
+        <v>5</v>
+      </c>
+      <c r="E38" s="29">
+        <v>200</v>
+      </c>
+      <c r="F38" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="G38" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="H38" s="30"/>
+      <c r="I38" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="J38" s="28"/>
+      <c r="K38" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="L38" s="28"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="15"/>
+      <c r="P38" s="15"/>
+      <c r="Q38" s="15"/>
+      <c r="R38" s="15"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A39" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39" s="29">
+        <v>4</v>
+      </c>
+      <c r="E39" s="29">
+        <v>200</v>
+      </c>
+      <c r="F39" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="G39" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="H39" s="30"/>
+      <c r="I39" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="L39" s="28"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="15"/>
+      <c r="R39" s="15"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A40" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="29">
+        <v>4</v>
+      </c>
+      <c r="E40" s="29">
+        <v>200</v>
+      </c>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="H40" s="30"/>
+      <c r="I40" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="L40" s="28"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="15"/>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="15"/>
+      <c r="R40" s="15"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A41" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" s="29">
+        <v>4</v>
+      </c>
+      <c r="E41" s="29">
+        <v>200</v>
+      </c>
+      <c r="F41" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="G41" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="H41" s="30"/>
+      <c r="I41" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="L41" s="28"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="15"/>
+      <c r="R41" s="15"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A42" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" s="29">
+        <v>4</v>
+      </c>
+      <c r="E42" s="29">
+        <v>200</v>
+      </c>
+      <c r="F42" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="G42" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="H42" s="30"/>
+      <c r="I42" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="J42" s="28"/>
+      <c r="K42" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="L42" s="28"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="15"/>
+      <c r="P42" s="15"/>
+      <c r="Q42" s="15"/>
+      <c r="R42" s="15"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A43" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" s="29">
+        <v>4</v>
+      </c>
+      <c r="E43" s="29">
+        <v>200</v>
+      </c>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="H43" s="30"/>
+      <c r="I43" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="J43" s="28"/>
+      <c r="K43" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="L43" s="28"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="15"/>
+      <c r="P43" s="15"/>
+      <c r="Q43" s="15"/>
+      <c r="R43" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:Q32" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <autoFilter ref="A2:R32" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:Q1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:R1"/>
   </mergeCells>
-  <conditionalFormatting sqref="K3:K1048576">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
-      <formula>"buena"</formula>
+  <conditionalFormatting sqref="L3:L1048576">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"media"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"mala"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>"media"</formula>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"buena"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/code/Post/results.xlsx
+++ b/code/Post/results.xlsx
@@ -8,23 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achom\Desktop\Main\Code\Scientific-Computing\Physics-Neural-Networks\PINN\code\Post\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2276DE6D-49F4-4ECA-993E-D67B4C24A904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C5BE05-75AC-41C8-A75D-6B6492FF6F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Complete" sheetId="1" r:id="rId1"/>
     <sheet name="Filtered" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Filtered!$A$2:$R$32</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="102">
   <si>
     <t>TL</t>
   </si>
@@ -300,6 +314,36 @@
   </si>
   <si>
     <t>S61</t>
+  </si>
+  <si>
+    <t>L2_cont_u</t>
+  </si>
+  <si>
+    <t>L2_cont_du</t>
+  </si>
+  <si>
+    <t>Unnamed: 0</t>
+  </si>
+  <si>
+    <t>L2_continuity_u</t>
+  </si>
+  <si>
+    <t>L2_continuity_du</t>
+  </si>
+  <si>
+    <t>S40</t>
+  </si>
+  <si>
+    <t>S41</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>*CORRER METANOL</t>
+  </si>
+  <si>
+    <t>*PROBAR REGULARIZADO</t>
   </si>
 </sst>
 </file>
@@ -457,15 +501,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -496,6 +531,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -535,6 +579,143 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>546099</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>406590</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CBA5F70-D821-ED69-BCA8-45A3E0827E4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="546099" y="228600"/>
+          <a:ext cx="2908491" cy="1784350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>194547</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A98830E9-9E1B-3E85-F85A-542025F2A16E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3886200" y="254000"/>
+          <a:ext cx="3166347" cy="1835150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>482599</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>552482</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05D1AB16-5CCF-F8A5-65DC-ACBF247576EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7340599" y="342900"/>
+          <a:ext cx="3117883" cy="1720850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -824,123 +1005,134 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W34"/>
+  <dimension ref="A1:Z47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B30" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="Y1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B2">
+        <v>9999</v>
+      </c>
+      <c r="C2">
         <v>46.520428000000003</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0.15931456999999999</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
         <v>6.2951919999999997E-5</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0.31630760000000002</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1.8718184000000001E-6</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>3.5624438000000001E-5</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
       <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
         <v>4.7131773000000001E-5</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>5.2727864000000004E-6</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>3.2134587E-3</v>
       </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
       <c r="O2">
         <v>0</v>
       </c>
@@ -951,67 +1143,70 @@
         <v>0</v>
       </c>
       <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
         <v>232.19499999999999</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>0.28510000000000002</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>197.5</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>46.52</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>0.47889999999999999</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>3.3029999999999999E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B3">
+        <v>9999</v>
+      </c>
+      <c r="C3">
         <v>3.2782505</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.24370068</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>1.4541720999999999E-3</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>3.0316128999999998</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>3.4744210000000001E-6</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>3.9751456E-5</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
       <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
         <v>3.3207382999999997E-5</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>4.5543899999999997E-4</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>2.4780910000000002E-4</v>
       </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
       <c r="O3">
         <v>0</v>
       </c>
@@ -1022,70 +1217,73 @@
         <v>0</v>
       </c>
       <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
         <v>-248.18100000000001</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>1.0369999999999999</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>512.6</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>3.278</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>3.2770000000000001</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>7.7970000000000003E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B4">
+        <v>9999</v>
+      </c>
+      <c r="C4">
         <v>372605.06</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>2755.7516999999998</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>8.4334165000000006E-3</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>106977.78</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>6.8456835999999998E-9</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>8.4931269999999996E-5</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
       <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
         <v>2.3087940999999998E-5</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>1.6187778999999999E-3</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>7.1034384999999999E-3</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>6.4173946000000003E-7</v>
       </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
       <c r="P4">
         <v>0</v>
       </c>
@@ -1093,179 +1291,188 @@
         <v>0</v>
       </c>
       <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
         <v>32.484999999999999</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>0.99280000000000002</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>1161</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>372600</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>109700</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>8.8310000000000003E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B5">
+        <v>9999</v>
+      </c>
+      <c r="C5">
         <v>6732.9189999999999</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>9.9182440000000001E-4</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>6.9812139999999995E-7</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.37912901999999998</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>3.2314130000000002E-11</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>1.2034397999999999E-7</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
       <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
         <v>1.1303194E-7</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>7.6363434999999997E-8</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>5.9799530000000003E-7</v>
       </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
       <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
         <v>546.46204</v>
       </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
         <v>0.71199999999999997</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>1.093</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>25.21</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>6733</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>0.38009999999999999</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>546.5</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B6">
+        <v>9999</v>
+      </c>
+      <c r="C6">
         <v>259315.28</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>1.1806969E-4</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>6.8965060000000002E-3</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>7.07404E-7</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>1.3475453E-8</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>4.9748403000000001E-5</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
       <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
         <v>4.5502630000000002E-5</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>5.0834299999999997E-4</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>1.8634804000000001E-2</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>1.6723206E-6</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>710.54110000000003</v>
       </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
         <v>30.943999999999999</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>0.94159999999999999</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>723.6</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>259300</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>2.6159999999999999E-2</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>710.6</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B7">
+        <v>9999</v>
+      </c>
+      <c r="C7">
         <v>293480.8</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>26578.65</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
       <c r="E7">
         <v>0</v>
       </c>
@@ -1273,70 +1480,73 @@
         <v>0</v>
       </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>35741.703000000001</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>1.2988274999999999E-7</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>6.0387419999999997E-4</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
         <v>3.8444141E-3</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>4.6075989999999997E-2</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>3.4904610000000001E-7</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>236.5753</v>
       </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
         <v>48.058</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>0.98499999999999999</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>1875</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>293500</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>62320</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>236.6</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B8">
+        <v>9999</v>
+      </c>
+      <c r="C8">
         <v>10.398217000000001</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>3.8523638000000002E-5</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
       <c r="E8">
         <v>0</v>
       </c>
@@ -1344,141 +1554,147 @@
         <v>0</v>
       </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>8.7840873999999997E-7</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>5.3260379999999997E-10</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>3.7930263E-6</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
         <v>4.2887333000000002E-8</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>2.057204E-8</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>1.4224499999999999E-4</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>7.8995254E-5</v>
       </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
         <v>-1.1870000000000001</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>0.52739999999999998</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>44.21</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>10.4</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>1.817E-4</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>2.251E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B9">
+        <v>9999</v>
+      </c>
+      <c r="C9">
         <v>702649.8</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>1.3444003E-3</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
         <v>1.2696752999999999E-3</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>5.2585545999999997E-3</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>3.8591436E-10</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>3.1927596000000001E-6</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
       <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
         <v>1.0287244999999999E-6</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>1.1688182E-4</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>6.2875693999999999E-4</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>3.1443094000000002E-3</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>210.37782000000001</v>
       </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
         <v>4.9420000000000002</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>0.99850000000000005</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>306.39999999999998</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>702600</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>1.176E-2</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>210.4</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B10">
+        <v>9999</v>
+      </c>
+      <c r="C10">
         <v>16835.258000000002</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>0.36200339999999998</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
       <c r="E10">
         <v>0</v>
       </c>
@@ -1486,141 +1702,147 @@
         <v>0</v>
       </c>
       <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>0.75813209999999998</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>2.2923712999999999E-8</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>4.2504920000000002E-5</v>
       </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
         <v>3.1944688E-5</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>6.9663349999999996E-6</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>1.4284916000000001</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>15.532832000000001</v>
       </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
         <v>-14.574999999999999</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>0.85499999999999998</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>282.7</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>16840</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>2.5489999999999999</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>16.96</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B11">
+        <v>9999</v>
+      </c>
+      <c r="C11">
         <v>4.3089541999999996</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>6.8344115999999996E-2</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
         <v>2.342143E-2</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>4.0950946999999998</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>2.7886009999999999E-7</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>1.2898775E-3</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
       <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
         <v>1.0279979E-3</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>4.6020495000000002E-3</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>4.0873463999999998E-2</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>52.906444999999998</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>182.43979999999999</v>
       </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
         <v>97.864999999999995</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>0.93049999999999999</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>2269</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>4.3090000000000002</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>57.14</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>235.4</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B12">
+        <v>9999</v>
+      </c>
+      <c r="C12">
         <v>0.30157657999999998</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>0.18691959999999999</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
       <c r="E12">
         <v>0</v>
       </c>
@@ -1628,29 +1850,29 @@
         <v>0</v>
       </c>
       <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>0.11411916</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>1.6603013000000001E-6</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>1.1049837E-5</v>
       </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
         <v>1.00432306E-4</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>1.6213668E-4</v>
       </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
       <c r="O12">
         <v>0</v>
       </c>
@@ -1661,108 +1883,114 @@
         <v>0</v>
       </c>
       <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
         <v>-38.634</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>0.70330000000000004</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>620.20000000000005</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>0.30159999999999998</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>0.30130000000000001</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>2.7530000000000002E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B13">
+        <v>9999</v>
+      </c>
+      <c r="C13">
         <v>1826.0880999999999</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>4.4852930000000001E-7</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
         <v>2.9703082999999998E-6</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>7.2253829999999998E-7</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>8.0915885E-11</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>1.1292168E-7</v>
       </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
       <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
         <v>2.1011608E-7</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>4.3859965000000001E-9</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>6.7883715000000003E-10</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>7.2893505E-7</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>296.21879999999999</v>
       </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
       <c r="Q13">
         <v>0</v>
       </c>
       <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
         <v>0.64500000000000002</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>0.91100000000000003</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>11.93</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>1826</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>4.8749999999999999E-6</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>296.2</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B14">
+        <v>9999</v>
+      </c>
+      <c r="C14">
         <v>1538.7827</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>4.5536339999999997E-9</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
       <c r="E14">
         <v>0</v>
       </c>
@@ -1770,70 +1998,73 @@
         <v>0</v>
       </c>
       <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>6.3654470000000001E-7</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>6.8399010000000002E-9</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>3.3267384000000002E-5</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
         <v>8.5422470000000005E-11</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>9.7860519999999991E-10</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>1.8339051E-6</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>0.50765850000000001</v>
       </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
       <c r="Q14">
         <v>0</v>
       </c>
       <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
         <v>-4.6550000000000002</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>7.2490000000000002E-3</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>49.09</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>1539</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>2.4760000000000001E-6</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>0.50770000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B15">
+        <v>9999</v>
+      </c>
+      <c r="C15">
         <v>0.46410020000000002</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>1.0124081E-4</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
       <c r="E15">
         <v>0</v>
       </c>
@@ -1841,29 +2072,29 @@
         <v>0</v>
       </c>
       <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>8.5706379999999995E-5</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>1.1893890999999999E-12</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>1.1816284000000001E-9</v>
       </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
         <v>5.8866543999999997E-7</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>3.4624976000000002E-11</v>
       </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
       <c r="O15">
         <v>0</v>
       </c>
@@ -1874,37 +2105,40 @@
         <v>0</v>
       </c>
       <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>0.99990000000000001</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>16.61</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>0.46410000000000001</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>1.875E-4</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>5.8989999999999996E-7</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B16">
+        <v>9999</v>
+      </c>
+      <c r="C16">
         <v>7.0844164000000003</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>6.5074325000000002E-2</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
       <c r="E16">
         <v>0</v>
       </c>
@@ -1912,29 +2146,29 @@
         <v>0</v>
       </c>
       <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>7.0093164000000003</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>3.2918445E-6</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>1.7513600000000001E-5</v>
       </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
         <v>3.2595617E-3</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>1.742668E-3</v>
       </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
       <c r="O16">
         <v>0</v>
       </c>
@@ -1945,203 +2179,212 @@
         <v>0</v>
       </c>
       <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
         <v>-70.176000000000002</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>0.96960000000000002</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>910.5</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>7.0839999999999996</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>7.0789999999999997</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>5.0229999999999997E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B17">
+        <v>9999</v>
+      </c>
+      <c r="C17">
         <v>706.59875</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>2.1331929999999998E-3</v>
       </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
         <v>1.609739E-6</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>3.79671</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>2.3859049999999998E-12</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>8.0726279999999994E-9</v>
       </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
       <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
         <v>1.1416465E-8</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>2.9603170999999999E-7</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>3.4189423999999997E-7</v>
       </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
       <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
         <v>7.6468033999999996</v>
       </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
       <c r="Q17">
         <v>0</v>
       </c>
       <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
         <v>-0.126</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>1.012</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>706.6</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>3.7989999999999999</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>7.6470000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B18">
+        <v>9999</v>
+      </c>
+      <c r="C18">
         <v>403.68306999999999</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>2.5596352999999999E-3</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
         <v>1.6823624999999999E-6</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>1.4939271999999999</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>5.6135196000000003E-13</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>2.8793294E-9</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
       <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
         <v>5.5208833000000003E-9</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>2.6072913999999998E-7</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>1.1584766E-6</v>
       </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
       <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
         <v>3.1044185</v>
       </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
       <c r="Q18">
         <v>0</v>
       </c>
       <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
         <v>-0.27600000000000002</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>1.0189999999999999</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>403.7</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>1.496</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>3.1040000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B19">
+        <v>9999</v>
+      </c>
+      <c r="C19">
         <v>143.38802000000001</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>0.19380997</v>
       </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
         <v>2.1193018000000001E-5</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>4.258292</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>3.1387333000000002E-9</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>1.0293432E-5</v>
       </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
       <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
         <v>5.1285415000000003E-6</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>8.5461400000000005E-6</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>1.5542883000000001E-4</v>
       </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
       <c r="O19">
         <v>0</v>
       </c>
@@ -2152,67 +2395,70 @@
         <v>0</v>
       </c>
       <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
         <v>-0.97199999999999998</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>1.2350000000000001</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>32.31</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>143.4</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>4.452</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>1.794E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B20">
+        <v>9999</v>
+      </c>
+      <c r="C20">
         <v>0.28394920000000001</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>4.3459019999999998E-6</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
         <v>1.5661557999999999E-6</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>9.7058320000000004E-6</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>1.2876196000000001E-12</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>5.4315095000000001E-8</v>
       </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
       <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
         <v>1.0957892000000001E-7</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>7.6100600000000006E-8</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>1.4317835000000001E-9</v>
       </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
       <c r="O20">
         <v>0</v>
       </c>
@@ -2223,67 +2469,70 @@
         <v>0</v>
       </c>
       <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
         <v>0.83</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>0.81820000000000004</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>17.29</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>0.28389999999999999</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>1.5699999999999999E-5</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>2.4139999999999998E-7</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B21">
+        <v>9999</v>
+      </c>
+      <c r="C21">
         <v>18.747356</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>4.3774776000000001E-2</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
         <v>3.8371613000000001E-6</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>8.5269359999999992</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>5.8234440000000006E-11</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>9.6814400000000004E-8</v>
       </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
       <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
         <v>1.0724405E-7</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>6.2191503999999995E-7</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>8.9321170000000003E-6</v>
       </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
       <c r="O21">
         <v>0</v>
       </c>
@@ -2294,67 +2543,70 @@
         <v>0</v>
       </c>
       <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
         <v>-0.122</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>1.038</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>31.31</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>18.75</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>8.5709999999999997</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>9.7580000000000004E-6</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B22">
+        <v>9999</v>
+      </c>
+      <c r="C22">
         <v>5.5890684000000004</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>8.0408100000000007E-3</v>
       </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
         <v>5.7091643E-6</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>2.5732640999999998</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>2.1005371999999999E-10</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>1.396035E-7</v>
       </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
       <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
         <v>1.2949065999999999E-7</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>8.7775544000000002E-7</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>3.513971E-7</v>
       </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
       <c r="O22">
         <v>0</v>
       </c>
@@ -2365,67 +2617,70 @@
         <v>0</v>
       </c>
       <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
         <v>1.655</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>0.86770000000000003</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>50.72</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>5.5890000000000004</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>2.581</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>1.4980000000000001E-6</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B23">
+        <v>9999</v>
+      </c>
+      <c r="C23">
         <v>2.2426018999999999</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>5.0109250000000003E-3</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
         <v>4.3614300000000002E-7</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>0.60176609999999997</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>1.1612684999999999E-12</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>7.6453750000000004E-9</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
       <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
         <v>1.4959764999999999E-7</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>2.0499976E-7</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>1.6205885E-6</v>
       </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
       <c r="O23">
         <v>0</v>
       </c>
@@ -2436,67 +2691,70 @@
         <v>0</v>
       </c>
       <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
         <v>0.49</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>0.94750000000000001</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>43.25</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>2.2429999999999999</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>0.60680000000000001</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>1.9829999999999999E-6</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B24">
+        <v>9999</v>
+      </c>
+      <c r="C24">
         <v>15.655376</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>5.4118604999999998E-3</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
         <v>3.7478787000000001E-4</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>0.19373099999999999</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>1.7868500000000001E-9</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>9.8030200000000005E-6</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
       <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
         <v>1.0315937E-5</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>2.8813569999999999E-5</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>1.5121113999999999E-7</v>
       </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
       <c r="O24">
         <v>0</v>
       </c>
@@ -2507,67 +2765,70 @@
         <v>0</v>
       </c>
       <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
         <v>8.8569999999999993</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>0.79630000000000001</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>64.88</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>15.66</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>0.19950000000000001</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>4.9089999999999999E-5</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B25">
+        <v>9999</v>
+      </c>
+      <c r="C25">
         <v>34.037419999999997</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>1.8592919999999999E-2</v>
       </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
         <v>2.9261005999999998E-4</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>0.96536500000000003</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>6.1820349999999999E-9</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>2.5655060000000002E-5</v>
       </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
       <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
         <v>2.847E-5</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>5.2063732999999998E-5</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>5.7893699999999999E-8</v>
       </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
       <c r="O25">
         <v>0</v>
       </c>
@@ -2578,67 +2839,70 @@
         <v>0</v>
       </c>
       <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>13.933999999999999</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>0.60509999999999997</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>178.5</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>34.04</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>0.98429999999999995</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>1.063E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B26">
+        <v>9999</v>
+      </c>
+      <c r="C26">
         <v>22.116900999999999</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>3.653617E-2</v>
       </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
         <v>4.8567555E-4</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>0.98434560000000004</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>2.5071494999999998E-10</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>1.753577E-7</v>
       </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
       <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
         <v>2.0951433000000001E-7</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>1.9872211999999999E-5</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>8.0116629999999997E-8</v>
       </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
       <c r="O26">
         <v>0</v>
       </c>
@@ -2649,135 +2913,141 @@
         <v>0</v>
       </c>
       <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
         <v>7.5389999999999997</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>0.93389999999999995</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>236.4</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>22.12</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>1.0209999999999999</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>2.0339999999999998E-5</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B27">
+        <v>9999</v>
+      </c>
+      <c r="C27">
         <v>42168.61</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>2.5718747E-2</v>
       </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
         <v>1.7848886E-5</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>11.306758</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>1.13341235E-13</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>2.0416119999999999E-10</v>
       </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
       <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
         <v>1.3047458E-8</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>2.6003477000000001E-6</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>5.1820060000000003E-8</v>
       </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
       <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
         <v>245.16739000000001</v>
       </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
       <c r="Q27">
         <v>0</v>
       </c>
       <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
         <v>2.59</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>0.99760000000000004</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>42170</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>11.33</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>245.2</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B28">
+        <v>9999</v>
+      </c>
+      <c r="C28">
         <v>25.820710999999999</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>3.3519109999999998E-2</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
         <v>5.6471870000000002E-6</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>12.827697000000001</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>1.0157297E-10</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>3.7408890000000002E-7</v>
       </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
       <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
         <v>2.2343309E-7</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>9.4337099999999998E-7</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>5.4602538000000002E-6</v>
       </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
       <c r="O28">
         <v>0</v>
       </c>
@@ -2788,108 +3058,114 @@
         <v>0</v>
       </c>
       <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
         <v>0.40600000000000003</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>1.0369999999999999</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>30.45</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>25.82</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>12.86</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>7.0010000000000004E-6</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B29">
+        <v>9999</v>
+      </c>
+      <c r="C29">
         <v>180.53441000000001</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>5.5712542000000001E-5</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
         <v>1.3446212E-5</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>0.23240350000000001</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>2.1045691000000002E-11</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>1.1861536E-7</v>
       </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
       <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
         <v>3.5116102000000002E-7</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>1.6332783999999999E-7</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>1.6136484E-9</v>
       </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
       <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
         <v>16.761596999999998</v>
       </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
       <c r="Q29">
         <v>0</v>
       </c>
       <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>1.0900000000000001</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>26.8</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>180.5</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>0.23250000000000001</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>16.760000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B30">
+        <v>9999</v>
+      </c>
+      <c r="C30">
         <v>2363.6143000000002</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>2.7794865999999998E-10</v>
       </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
       <c r="E30">
         <v>0</v>
       </c>
@@ -2897,70 +3173,73 @@
         <v>0</v>
       </c>
       <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
         <v>7.3158346000000002E-9</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>2.0998208000000001E-9</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>9.0445180000000005E-6</v>
       </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
         <v>5.2165815999999998E-15</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>3.8023868000000003E-14</v>
       </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
       <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
         <v>851.74785999999995</v>
       </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
       <c r="Q30">
         <v>0</v>
       </c>
       <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
         <v>-6.0519999999999996</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>5.0779999999999998E-5</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>108.4</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>2364</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>7.594E-9</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>851.7</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B31">
+        <v>9999</v>
+      </c>
+      <c r="C31">
         <v>1.6246246</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>3.2165717000000001E-6</v>
       </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
       <c r="E31">
         <v>0</v>
       </c>
@@ -2968,141 +3247,147 @@
         <v>0</v>
       </c>
       <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
         <v>7.3477029999999998E-6</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>5.9717789999999999E-13</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>1.05041245E-7</v>
       </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
         <v>5.7467186999999998E-9</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>4.2767387000000001E-10</v>
       </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
       <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
         <v>9.1559129999999999E-4</v>
       </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
       <c r="Q31">
         <v>0</v>
       </c>
       <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
         <v>-0.67200000000000004</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>0.5796</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>31.51</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>1.625</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>1.057E-5</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>9.1569999999999998E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B32">
+        <v>9999</v>
+      </c>
+      <c r="C32">
         <v>59.897373000000002</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>8.6819100000000004E-5</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
         <v>3.0601862000000001E-7</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>3.3972478000000002E-3</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>8.873178E-12</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>5.6501377999999999E-8</v>
       </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
       <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
         <v>3.4697419999999998E-7</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>7.1143543999999997E-9</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>2.3403185000000001E-8</v>
       </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
       <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
         <v>4.4710817</v>
       </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
       <c r="Q32">
         <v>0</v>
       </c>
       <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
         <v>-0.41099999999999998</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>0.69120000000000004</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>30.97</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>59.9</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>3.4840000000000001E-3</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>4.4710000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B33">
+        <v>9999</v>
+      </c>
+      <c r="C33">
         <v>13735.567999999999</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>2.9846649E-3</v>
       </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
       <c r="E33">
         <v>0</v>
       </c>
@@ -3110,126 +3395,1133 @@
         <v>0</v>
       </c>
       <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
         <v>0.11399246</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>7.5819860000000006E-12</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>4.3490124999999998E-8</v>
       </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
       <c r="K33">
         <v>0</v>
       </c>
       <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
         <v>2.8977409999999998E-7</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>3.1397146E-8</v>
       </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
       <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
         <v>15.9904175</v>
       </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
       <c r="Q33">
         <v>0</v>
       </c>
       <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
         <v>-0.35899999999999999</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>0.98760000000000003</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>33.799999999999997</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>13740</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>0.11700000000000001</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>15.99</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B34">
+        <v>9999</v>
+      </c>
+      <c r="C34">
         <v>93.670419999999993</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>3.7237271999999999</v>
       </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
         <v>1.5501542E-2</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>89.859145999999996</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>1.3123862E-7</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>5.8291193000000003E-5</v>
       </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
       <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
         <v>2.8574994E-5</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>2.9260422999999999E-3</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>3.3045409999999997E-2</v>
       </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
       <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
         <v>0.16999131000000001</v>
       </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
       <c r="Q34">
         <v>0</v>
       </c>
       <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
         <v>34.073999999999998</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>1.0069999999999999</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>1532</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>93.67</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>93.63</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>0.20599999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35">
+        <v>99999</v>
+      </c>
+      <c r="C35">
+        <v>1261.2091</v>
+      </c>
+      <c r="D35">
+        <v>1.0860921E-7</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>1.7272445000000001E-5</v>
+      </c>
+      <c r="I35">
+        <v>6.5093609999999992E-19</v>
+      </c>
+      <c r="J35">
+        <v>8.1137559999999999E-10</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>1.3284049000000001E-12</v>
+      </c>
+      <c r="N35">
+        <v>1.8105468E-12</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>124.358536</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>25.33</v>
+      </c>
+      <c r="V35">
+        <v>1261</v>
+      </c>
+      <c r="W35">
+        <v>1.738E-5</v>
+      </c>
+      <c r="X35">
+        <v>124.4</v>
+      </c>
+      <c r="Y35">
+        <v>1.328E-12</v>
+      </c>
+      <c r="Z35">
+        <v>1.8110000000000001E-12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36">
+        <v>99999</v>
+      </c>
+      <c r="C36">
+        <v>1.9848322999999998E-3</v>
+      </c>
+      <c r="D36">
+        <v>7.2760976000000004E-8</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>8.0335100000000003E-5</v>
+      </c>
+      <c r="I36">
+        <v>1.3377007E-8</v>
+      </c>
+      <c r="J36">
+        <v>1.7019305999999999E-9</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>2.5639754000000002E-10</v>
+      </c>
+      <c r="N36">
+        <v>8.6227899999999999E-11</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>4.4636585999999999E-6</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>-7.2080000000000002</v>
+      </c>
+      <c r="U36">
+        <v>187.8</v>
+      </c>
+      <c r="V36">
+        <v>1.9849999999999998E-3</v>
+      </c>
+      <c r="W36">
+        <v>8.0409999999999998E-5</v>
+      </c>
+      <c r="X36">
+        <v>4.4789999999999998E-6</v>
+      </c>
+      <c r="Y36">
+        <v>2.5640000000000001E-10</v>
+      </c>
+      <c r="Z36">
+        <v>8.6229999999999996E-11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37">
+        <v>9999</v>
+      </c>
+      <c r="C37">
+        <v>726.30920000000003</v>
+      </c>
+      <c r="D37">
+        <v>1.1567667000000001E-5</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>2.9789391999999999E-6</v>
+      </c>
+      <c r="H37">
+        <v>4.1067400000000002E-3</v>
+      </c>
+      <c r="I37">
+        <v>4.1785589999999999E-11</v>
+      </c>
+      <c r="J37">
+        <v>2.2782807000000001E-7</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>4.5725570000000003E-7</v>
+      </c>
+      <c r="M37">
+        <v>4.6111879999999999E-10</v>
+      </c>
+      <c r="N37">
+        <v>3.9118134999999998E-9</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>1.4462986</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>-0.502</v>
+      </c>
+      <c r="U37">
+        <v>16.47</v>
+      </c>
+      <c r="V37">
+        <v>726.3</v>
+      </c>
+      <c r="W37">
+        <v>4.1209999999999997E-3</v>
+      </c>
+      <c r="X37">
+        <v>1.446</v>
+      </c>
+      <c r="Y37">
+        <v>2.1469999999999999E-5</v>
+      </c>
+      <c r="Z37">
+        <v>6.2539999999999994E-5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38">
+        <v>9999</v>
+      </c>
+      <c r="C38">
+        <v>775.94349999999997</v>
+      </c>
+      <c r="D38">
+        <v>5.6207045000000004E-3</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>1.6843702000000002E-5</v>
+      </c>
+      <c r="H38">
+        <v>1.2880383</v>
+      </c>
+      <c r="I38">
+        <v>3.7539380000000001E-12</v>
+      </c>
+      <c r="J38">
+        <v>3.350782E-8</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>2.9418968000000002E-7</v>
+      </c>
+      <c r="M38">
+        <v>5.1840559999999997E-7</v>
+      </c>
+      <c r="N38">
+        <v>1.7506907E-6</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>20.72936</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>-0.503</v>
+      </c>
+      <c r="U38">
+        <v>67.39</v>
+      </c>
+      <c r="V38">
+        <v>775.9</v>
+      </c>
+      <c r="W38">
+        <v>1.294</v>
+      </c>
+      <c r="X38">
+        <v>20.73</v>
+      </c>
+      <c r="Y38">
+        <v>7.2000000000000005E-4</v>
+      </c>
+      <c r="Z38">
+        <v>1.323E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39">
+        <v>9999</v>
+      </c>
+      <c r="C39">
+        <v>53912.811999999998</v>
+      </c>
+      <c r="D39">
+        <v>1.7971748E-3</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>1.0132242E-2</v>
+      </c>
+      <c r="H39">
+        <v>4.640504E-6</v>
+      </c>
+      <c r="I39">
+        <v>3.0433226999999998E-13</v>
+      </c>
+      <c r="J39">
+        <v>5.5959596000000003E-8</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>2.8661762E-7</v>
+      </c>
+      <c r="M39">
+        <v>6.0601084000000004E-4</v>
+      </c>
+      <c r="N39">
+        <v>7.1973717E-3</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>18.185572000000001</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>3.5659999999999998</v>
+      </c>
+      <c r="U39">
+        <v>702</v>
+      </c>
+      <c r="V39">
+        <v>53910</v>
+      </c>
+      <c r="W39">
+        <v>1.9740000000000001E-2</v>
+      </c>
+      <c r="X39">
+        <v>18.190000000000001</v>
+      </c>
+      <c r="Y39">
+        <v>2.462E-2</v>
+      </c>
+      <c r="Z39">
+        <v>8.4839999999999999E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40">
+        <v>9999</v>
+      </c>
+      <c r="C40">
+        <v>1583.1656</v>
+      </c>
+      <c r="D40">
+        <v>7.0637070000000002E-4</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>1.7126054000000001E-7</v>
+      </c>
+      <c r="H40">
+        <v>0.2339164</v>
+      </c>
+      <c r="I40">
+        <v>1.3742209999999999E-12</v>
+      </c>
+      <c r="J40">
+        <v>1.2504508500000001E-8</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>2.2636745E-7</v>
+      </c>
+      <c r="M40">
+        <v>1.1885520000000001E-8</v>
+      </c>
+      <c r="N40">
+        <v>7.7787674999999994E-8</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>70.789670000000001</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>-7.1999999999999995E-2</v>
+      </c>
+      <c r="U40">
+        <v>26.63</v>
+      </c>
+      <c r="V40">
+        <v>1583</v>
+      </c>
+      <c r="W40">
+        <v>0.2346</v>
+      </c>
+      <c r="X40">
+        <v>70.790000000000006</v>
+      </c>
+      <c r="Y40">
+        <v>1.0900000000000001E-4</v>
+      </c>
+      <c r="Z40">
+        <v>2.789E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41">
+        <v>9999</v>
+      </c>
+      <c r="C41">
+        <v>45.146877000000003</v>
+      </c>
+      <c r="D41">
+        <v>1.5109924999999999E-6</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>8.0229765E-6</v>
+      </c>
+      <c r="H41">
+        <v>3.2595281999999999E-3</v>
+      </c>
+      <c r="I41">
+        <v>1.5114917999999999E-11</v>
+      </c>
+      <c r="J41">
+        <v>7.9171490000000005E-8</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>3.7086561999999998E-7</v>
+      </c>
+      <c r="M41">
+        <v>5.3584486000000001E-8</v>
+      </c>
+      <c r="N41">
+        <v>7.9688970000000003E-10</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>2.9553459000000002</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>-0.24099999999999999</v>
+      </c>
+      <c r="U41">
+        <v>28.74</v>
+      </c>
+      <c r="V41">
+        <v>45.15</v>
+      </c>
+      <c r="W41">
+        <v>3.2690000000000002E-3</v>
+      </c>
+      <c r="X41">
+        <v>2.9550000000000001</v>
+      </c>
+      <c r="Y41">
+        <v>2.3149999999999999E-4</v>
+      </c>
+      <c r="Z41">
+        <v>2.8229999999999999E-5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42">
+        <v>9999</v>
+      </c>
+      <c r="C42">
+        <v>182.22730999999999</v>
+      </c>
+      <c r="D42">
+        <v>2.4933428000000001E-5</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>4.3681679999999999E-6</v>
+      </c>
+      <c r="H42">
+        <v>7.5866889999999998E-3</v>
+      </c>
+      <c r="I42">
+        <v>3.6308075000000001E-12</v>
+      </c>
+      <c r="J42">
+        <v>2.2607155000000002E-8</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>2.6262642999999998E-7</v>
+      </c>
+      <c r="M42">
+        <v>2.520904E-8</v>
+      </c>
+      <c r="N42">
+        <v>1.0101222999999999E-9</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>41.457366999999998</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>-0.126</v>
+      </c>
+      <c r="U42">
+        <v>27.05</v>
+      </c>
+      <c r="V42">
+        <v>182.2</v>
+      </c>
+      <c r="W42">
+        <v>7.6160000000000004E-3</v>
+      </c>
+      <c r="X42">
+        <v>41.46</v>
+      </c>
+      <c r="Y42">
+        <v>1.5880000000000001E-4</v>
+      </c>
+      <c r="Z42">
+        <v>3.1779999999999997E-5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43">
+        <v>9999</v>
+      </c>
+      <c r="C43">
+        <v>6.2093540000000003</v>
+      </c>
+      <c r="D43">
+        <v>2.9589813000000001E-5</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>2.1420055E-6</v>
+      </c>
+      <c r="H43">
+        <v>4.5794633000000001E-5</v>
+      </c>
+      <c r="I43">
+        <v>7.0995469999999999E-5</v>
+      </c>
+      <c r="J43">
+        <v>5.6405020000000001E-7</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>2.1408195999999998E-6</v>
+      </c>
+      <c r="M43">
+        <v>2.2887302999999999E-8</v>
+      </c>
+      <c r="N43">
+        <v>5.0634673999999997E-9</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>4.139242E-6</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>-33.430999999999997</v>
+      </c>
+      <c r="U43">
+        <v>7.6959999999999997</v>
+      </c>
+      <c r="V43">
+        <v>6.2089999999999996</v>
+      </c>
+      <c r="W43">
+        <v>7.7550000000000001E-5</v>
+      </c>
+      <c r="X43">
+        <v>7.7869999999999998E-5</v>
+      </c>
+      <c r="Y43">
+        <v>1.5129999999999999E-4</v>
+      </c>
+      <c r="Z43">
+        <v>7.1160000000000003E-5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44">
+        <v>9999</v>
+      </c>
+      <c r="C44">
+        <v>79693.039999999994</v>
+      </c>
+      <c r="D44">
+        <v>2.8221455999999999E-2</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>6.1397534000000005E-4</v>
+      </c>
+      <c r="H44">
+        <v>19.719131000000001</v>
+      </c>
+      <c r="I44">
+        <v>4.3193986000000004E-12</v>
+      </c>
+      <c r="J44">
+        <v>1.9532525000000001E-8</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>1.6664644E-7</v>
+      </c>
+      <c r="M44">
+        <v>4.7854686000000003E-5</v>
+      </c>
+      <c r="N44">
+        <v>1.2600347999999999E-7</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>175.36539999999999</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>8.7560000000000002</v>
+      </c>
+      <c r="U44">
+        <v>183.9</v>
+      </c>
+      <c r="V44">
+        <v>79690</v>
+      </c>
+      <c r="W44">
+        <v>19.75</v>
+      </c>
+      <c r="X44">
+        <v>175.4</v>
+      </c>
+      <c r="Y44">
+        <v>6.9179999999999997E-3</v>
+      </c>
+      <c r="Z44">
+        <v>3.5500000000000001E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45">
+        <v>9999</v>
+      </c>
+      <c r="C45">
+        <v>10941135</v>
+      </c>
+      <c r="D45">
+        <v>6.1410236999999999E-2</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>1.2259939E-4</v>
+      </c>
+      <c r="H45">
+        <v>2.4348375999999998</v>
+      </c>
+      <c r="I45">
+        <v>4.8158265999999996E-10</v>
+      </c>
+      <c r="J45">
+        <v>3.78932E-6</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>1.2729133000000001E-6</v>
+      </c>
+      <c r="M45">
+        <v>3.0228557000000001E-6</v>
+      </c>
+      <c r="N45">
+        <v>1.1984637999999999E-5</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>170.22646</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>-0.126</v>
+      </c>
+      <c r="U45">
+        <v>54.08</v>
+      </c>
+      <c r="V45">
+        <v>10940000</v>
+      </c>
+      <c r="W45">
+        <v>2.496</v>
+      </c>
+      <c r="X45">
+        <v>170.2</v>
+      </c>
+      <c r="Y45">
+        <v>1.7390000000000001E-3</v>
+      </c>
+      <c r="Z45">
+        <v>3.4619999999999998E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46">
+        <v>9999</v>
+      </c>
+      <c r="C46">
+        <v>1227.6659</v>
+      </c>
+      <c r="D46">
+        <v>0.20909776999999999</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>7.5970693000000002E-3</v>
+      </c>
+      <c r="H46">
+        <v>1.6536019999999998E-2</v>
+      </c>
+      <c r="I46">
+        <v>1.4891283E-7</v>
+      </c>
+      <c r="J46">
+        <v>6.9230220000000001E-5</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>4.7629102E-5</v>
+      </c>
+      <c r="M46">
+        <v>8.5771025999999996E-4</v>
+      </c>
+      <c r="N46">
+        <v>7.0860880000000003E-5</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>10.277654999999999</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>-14.593</v>
+      </c>
+      <c r="U46">
+        <v>840.4</v>
+      </c>
+      <c r="V46">
+        <v>1228</v>
+      </c>
+      <c r="W46">
+        <v>0.23419999999999999</v>
+      </c>
+      <c r="X46">
+        <v>10.28</v>
+      </c>
+      <c r="Y46">
+        <v>2.929E-2</v>
+      </c>
+      <c r="Z46">
+        <v>8.4180000000000001E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47">
+        <v>9999</v>
+      </c>
+      <c r="C47">
+        <v>1897.5685000000001</v>
+      </c>
+      <c r="D47">
+        <v>1.6717360000000001E-2</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>3.9224315000000002E-4</v>
+      </c>
+      <c r="H47">
+        <v>7.9295689999999999</v>
+      </c>
+      <c r="I47">
+        <v>4.2758789999999999E-8</v>
+      </c>
+      <c r="J47">
+        <v>1.3074897E-4</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>1.3251695999999999E-4</v>
+      </c>
+      <c r="M47">
+        <v>7.9820409999999996E-6</v>
+      </c>
+      <c r="N47">
+        <v>8.1421100000000004E-8</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>456.75265999999999</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>10.164</v>
+      </c>
+      <c r="U47">
+        <v>388.1</v>
+      </c>
+      <c r="V47">
+        <v>1898</v>
+      </c>
+      <c r="W47">
+        <v>7.9470000000000001</v>
+      </c>
+      <c r="X47">
+        <v>456.8</v>
+      </c>
+      <c r="Y47">
+        <v>2.8249999999999998E-3</v>
+      </c>
+      <c r="Z47">
+        <v>2.853E-4</v>
       </c>
     </row>
   </sheetData>
@@ -3239,22 +4531,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R43"/>
+  <dimension ref="A1:R47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K48" sqref="K48"/>
+      <selection pane="bottomRight" activeCell="U42" sqref="U42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="12.453125" customWidth="1"/>
     <col min="3" max="3" width="7.36328125" customWidth="1"/>
-    <col min="4" max="5" width="9.81640625" style="26" customWidth="1"/>
+    <col min="4" max="5" width="9.81640625" style="23" customWidth="1"/>
     <col min="6" max="6" width="6.26953125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="6.26953125" style="31" customWidth="1"/>
+    <col min="7" max="7" width="6.26953125" style="28" customWidth="1"/>
     <col min="8" max="8" width="6.26953125" style="2" customWidth="1"/>
     <col min="9" max="11" width="6.26953125" customWidth="1"/>
     <col min="12" max="12" width="10.54296875" style="13" customWidth="1"/>
@@ -3262,32 +4554,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="18"/>
+      <c r="B1" s="30"/>
       <c r="C1" s="16"/>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19" t="s">
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19" t="s">
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
@@ -3299,10 +4591,10 @@
       <c r="C2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="17" t="s">
         <v>61</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -3333,10 +4625,10 @@
         <v>18</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>20</v>
@@ -3355,14 +4647,14 @@
       <c r="C3" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="18">
         <v>4</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="18">
         <v>200</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>67</v>
@@ -3405,14 +4697,14 @@
       <c r="C4" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="18">
         <v>3</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="18">
         <v>120</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>67</v>
@@ -3433,10 +4725,10 @@
         <v>32.31</v>
       </c>
       <c r="O4" s="15">
-        <v>8.5461400000000005E-6</v>
+        <v>2.9233781828562656E-3</v>
       </c>
       <c r="P4" s="15">
-        <v>1.5542883000000001E-4</v>
+        <v>1.2467109929731109E-2</v>
       </c>
       <c r="Q4" s="15">
         <v>4.452</v>
@@ -3455,14 +4747,14 @@
       <c r="C5" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="18">
         <v>4</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="18">
         <v>200</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>67</v>
@@ -3483,10 +4775,10 @@
         <v>17.29</v>
       </c>
       <c r="O5" s="15">
-        <v>7.6100600000000006E-8</v>
+        <v>2.7586337197968127E-4</v>
       </c>
       <c r="P5" s="15">
-        <v>1.4317835000000001E-9</v>
+        <v>3.7838915153582295E-5</v>
       </c>
       <c r="Q5" s="15">
         <v>1.5699999999999999E-5</v>
@@ -3505,14 +4797,14 @@
       <c r="C6" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="18">
         <v>3</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="18">
         <v>120</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>67</v>
@@ -3533,10 +4825,10 @@
         <v>31.31</v>
       </c>
       <c r="O6" s="15">
-        <v>6.2191503999999995E-7</v>
+        <v>7.8861590143744877E-4</v>
       </c>
       <c r="P6" s="15">
-        <v>8.9321170000000003E-6</v>
+        <v>2.9886647520255597E-3</v>
       </c>
       <c r="Q6" s="15">
         <v>8.5709999999999997</v>
@@ -3555,14 +4847,14 @@
       <c r="C7" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="18">
         <v>4</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="18">
         <v>200</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>67</v>
@@ -3583,10 +4875,10 @@
         <v>50.72</v>
       </c>
       <c r="O7" s="15">
-        <v>8.7775544000000002E-7</v>
+        <v>9.368860336241543E-4</v>
       </c>
       <c r="P7" s="15">
-        <v>3.513971E-7</v>
+        <v>5.9278756734600969E-4</v>
       </c>
       <c r="Q7" s="15">
         <v>2.581</v>
@@ -3605,14 +4897,14 @@
       <c r="C8" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="18">
         <v>3</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="18">
         <v>120</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>67</v>
@@ -3633,10 +4925,10 @@
         <v>43.25</v>
       </c>
       <c r="O8" s="15">
-        <v>2.0499976E-7</v>
+        <v>4.5276899187113068E-4</v>
       </c>
       <c r="P8" s="15">
-        <v>1.6205885E-6</v>
+        <v>1.2730233697776329E-3</v>
       </c>
       <c r="Q8" s="15">
         <v>0.60680000000000001</v>
@@ -3655,10 +4947,10 @@
       <c r="C9" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="18">
         <v>4</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="18">
         <v>200</v>
       </c>
       <c r="F9" s="4"/>
@@ -3681,10 +4973,10 @@
         <v>64.88</v>
       </c>
       <c r="O9" s="15">
-        <v>2.8813569999999999E-5</v>
+        <v>5.3678273072072652E-3</v>
       </c>
       <c r="P9" s="15">
-        <v>1.5121113999999999E-7</v>
+        <v>3.8885876613495545E-4</v>
       </c>
       <c r="Q9" s="15">
         <v>0.19950000000000001</v>
@@ -3703,10 +4995,10 @@
       <c r="C10" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="18">
         <v>4</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="18">
         <v>200</v>
       </c>
       <c r="F10" s="4"/>
@@ -3729,10 +5021,10 @@
         <v>178.5</v>
       </c>
       <c r="O10" s="15">
-        <v>5.2063732999999998E-5</v>
+        <v>7.2155202861609365E-3</v>
       </c>
       <c r="P10" s="15">
-        <v>5.7893699999999999E-8</v>
+        <v>2.4061109700094881E-4</v>
       </c>
       <c r="Q10" s="15">
         <v>0.98429999999999995</v>
@@ -3751,10 +5043,10 @@
       <c r="C11" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="18">
         <v>4</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="18">
         <v>200</v>
       </c>
       <c r="F11" s="4"/>
@@ -3777,10 +5069,10 @@
         <v>236.4</v>
       </c>
       <c r="O11" s="15">
-        <v>1.9872211999999999E-5</v>
+        <v>4.4578259275121993E-3</v>
       </c>
       <c r="P11" s="15">
-        <v>8.0116629999999997E-8</v>
+        <v>2.8304881204484856E-4</v>
       </c>
       <c r="Q11" s="15">
         <v>1.0209999999999999</v>
@@ -3799,10 +5091,10 @@
       <c r="C12" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="19">
         <v>4</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="19">
         <v>200</v>
       </c>
       <c r="F12" s="5"/>
@@ -3823,10 +5115,10 @@
         <v>512.6</v>
       </c>
       <c r="O12" s="15">
-        <v>4.5543899999999997E-4</v>
+        <v>2.1341016845501996E-2</v>
       </c>
       <c r="P12" s="15">
-        <v>2.4780910000000002E-4</v>
+        <v>1.5741953500121895E-2</v>
       </c>
       <c r="Q12" s="15">
         <v>3.2770000000000001</v>
@@ -3845,14 +5137,14 @@
       <c r="C13" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="20">
         <v>4</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="20">
         <v>200</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>67</v>
@@ -3875,10 +5167,10 @@
         <v>1161</v>
       </c>
       <c r="O13" s="15">
-        <v>1.6187778999999999E-3</v>
+        <v>4.0234039071413152E-2</v>
       </c>
       <c r="P13" s="15">
-        <v>7.1034384999999999E-3</v>
+        <v>8.4281899005658384E-2</v>
       </c>
       <c r="Q13" s="15">
         <v>109700</v>
@@ -3897,14 +5189,14 @@
       <c r="C14" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="20">
         <v>4</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="20">
         <v>200</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>67</v>
@@ -3927,10 +5219,10 @@
         <v>25.21</v>
       </c>
       <c r="O14" s="15">
-        <v>7.6363434999999997E-8</v>
+        <v>2.7633934754211169E-4</v>
       </c>
       <c r="P14" s="15">
-        <v>5.9799530000000003E-7</v>
+        <v>7.7330155825525149E-4</v>
       </c>
       <c r="Q14" s="15">
         <v>0.38009999999999999</v>
@@ -3949,14 +5241,14 @@
       <c r="C15" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="20">
         <v>4</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="20">
         <v>200</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>67</v>
@@ -3981,10 +5273,10 @@
         <v>723.6</v>
       </c>
       <c r="O15" s="15">
-        <v>5.0834299999999997E-4</v>
+        <v>2.2546463137263901E-2</v>
       </c>
       <c r="P15" s="15">
-        <v>1.8634804000000001E-2</v>
+        <v>0.13650935499078443</v>
       </c>
       <c r="Q15" s="15">
         <v>2.6159999999999999E-2</v>
@@ -4003,14 +5295,14 @@
       <c r="C16" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="20">
         <v>4</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="20">
         <v>200</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>67</v>
@@ -4033,10 +5325,10 @@
         <v>1875</v>
       </c>
       <c r="O16" s="15">
-        <v>3.8444141E-3</v>
+        <v>6.2003339426195424E-2</v>
       </c>
       <c r="P16" s="15">
-        <v>4.6075989999999997E-2</v>
+        <v>0.21465318539448697</v>
       </c>
       <c r="Q16" s="15">
         <v>62320</v>
@@ -4055,14 +5347,14 @@
       <c r="C17" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="20">
         <v>4</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="20">
         <v>200</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>67</v>
@@ -4087,10 +5379,10 @@
         <v>44.21</v>
       </c>
       <c r="O17" s="15">
-        <v>4.2887333000000002E-8</v>
+        <v>2.0709257108839034E-4</v>
       </c>
       <c r="P17" s="15">
-        <v>2.057204E-8</v>
+        <v>1.4342956459530929E-4</v>
       </c>
       <c r="Q17" s="15">
         <v>1.817E-4</v>
@@ -4109,14 +5401,14 @@
       <c r="C18" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="20">
         <v>4</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="20">
         <v>200</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>67</v>
@@ -4143,10 +5435,10 @@
         <v>306.39999999999998</v>
       </c>
       <c r="O18" s="15">
-        <v>1.1688182E-4</v>
+        <v>1.0811189573770317E-2</v>
       </c>
       <c r="P18" s="15">
-        <v>6.2875693999999999E-4</v>
+        <v>2.507502622132228E-2</v>
       </c>
       <c r="Q18" s="15">
         <v>1.176E-2</v>
@@ -4165,10 +5457,10 @@
       <c r="C19" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="20">
         <v>4</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="20">
         <v>200</v>
       </c>
       <c r="F19" s="6"/>
@@ -4195,10 +5487,10 @@
         <v>282.7</v>
       </c>
       <c r="O19" s="15">
-        <v>3.1944688E-5</v>
+        <v>5.6519631987478475E-3</v>
       </c>
       <c r="P19" s="15">
-        <v>6.9663349999999996E-6</v>
+        <v>2.6393815563498959E-3</v>
       </c>
       <c r="Q19" s="15">
         <v>2.5489999999999999</v>
@@ -4217,14 +5509,14 @@
       <c r="C20" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D20" s="20">
         <v>4</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="20">
         <v>200</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="7"/>
@@ -4247,10 +5539,10 @@
         <v>2269</v>
       </c>
       <c r="O20" s="15">
-        <v>4.6020495000000002E-3</v>
+        <v>6.7838407263142608E-2</v>
       </c>
       <c r="P20" s="15">
-        <v>4.0873463999999998E-2</v>
+        <v>0.20217186747913271</v>
       </c>
       <c r="Q20" s="15">
         <v>57.14</v>
@@ -4269,14 +5561,14 @@
       <c r="C21" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="20">
         <v>4</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="20">
         <v>200</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="7"/>
@@ -4293,10 +5585,10 @@
         <v>620.20000000000005</v>
       </c>
       <c r="O21" s="15">
-        <v>1.00432306E-4</v>
+        <v>1.0021591989299904E-2</v>
       </c>
       <c r="P21" s="15">
-        <v>1.6213668E-4</v>
+        <v>1.2733290226803126E-2</v>
       </c>
       <c r="Q21" s="15">
         <v>0.30130000000000001</v>
@@ -4315,14 +5607,14 @@
       <c r="C22" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D22" s="21">
         <v>4</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="21">
         <v>200</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>67</v>
@@ -4347,10 +5639,10 @@
         <v>11.93</v>
       </c>
       <c r="O22" s="15">
-        <v>4.3859965000000001E-9</v>
+        <v>6.6226856334873697E-5</v>
       </c>
       <c r="P22" s="15">
-        <v>6.7883715000000003E-10</v>
+        <v>2.6054503449499857E-5</v>
       </c>
       <c r="Q22" s="15">
         <v>4.8749999999999999E-6</v>
@@ -4369,14 +5661,14 @@
       <c r="C23" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D23" s="24">
+      <c r="D23" s="21">
         <v>4</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="21">
         <v>200</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="G23" s="9" t="s">
         <v>67</v>
@@ -4399,10 +5691,10 @@
         <v>49.09</v>
       </c>
       <c r="O23" s="15">
-        <v>8.5422470000000005E-11</v>
+        <v>9.2424277113754051E-6</v>
       </c>
       <c r="P23" s="15">
-        <v>9.7860519999999991E-10</v>
+        <v>3.1282666126786573E-5</v>
       </c>
       <c r="Q23" s="15">
         <v>2.4760000000000001E-6</v>
@@ -4421,10 +5713,10 @@
       <c r="C24" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D24" s="24">
+      <c r="D24" s="21">
         <v>4</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E24" s="21">
         <v>200</v>
       </c>
       <c r="F24" s="9"/>
@@ -4445,10 +5737,10 @@
         <v>16.61</v>
       </c>
       <c r="O24" s="15">
-        <v>5.8866543999999997E-7</v>
+        <v>7.6724535840889908E-4</v>
       </c>
       <c r="P24" s="15">
-        <v>3.4624976000000002E-11</v>
+        <v>5.884299108644971E-6</v>
       </c>
       <c r="Q24" s="15">
         <v>1.875E-4</v>
@@ -4467,10 +5759,10 @@
       <c r="C25" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D25" s="24">
+      <c r="D25" s="21">
         <v>4</v>
       </c>
-      <c r="E25" s="24">
+      <c r="E25" s="21">
         <v>200</v>
       </c>
       <c r="F25" s="9"/>
@@ -4489,10 +5781,10 @@
         <v>910.5</v>
       </c>
       <c r="O25" s="15">
-        <v>3.2595617E-3</v>
+        <v>5.709257132061929E-2</v>
       </c>
       <c r="P25" s="15">
-        <v>1.742668E-3</v>
+        <v>4.1745275181749607E-2</v>
       </c>
       <c r="Q25" s="15">
         <v>7.0789999999999997</v>
@@ -4511,14 +5803,14 @@
       <c r="C26" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="25">
+      <c r="D26" s="22">
         <v>4</v>
       </c>
-      <c r="E26" s="25">
+      <c r="E26" s="22">
         <v>200</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="G26" s="11" t="s">
         <v>67</v>
@@ -4539,10 +5831,10 @@
         <v>30.45</v>
       </c>
       <c r="O26" s="15">
-        <v>9.4337099999999998E-7</v>
+        <v>9.7127287617847127E-4</v>
       </c>
       <c r="P26" s="15">
-        <v>5.4602538000000002E-6</v>
+        <v>2.3367185966649902E-3</v>
       </c>
       <c r="Q26" s="15">
         <v>12.86</v>
@@ -4561,14 +5853,14 @@
       <c r="C27" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D27" s="25">
+      <c r="D27" s="22">
         <v>4</v>
       </c>
-      <c r="E27" s="25">
+      <c r="E27" s="22">
         <v>200</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>67</v>
@@ -4591,10 +5883,10 @@
         <v>26.8</v>
       </c>
       <c r="O27" s="15">
-        <v>1.6332783999999999E-7</v>
+        <v>4.041383921381387E-4</v>
       </c>
       <c r="P27" s="15">
-        <v>1.6136484E-9</v>
+        <v>4.0170242717713322E-5</v>
       </c>
       <c r="Q27" s="15">
         <v>0.23250000000000001</v>
@@ -4613,14 +5905,14 @@
       <c r="C28" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D28" s="25">
+      <c r="D28" s="22">
         <v>4</v>
       </c>
-      <c r="E28" s="25">
+      <c r="E28" s="22">
         <v>200</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>67</v>
@@ -4641,10 +5933,10 @@
         <v>108.4</v>
       </c>
       <c r="O28" s="15">
-        <v>5.2165815999999998E-15</v>
+        <v>7.2225906709434951E-8</v>
       </c>
       <c r="P28" s="15">
-        <v>3.8023868000000003E-14</v>
+        <v>1.9499709741429487E-7</v>
       </c>
       <c r="Q28" s="15">
         <v>7.594E-9</v>
@@ -4663,14 +5955,14 @@
       <c r="C29" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D29" s="25">
+      <c r="D29" s="22">
         <v>4</v>
       </c>
-      <c r="E29" s="25">
+      <c r="E29" s="22">
         <v>200</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="G29" s="11" t="s">
         <v>67</v>
@@ -4693,10 +5985,10 @@
         <v>31.51</v>
       </c>
       <c r="O29" s="15">
-        <v>5.7467186999999998E-9</v>
+        <v>7.5807115101420394E-5</v>
       </c>
       <c r="P29" s="15">
-        <v>4.2767387000000001E-10</v>
+        <v>2.0680277319223742E-5</v>
       </c>
       <c r="Q29" s="15">
         <v>1.057E-5</v>
@@ -4715,14 +6007,14 @@
       <c r="C30" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D30" s="25">
+      <c r="D30" s="22">
         <v>4</v>
       </c>
-      <c r="E30" s="25">
+      <c r="E30" s="22">
         <v>200</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="G30" s="11" t="s">
         <v>67</v>
@@ -4747,10 +6039,10 @@
         <v>30.97</v>
       </c>
       <c r="O30" s="15">
-        <v>7.1143543999999997E-9</v>
+        <v>8.4346632416475289E-5</v>
       </c>
       <c r="P30" s="15">
-        <v>2.3403185000000001E-8</v>
+        <v>1.5298099555173511E-4</v>
       </c>
       <c r="Q30" s="15">
         <v>3.4840000000000001E-3</v>
@@ -4769,10 +6061,10 @@
       <c r="C31" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D31" s="25">
+      <c r="D31" s="22">
         <v>4</v>
       </c>
-      <c r="E31" s="25">
+      <c r="E31" s="22">
         <v>200</v>
       </c>
       <c r="F31" s="11"/>
@@ -4797,10 +6089,10 @@
         <v>33.799999999999997</v>
       </c>
       <c r="O31" s="15">
-        <v>2.8977409999999998E-7</v>
+        <v>5.3830669696744438E-4</v>
       </c>
       <c r="P31" s="15">
-        <v>3.1397146E-8</v>
+        <v>1.7719239825681011E-4</v>
       </c>
       <c r="Q31" s="15">
         <v>0.11700000000000001</v>
@@ -4819,14 +6111,14 @@
       <c r="C32" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D32" s="25">
+      <c r="D32" s="22">
         <v>4</v>
       </c>
-      <c r="E32" s="25">
+      <c r="E32" s="22">
         <v>200</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="G32" s="11"/>
       <c r="H32" s="12"/>
@@ -4847,10 +6139,10 @@
         <v>1532</v>
       </c>
       <c r="O32" s="15">
-        <v>2.9260422999999999E-3</v>
+        <v>5.4092904340587958E-2</v>
       </c>
       <c r="P32" s="15">
-        <v>3.3045409999999997E-2</v>
+        <v>0.18178396518945228</v>
       </c>
       <c r="Q32" s="15">
         <v>93.63</v>
@@ -4860,418 +6152,582 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="28" t="s">
+      <c r="C33" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="D33" s="29">
+      <c r="D33" s="26">
         <v>4</v>
       </c>
-      <c r="E33" s="29">
+      <c r="E33" s="26">
         <v>200</v>
       </c>
-      <c r="F33" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="G33" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="H33" s="30"/>
-      <c r="I33" s="28" t="s">
+      <c r="F33" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="G33" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="H33" s="27"/>
+      <c r="I33" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="L33" s="28"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="15"/>
-      <c r="P33" s="15"/>
-      <c r="Q33" s="15"/>
-      <c r="R33" s="15"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="L33" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="M33" s="14">
+        <v>-0.502</v>
+      </c>
+      <c r="N33" s="15">
+        <v>16.47</v>
+      </c>
+      <c r="O33" s="15">
+        <v>2.1469999999999999E-5</v>
+      </c>
+      <c r="P33" s="15">
+        <v>6.2539999999999994E-5</v>
+      </c>
+      <c r="Q33" s="15">
+        <v>4.1209999999999997E-3</v>
+      </c>
+      <c r="R33" s="15">
+        <v>1.446</v>
+      </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A34" s="27" t="s">
+      <c r="A34" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="28" t="s">
+      <c r="C34" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="D34" s="29">
+      <c r="D34" s="26">
         <v>4</v>
       </c>
-      <c r="E34" s="29">
+      <c r="E34" s="26">
         <v>200</v>
       </c>
-      <c r="F34" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="G34" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="H34" s="30"/>
-      <c r="I34" s="28" t="s">
+      <c r="F34" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="G34" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="H34" s="27"/>
+      <c r="I34" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="L34" s="28"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="15"/>
-      <c r="R34" s="15"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="L34" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M34" s="14">
+        <v>-0.503</v>
+      </c>
+      <c r="N34" s="15">
+        <v>67.39</v>
+      </c>
+      <c r="O34" s="15">
+        <v>7.2000000000000005E-4</v>
+      </c>
+      <c r="P34" s="15">
+        <v>1.323E-3</v>
+      </c>
+      <c r="Q34" s="15">
+        <v>1.294</v>
+      </c>
+      <c r="R34" s="15">
+        <v>20.73</v>
+      </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A35" s="27" t="s">
+      <c r="A35" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="B35" s="28" t="s">
+      <c r="B35" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="28" t="s">
+      <c r="C35" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="D35" s="29">
+      <c r="D35" s="26">
         <v>4</v>
       </c>
-      <c r="E35" s="29">
+      <c r="E35" s="26">
         <v>300</v>
       </c>
-      <c r="F35" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="G35" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="H35" s="30"/>
-      <c r="I35" s="28" t="s">
+      <c r="F35" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="G35" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="H35" s="27"/>
+      <c r="I35" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="L35" s="28"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="15"/>
-      <c r="P35" s="15"/>
-      <c r="Q35" s="15"/>
-      <c r="R35" s="15"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="L35" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="M35" s="14">
+        <v>3.5659999999999998</v>
+      </c>
+      <c r="N35" s="15">
+        <v>702</v>
+      </c>
+      <c r="O35" s="15">
+        <v>2.462E-2</v>
+      </c>
+      <c r="P35" s="15">
+        <v>8.4839999999999999E-2</v>
+      </c>
+      <c r="Q35" s="15">
+        <v>1.9740000000000001E-2</v>
+      </c>
+      <c r="R35" s="15">
+        <v>18.190000000000001</v>
+      </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A36" s="27" t="s">
+      <c r="A36" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="B36" s="28" t="s">
+      <c r="B36" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="28" t="s">
+      <c r="C36" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="D36" s="29">
+      <c r="D36" s="26">
         <v>4</v>
       </c>
-      <c r="E36" s="29">
+      <c r="E36" s="26">
         <v>120</v>
       </c>
-      <c r="F36" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="G36" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="H36" s="30"/>
-      <c r="I36" s="28" t="s">
+      <c r="F36" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="G36" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="H36" s="27"/>
+      <c r="I36" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="J36" s="28"/>
-      <c r="K36" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="L36" s="28"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="15"/>
-      <c r="O36" s="15"/>
-      <c r="P36" s="15"/>
-      <c r="Q36" s="15"/>
-      <c r="R36" s="15"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="L36" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M36" s="14">
+        <v>-7.1999999999999995E-2</v>
+      </c>
+      <c r="N36" s="15">
+        <v>26.63</v>
+      </c>
+      <c r="O36" s="15">
+        <v>1.0900000000000001E-4</v>
+      </c>
+      <c r="P36" s="15">
+        <v>2.789E-4</v>
+      </c>
+      <c r="Q36" s="15">
+        <v>0.2346</v>
+      </c>
+      <c r="R36" s="15">
+        <v>70.790000000000006</v>
+      </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A37" s="27" t="s">
+      <c r="A37" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="B37" s="28" t="s">
+      <c r="B37" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="28" t="s">
+      <c r="C37" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="D37" s="29">
+      <c r="D37" s="26">
         <v>3</v>
       </c>
-      <c r="E37" s="29">
+      <c r="E37" s="26">
         <v>200</v>
       </c>
-      <c r="F37" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="G37" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="H37" s="30"/>
-      <c r="I37" s="28" t="s">
+      <c r="F37" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="G37" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="H37" s="27"/>
+      <c r="I37" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="J37" s="28"/>
-      <c r="K37" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="L37" s="28"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="15"/>
-      <c r="P37" s="15"/>
-      <c r="Q37" s="15"/>
-      <c r="R37" s="15"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="L37" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M37" s="14">
+        <v>-0.24099999999999999</v>
+      </c>
+      <c r="N37" s="15">
+        <v>28.74</v>
+      </c>
+      <c r="O37" s="15">
+        <v>2.3149999999999999E-4</v>
+      </c>
+      <c r="P37" s="15">
+        <v>2.8229999999999999E-5</v>
+      </c>
+      <c r="Q37" s="15">
+        <v>3.2690000000000002E-3</v>
+      </c>
+      <c r="R37" s="15">
+        <v>2.9550000000000001</v>
+      </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A38" s="27" t="s">
+      <c r="A38" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="B38" s="28" t="s">
+      <c r="B38" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="28" t="s">
+      <c r="C38" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="D38" s="29">
+      <c r="D38" s="26">
         <v>5</v>
       </c>
-      <c r="E38" s="29">
+      <c r="E38" s="26">
         <v>200</v>
       </c>
-      <c r="F38" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="G38" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="H38" s="30"/>
-      <c r="I38" s="28" t="s">
+      <c r="F38" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="G38" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="H38" s="27"/>
+      <c r="I38" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="J38" s="28"/>
-      <c r="K38" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="L38" s="28"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="15"/>
-      <c r="P38" s="15"/>
-      <c r="Q38" s="15"/>
-      <c r="R38" s="15"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="L38" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="M38" s="14">
+        <v>-0.126</v>
+      </c>
+      <c r="N38" s="15">
+        <v>27.05</v>
+      </c>
+      <c r="O38" s="15">
+        <v>1.5880000000000001E-4</v>
+      </c>
+      <c r="P38" s="15">
+        <v>3.1779999999999997E-5</v>
+      </c>
+      <c r="Q38" s="15">
+        <v>7.6160000000000004E-3</v>
+      </c>
+      <c r="R38" s="15">
+        <v>41.46</v>
+      </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A39" s="27" t="s">
+      <c r="A39" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="B39" s="28" t="s">
+      <c r="B39" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="28" t="s">
+      <c r="C39" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="D39" s="29">
+      <c r="D39" s="26">
         <v>4</v>
       </c>
-      <c r="E39" s="29">
+      <c r="E39" s="26">
         <v>200</v>
       </c>
-      <c r="F39" s="28" t="s">
+      <c r="F39" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="G39" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="H39" s="30"/>
-      <c r="I39" s="28" t="s">
+      <c r="G39" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="H39" s="27"/>
+      <c r="I39" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="J39" s="28"/>
-      <c r="K39" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="L39" s="28"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="15"/>
-      <c r="Q39" s="15"/>
-      <c r="R39" s="15"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="L39" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="M39" s="14">
+        <v>-33.430999999999997</v>
+      </c>
+      <c r="N39" s="15">
+        <v>7.6959999999999997</v>
+      </c>
+      <c r="O39" s="15">
+        <v>1.5129999999999999E-4</v>
+      </c>
+      <c r="P39" s="15">
+        <v>7.1160000000000003E-5</v>
+      </c>
+      <c r="Q39" s="15">
+        <v>7.7550000000000001E-5</v>
+      </c>
+      <c r="R39" s="15">
+        <v>7.7869999999999998E-5</v>
+      </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A40" s="27" t="s">
+      <c r="A40" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="B40" s="28" t="s">
+      <c r="B40" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="C40" s="28" t="s">
+      <c r="C40" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="D40" s="29">
+      <c r="D40" s="26">
         <v>4</v>
       </c>
-      <c r="E40" s="29">
+      <c r="E40" s="26">
         <v>200</v>
       </c>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="H40" s="30"/>
-      <c r="I40" s="28" t="s">
+      <c r="F40" s="25"/>
+      <c r="G40" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="H40" s="27"/>
+      <c r="I40" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="J40" s="28"/>
-      <c r="K40" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="L40" s="28"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="15"/>
-      <c r="O40" s="15"/>
-      <c r="P40" s="15"/>
-      <c r="Q40" s="15"/>
-      <c r="R40" s="15"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="L40" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="M40" s="14">
+        <v>8.7560000000000002</v>
+      </c>
+      <c r="N40" s="15">
+        <v>183.9</v>
+      </c>
+      <c r="O40" s="15">
+        <v>6.9179999999999997E-3</v>
+      </c>
+      <c r="P40" s="15">
+        <v>3.5500000000000001E-4</v>
+      </c>
+      <c r="Q40" s="15">
+        <v>19.75</v>
+      </c>
+      <c r="R40" s="15">
+        <v>175.4</v>
+      </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A41" s="27" t="s">
+      <c r="A41" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="B41" s="28" t="s">
+      <c r="B41" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="C41" s="28" t="s">
+      <c r="C41" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D41" s="29">
+      <c r="D41" s="26">
         <v>4</v>
       </c>
-      <c r="E41" s="29">
+      <c r="E41" s="26">
         <v>200</v>
       </c>
-      <c r="F41" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="G41" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="H41" s="30"/>
-      <c r="I41" s="28" t="s">
+      <c r="F41" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="G41" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="H41" s="27"/>
+      <c r="I41" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="J41" s="28"/>
-      <c r="K41" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="L41" s="28"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="15"/>
-      <c r="O41" s="15"/>
-      <c r="P41" s="15"/>
-      <c r="Q41" s="15"/>
-      <c r="R41" s="15"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="L41" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="M41" s="14">
+        <v>-0.126</v>
+      </c>
+      <c r="N41" s="15">
+        <v>54.08</v>
+      </c>
+      <c r="O41" s="15">
+        <v>1.7390000000000001E-3</v>
+      </c>
+      <c r="P41" s="15">
+        <v>3.4619999999999998E-3</v>
+      </c>
+      <c r="Q41" s="15">
+        <v>2.496</v>
+      </c>
+      <c r="R41" s="15">
+        <v>170.2</v>
+      </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A42" s="27" t="s">
+      <c r="A42" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="B42" s="28" t="s">
+      <c r="B42" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="C42" s="28" t="s">
+      <c r="C42" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D42" s="29">
+      <c r="D42" s="26">
         <v>4</v>
       </c>
-      <c r="E42" s="29">
+      <c r="E42" s="26">
         <v>200</v>
       </c>
-      <c r="F42" s="28" t="s">
+      <c r="F42" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="G42" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="H42" s="30"/>
-      <c r="I42" s="28" t="s">
+      <c r="G42" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="H42" s="27"/>
+      <c r="I42" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="J42" s="28"/>
-      <c r="K42" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="L42" s="28"/>
-      <c r="M42" s="14"/>
-      <c r="N42" s="15"/>
-      <c r="O42" s="15"/>
-      <c r="P42" s="15"/>
-      <c r="Q42" s="15"/>
-      <c r="R42" s="15"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="L42" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="M42" s="14">
+        <v>-14.593</v>
+      </c>
+      <c r="N42" s="15">
+        <v>840.4</v>
+      </c>
+      <c r="O42" s="15">
+        <v>2.929E-2</v>
+      </c>
+      <c r="P42" s="15">
+        <v>8.4180000000000001E-3</v>
+      </c>
+      <c r="Q42" s="15">
+        <v>0.23419999999999999</v>
+      </c>
+      <c r="R42" s="15">
+        <v>10.28</v>
+      </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A43" s="27" t="s">
+      <c r="A43" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="B43" s="28" t="s">
+      <c r="B43" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="C43" s="28" t="s">
+      <c r="C43" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D43" s="29">
+      <c r="D43" s="26">
         <v>4</v>
       </c>
-      <c r="E43" s="29">
+      <c r="E43" s="26">
         <v>200</v>
       </c>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="H43" s="30"/>
-      <c r="I43" s="28" t="s">
+      <c r="F43" s="25"/>
+      <c r="G43" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="H43" s="27"/>
+      <c r="I43" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="J43" s="28"/>
-      <c r="K43" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="L43" s="28"/>
-      <c r="M43" s="14"/>
-      <c r="N43" s="15"/>
-      <c r="O43" s="15"/>
-      <c r="P43" s="15"/>
-      <c r="Q43" s="15"/>
-      <c r="R43" s="15"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="L43" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="M43" s="14">
+        <v>10.164</v>
+      </c>
+      <c r="N43" s="15">
+        <v>388.1</v>
+      </c>
+      <c r="O43" s="15">
+        <v>2.8249999999999998E-3</v>
+      </c>
+      <c r="P43" s="15">
+        <v>2.853E-4</v>
+      </c>
+      <c r="Q43" s="15">
+        <v>7.9470000000000001</v>
+      </c>
+      <c r="R43" s="15">
+        <v>456.8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="H46" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="H47" s="2" t="s">
+        <v>101</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:R32" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
@@ -5294,4 +6750,19 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA4B363B-E1DA-4CB6-A1DC-3719C7A496E4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/code/Post/results.xlsx
+++ b/code/Post/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achom\Desktop\Main\Code\Scientific-Computing\Physics-Neural-Networks\PINN\code\Post\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C5BE05-75AC-41C8-A75D-6B6492FF6F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18ED86C-85B9-4D14-AF03-FF47B5B1F60E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Complete" sheetId="1" r:id="rId1"/>
     <sheet name="Filtered" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja1" sheetId="3" r:id="rId3"/>
+    <sheet name="wonapde" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Filtered!$A$2:$R$32</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="107">
   <si>
     <t>TL</t>
   </si>
@@ -340,10 +341,25 @@
     <t>I</t>
   </si>
   <si>
-    <t>*CORRER METANOL</t>
-  </si>
-  <si>
-    <t>*PROBAR REGULARIZADO</t>
+    <t>S71</t>
+  </si>
+  <si>
+    <t>S72</t>
+  </si>
+  <si>
+    <t>S73</t>
+  </si>
+  <si>
+    <t>S74</t>
+  </si>
+  <si>
+    <t>S75</t>
+  </si>
+  <si>
+    <t>S76</t>
+  </si>
+  <si>
+    <t>S77</t>
   </si>
 </sst>
 </file>
@@ -370,7 +386,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -404,6 +420,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE46F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,7 +489,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -542,11 +570,44 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -570,6 +631,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFE46F"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -4531,13 +4597,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R47"/>
+  <dimension ref="A1:R50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U42" sqref="U42"/>
+      <selection pane="bottomRight" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6719,14 +6785,368 @@
         <v>456.8</v>
       </c>
     </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A44" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D44" s="34">
+        <v>4</v>
+      </c>
+      <c r="E44" s="34">
+        <v>200</v>
+      </c>
+      <c r="F44" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="G44" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="H44" s="35"/>
+      <c r="I44" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="J44" s="33"/>
+      <c r="K44" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="L44" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="M44" s="14">
+        <v>-43.003999999999998</v>
+      </c>
+      <c r="N44" s="15">
+        <v>137.6</v>
+      </c>
+      <c r="O44" s="15">
+        <v>2.408E-4</v>
+      </c>
+      <c r="P44" s="15">
+        <v>1.6419999999999999E-5</v>
+      </c>
+      <c r="Q44" s="15">
+        <v>2.0679999999999999E-5</v>
+      </c>
+      <c r="R44" s="15">
+        <v>59.35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A45" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="B45" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D45" s="34">
+        <v>4</v>
+      </c>
+      <c r="E45" s="34">
+        <v>200</v>
+      </c>
+      <c r="F45" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="G45" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="H45" s="35"/>
+      <c r="I45" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="J45" s="33"/>
+      <c r="K45" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="L45" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="M45" s="14">
+        <v>13.164999999999999</v>
+      </c>
+      <c r="N45" s="15">
+        <v>349.2</v>
+      </c>
+      <c r="O45" s="15">
+        <v>1.8090000000000001E-3</v>
+      </c>
+      <c r="P45" s="15">
+        <v>1.8489999999999999E-3</v>
+      </c>
+      <c r="Q45" s="15">
+        <v>4.8899999999999999E-2</v>
+      </c>
+      <c r="R45" s="15">
+        <v>676.1</v>
+      </c>
+    </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="H46" s="2" t="s">
-        <v>100</v>
+      <c r="A46" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="B46" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46" s="34">
+        <v>4</v>
+      </c>
+      <c r="E46" s="34">
+        <v>300</v>
+      </c>
+      <c r="F46" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="G46" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="H46" s="35"/>
+      <c r="I46" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="J46" s="33"/>
+      <c r="K46" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="L46" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="M46" s="14">
+        <v>4.5789999999999997</v>
+      </c>
+      <c r="N46" s="15">
+        <v>1061</v>
+      </c>
+      <c r="O46" s="15">
+        <v>3.2250000000000001E-2</v>
+      </c>
+      <c r="P46" s="15">
+        <v>0.14169999999999999</v>
+      </c>
+      <c r="Q46" s="15">
+        <v>939.1</v>
+      </c>
+      <c r="R46" s="15">
+        <v>108.1</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="H47" s="2" t="s">
-        <v>101</v>
+      <c r="A47" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="B47" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D47" s="34">
+        <v>4</v>
+      </c>
+      <c r="E47" s="34">
+        <v>120</v>
+      </c>
+      <c r="F47" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="G47" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="H47" s="35"/>
+      <c r="I47" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="J47" s="33"/>
+      <c r="K47" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="L47" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M47" s="14">
+        <v>-41.350999999999999</v>
+      </c>
+      <c r="N47" s="15">
+        <v>6.1580000000000004</v>
+      </c>
+      <c r="O47" s="15">
+        <v>1.4090000000000001E-4</v>
+      </c>
+      <c r="P47" s="15">
+        <v>5.2059999999999997E-4</v>
+      </c>
+      <c r="Q47" s="15">
+        <v>5.33</v>
+      </c>
+      <c r="R47" s="15">
+        <v>1.661E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A48" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B48" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D48" s="34">
+        <v>3</v>
+      </c>
+      <c r="E48" s="34">
+        <v>200</v>
+      </c>
+      <c r="F48" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="G48" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="H48" s="35"/>
+      <c r="I48" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="J48" s="33"/>
+      <c r="K48" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="L48" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="M48" s="14">
+        <v>-18.919</v>
+      </c>
+      <c r="N48" s="15">
+        <v>285.60000000000002</v>
+      </c>
+      <c r="O48" s="15">
+        <v>4.5979999999999997E-3</v>
+      </c>
+      <c r="P48" s="15">
+        <v>9.4820000000000008E-3</v>
+      </c>
+      <c r="Q48" s="15">
+        <v>14.91</v>
+      </c>
+      <c r="R48" s="15">
+        <v>7.8540000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A49" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="B49" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D49" s="34">
+        <v>5</v>
+      </c>
+      <c r="E49" s="34">
+        <v>200</v>
+      </c>
+      <c r="F49" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="G49" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="H49" s="35"/>
+      <c r="I49" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="J49" s="33"/>
+      <c r="K49" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="L49" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="M49" s="14">
+        <v>249.46700000000001</v>
+      </c>
+      <c r="N49" s="15">
+        <v>1214</v>
+      </c>
+      <c r="O49" s="15">
+        <v>3.3399999999999999E-2</v>
+      </c>
+      <c r="P49" s="15">
+        <v>8.2660000000000008E-3</v>
+      </c>
+      <c r="Q49" s="15">
+        <v>0.1024</v>
+      </c>
+      <c r="R49" s="15">
+        <v>186.6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A50" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D50" s="34">
+        <v>4</v>
+      </c>
+      <c r="E50" s="34">
+        <v>200</v>
+      </c>
+      <c r="F50" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="G50" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="H50" s="35"/>
+      <c r="I50" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="J50" s="33"/>
+      <c r="K50" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="L50" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="M50" s="14">
+        <v>-29.224</v>
+      </c>
+      <c r="N50" s="15">
+        <v>3.044</v>
+      </c>
+      <c r="O50" s="15">
+        <v>4.5399999999999997E-6</v>
+      </c>
+      <c r="P50" s="15">
+        <v>1.2380000000000001E-7</v>
+      </c>
+      <c r="Q50" s="15">
+        <v>2.2530000000000001E-8</v>
+      </c>
+      <c r="R50" s="15">
+        <v>2.5050000000000002E-6</v>
       </c>
     </row>
   </sheetData>
@@ -6738,13 +7158,13 @@
     <mergeCell ref="L1:R1"/>
   </mergeCells>
   <conditionalFormatting sqref="L3:L1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"media"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"mala"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"buena"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6765,4 +7185,1877 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0883176C-312F-4C7A-8091-8589D8BC86CE}">
+  <dimension ref="A1:R36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="12" max="12" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A1" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="19">
+        <v>4</v>
+      </c>
+      <c r="E3" s="19">
+        <v>200</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="M3" s="14">
+        <v>-248.18100000000001</v>
+      </c>
+      <c r="N3" s="15">
+        <v>512.6</v>
+      </c>
+      <c r="O3" s="15">
+        <v>2.1341016845501996E-2</v>
+      </c>
+      <c r="P3" s="15">
+        <v>1.5741953500121895E-2</v>
+      </c>
+      <c r="Q3" s="15">
+        <v>3.2770000000000001</v>
+      </c>
+      <c r="R3" s="15">
+        <v>7.7970000000000003E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="20">
+        <v>4</v>
+      </c>
+      <c r="E4" s="20">
+        <v>200</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="6"/>
+      <c r="L4" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" s="14">
+        <v>32.484999999999999</v>
+      </c>
+      <c r="N4" s="15">
+        <v>1161</v>
+      </c>
+      <c r="O4" s="15">
+        <v>4.0234039071413152E-2</v>
+      </c>
+      <c r="P4" s="15">
+        <v>8.4281899005658384E-2</v>
+      </c>
+      <c r="Q4" s="15">
+        <v>109700</v>
+      </c>
+      <c r="R4" s="15">
+        <v>8.8310000000000003E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="20">
+        <v>4</v>
+      </c>
+      <c r="E5" s="20">
+        <v>200</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" s="36">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="N5" s="37">
+        <v>25.21</v>
+      </c>
+      <c r="O5" s="37">
+        <v>2.7633934754211169E-4</v>
+      </c>
+      <c r="P5" s="37">
+        <v>7.7330155825525149E-4</v>
+      </c>
+      <c r="Q5" s="37">
+        <v>0.38009999999999999</v>
+      </c>
+      <c r="R5" s="37">
+        <v>546.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="20">
+        <v>4</v>
+      </c>
+      <c r="E6" s="20">
+        <v>200</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="M6" s="14">
+        <v>30.943999999999999</v>
+      </c>
+      <c r="N6" s="15">
+        <v>723.6</v>
+      </c>
+      <c r="O6" s="15">
+        <v>2.2546463137263901E-2</v>
+      </c>
+      <c r="P6" s="15">
+        <v>0.13650935499078443</v>
+      </c>
+      <c r="Q6" s="15">
+        <v>2.6159999999999999E-2</v>
+      </c>
+      <c r="R6" s="15">
+        <v>710.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="20">
+        <v>4</v>
+      </c>
+      <c r="E7" s="20">
+        <v>200</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="M7" s="14">
+        <v>48.058</v>
+      </c>
+      <c r="N7" s="15">
+        <v>1875</v>
+      </c>
+      <c r="O7" s="15">
+        <v>6.2003339426195424E-2</v>
+      </c>
+      <c r="P7" s="15">
+        <v>0.21465318539448697</v>
+      </c>
+      <c r="Q7" s="15">
+        <v>62320</v>
+      </c>
+      <c r="R7" s="15">
+        <v>236.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="20">
+        <v>4</v>
+      </c>
+      <c r="E8" s="20">
+        <v>200</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="M8" s="14">
+        <v>-1.1870000000000001</v>
+      </c>
+      <c r="N8" s="15">
+        <v>44.21</v>
+      </c>
+      <c r="O8" s="15">
+        <v>2.0709257108839034E-4</v>
+      </c>
+      <c r="P8" s="15">
+        <v>1.4342956459530929E-4</v>
+      </c>
+      <c r="Q8" s="15">
+        <v>1.817E-4</v>
+      </c>
+      <c r="R8" s="15">
+        <v>2.251E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="20">
+        <v>4</v>
+      </c>
+      <c r="E9" s="20">
+        <v>200</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="M9" s="14">
+        <v>4.9420000000000002</v>
+      </c>
+      <c r="N9" s="15">
+        <v>306.39999999999998</v>
+      </c>
+      <c r="O9" s="15">
+        <v>1.0811189573770317E-2</v>
+      </c>
+      <c r="P9" s="15">
+        <v>2.507502622132228E-2</v>
+      </c>
+      <c r="Q9" s="15">
+        <v>1.176E-2</v>
+      </c>
+      <c r="R9" s="15">
+        <v>210.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="20">
+        <v>4</v>
+      </c>
+      <c r="E10" s="20">
+        <v>200</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="M10" s="14">
+        <v>-14.574999999999999</v>
+      </c>
+      <c r="N10" s="15">
+        <v>282.7</v>
+      </c>
+      <c r="O10" s="15">
+        <v>5.6519631987478475E-3</v>
+      </c>
+      <c r="P10" s="15">
+        <v>2.6393815563498959E-3</v>
+      </c>
+      <c r="Q10" s="15">
+        <v>2.5489999999999999</v>
+      </c>
+      <c r="R10" s="15">
+        <v>16.96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="20">
+        <v>4</v>
+      </c>
+      <c r="E11" s="20">
+        <v>200</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="M11" s="14">
+        <v>97.864999999999995</v>
+      </c>
+      <c r="N11" s="15">
+        <v>2269</v>
+      </c>
+      <c r="O11" s="15">
+        <v>6.7838407263142608E-2</v>
+      </c>
+      <c r="P11" s="15">
+        <v>0.20217186747913271</v>
+      </c>
+      <c r="Q11" s="15">
+        <v>57.14</v>
+      </c>
+      <c r="R11" s="15">
+        <v>235.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="20">
+        <v>4</v>
+      </c>
+      <c r="E12" s="20">
+        <v>200</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="M12" s="14">
+        <v>-38.634</v>
+      </c>
+      <c r="N12" s="15">
+        <v>620.20000000000005</v>
+      </c>
+      <c r="O12" s="15">
+        <v>1.0021591989299904E-2</v>
+      </c>
+      <c r="P12" s="15">
+        <v>1.2733290226803126E-2</v>
+      </c>
+      <c r="Q12" s="15">
+        <v>0.30130000000000001</v>
+      </c>
+      <c r="R12" s="15">
+        <v>2.7530000000000002E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A13" s="11">
+        <v>11</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="22">
+        <v>4</v>
+      </c>
+      <c r="E13" s="22">
+        <v>200</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="M13" s="36">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="N13" s="37">
+        <v>30.45</v>
+      </c>
+      <c r="O13" s="37">
+        <v>9.7127287617847127E-4</v>
+      </c>
+      <c r="P13" s="37">
+        <v>2.3367185966649902E-3</v>
+      </c>
+      <c r="Q13" s="37">
+        <v>12.86</v>
+      </c>
+      <c r="R13" s="37">
+        <v>7.0010000000000004E-6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A14" s="11">
+        <v>12</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="22">
+        <v>4</v>
+      </c>
+      <c r="E14" s="22">
+        <v>200</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="M14" s="36">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="N14" s="37">
+        <v>26.8</v>
+      </c>
+      <c r="O14" s="37">
+        <v>4.041383921381387E-4</v>
+      </c>
+      <c r="P14" s="37">
+        <v>4.0170242717713322E-5</v>
+      </c>
+      <c r="Q14" s="37">
+        <v>0.23250000000000001</v>
+      </c>
+      <c r="R14" s="37">
+        <v>16.760000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A15" s="11">
+        <v>13</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="22">
+        <v>4</v>
+      </c>
+      <c r="E15" s="22">
+        <v>200</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="M15" s="14">
+        <v>-6.0519999999999996</v>
+      </c>
+      <c r="N15" s="15">
+        <v>108.4</v>
+      </c>
+      <c r="O15" s="15">
+        <v>7.2225906709434951E-8</v>
+      </c>
+      <c r="P15" s="15">
+        <v>1.9499709741429487E-7</v>
+      </c>
+      <c r="Q15" s="15">
+        <v>7.594E-9</v>
+      </c>
+      <c r="R15" s="15">
+        <v>851.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A16" s="11">
+        <v>14</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="22">
+        <v>4</v>
+      </c>
+      <c r="E16" s="22">
+        <v>200</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="M16" s="14">
+        <v>-0.67200000000000004</v>
+      </c>
+      <c r="N16" s="15">
+        <v>31.51</v>
+      </c>
+      <c r="O16" s="15">
+        <v>7.5807115101420394E-5</v>
+      </c>
+      <c r="P16" s="15">
+        <v>2.0680277319223742E-5</v>
+      </c>
+      <c r="Q16" s="15">
+        <v>1.057E-5</v>
+      </c>
+      <c r="R16" s="15">
+        <v>9.1569999999999998E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A17" s="11">
+        <v>15</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="22">
+        <v>4</v>
+      </c>
+      <c r="E17" s="22">
+        <v>200</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="M17" s="36">
+        <v>-0.41099999999999998</v>
+      </c>
+      <c r="N17" s="37">
+        <v>30.97</v>
+      </c>
+      <c r="O17" s="37">
+        <v>8.4346632416475289E-5</v>
+      </c>
+      <c r="P17" s="37">
+        <v>1.5298099555173511E-4</v>
+      </c>
+      <c r="Q17" s="37">
+        <v>3.4840000000000001E-3</v>
+      </c>
+      <c r="R17" s="37">
+        <v>4.4710000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A18" s="11">
+        <v>16</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="22">
+        <v>4</v>
+      </c>
+      <c r="E18" s="22">
+        <v>200</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="M18" s="14">
+        <v>-0.35899999999999999</v>
+      </c>
+      <c r="N18" s="15">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="O18" s="15">
+        <v>5.3830669696744438E-4</v>
+      </c>
+      <c r="P18" s="15">
+        <v>1.7719239825681011E-4</v>
+      </c>
+      <c r="Q18" s="15">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="R18" s="15">
+        <v>15.99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A19" s="11">
+        <v>17</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="22">
+        <v>4</v>
+      </c>
+      <c r="E19" s="22">
+        <v>200</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" s="11"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="M19" s="14">
+        <v>34.073999999999998</v>
+      </c>
+      <c r="N19" s="15">
+        <v>1532</v>
+      </c>
+      <c r="O19" s="15">
+        <v>5.4092904340587958E-2</v>
+      </c>
+      <c r="P19" s="15">
+        <v>0.18178396518945228</v>
+      </c>
+      <c r="Q19" s="15">
+        <v>93.63</v>
+      </c>
+      <c r="R19" s="15">
+        <v>0.20599999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A20" s="25">
+        <v>18</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="26">
+        <v>4</v>
+      </c>
+      <c r="E20" s="26">
+        <v>200</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" s="27"/>
+      <c r="I20" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="L20" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="M20" s="14">
+        <v>-0.502</v>
+      </c>
+      <c r="N20" s="15">
+        <v>16.47</v>
+      </c>
+      <c r="O20" s="15">
+        <v>2.1469999999999999E-5</v>
+      </c>
+      <c r="P20" s="15">
+        <v>6.2539999999999994E-5</v>
+      </c>
+      <c r="Q20" s="15">
+        <v>4.1209999999999997E-3</v>
+      </c>
+      <c r="R20" s="15">
+        <v>1.446</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A21" s="25">
+        <v>19</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="26">
+        <v>4</v>
+      </c>
+      <c r="E21" s="26">
+        <v>200</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" s="27"/>
+      <c r="I21" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="L21" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M21" s="36">
+        <v>-0.503</v>
+      </c>
+      <c r="N21" s="37">
+        <v>67.39</v>
+      </c>
+      <c r="O21" s="37">
+        <v>7.2000000000000005E-4</v>
+      </c>
+      <c r="P21" s="37">
+        <v>1.323E-3</v>
+      </c>
+      <c r="Q21" s="37">
+        <v>1.294</v>
+      </c>
+      <c r="R21" s="37">
+        <v>20.73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A22" s="25">
+        <v>20</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="26">
+        <v>4</v>
+      </c>
+      <c r="E22" s="26">
+        <v>300</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22" s="27"/>
+      <c r="I22" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="L22" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="M22" s="14">
+        <v>3.5659999999999998</v>
+      </c>
+      <c r="N22" s="15">
+        <v>702</v>
+      </c>
+      <c r="O22" s="15">
+        <v>2.462E-2</v>
+      </c>
+      <c r="P22" s="15">
+        <v>8.4839999999999999E-2</v>
+      </c>
+      <c r="Q22" s="15">
+        <v>1.9740000000000001E-2</v>
+      </c>
+      <c r="R22" s="15">
+        <v>18.190000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A23" s="25">
+        <v>21</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="26">
+        <v>4</v>
+      </c>
+      <c r="E23" s="26">
+        <v>120</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="H23" s="27"/>
+      <c r="I23" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="L23" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M23" s="36">
+        <v>-7.1999999999999995E-2</v>
+      </c>
+      <c r="N23" s="37">
+        <v>26.63</v>
+      </c>
+      <c r="O23" s="37">
+        <v>1.0900000000000001E-4</v>
+      </c>
+      <c r="P23" s="37">
+        <v>2.789E-4</v>
+      </c>
+      <c r="Q23" s="37">
+        <v>0.2346</v>
+      </c>
+      <c r="R23" s="37">
+        <v>70.790000000000006</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A24" s="25">
+        <v>22</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="26">
+        <v>3</v>
+      </c>
+      <c r="E24" s="26">
+        <v>200</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24" s="27"/>
+      <c r="I24" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="L24" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M24" s="36">
+        <v>-0.24099999999999999</v>
+      </c>
+      <c r="N24" s="37">
+        <v>28.74</v>
+      </c>
+      <c r="O24" s="37">
+        <v>2.3149999999999999E-4</v>
+      </c>
+      <c r="P24" s="37">
+        <v>2.8229999999999999E-5</v>
+      </c>
+      <c r="Q24" s="37">
+        <v>3.2690000000000002E-3</v>
+      </c>
+      <c r="R24" s="37">
+        <v>2.9550000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A25" s="25">
+        <v>23</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="26">
+        <v>5</v>
+      </c>
+      <c r="E25" s="26">
+        <v>200</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25" s="27"/>
+      <c r="I25" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="L25" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="M25" s="14">
+        <v>-0.126</v>
+      </c>
+      <c r="N25" s="15">
+        <v>27.05</v>
+      </c>
+      <c r="O25" s="15">
+        <v>1.5880000000000001E-4</v>
+      </c>
+      <c r="P25" s="15">
+        <v>3.1779999999999997E-5</v>
+      </c>
+      <c r="Q25" s="15">
+        <v>7.6160000000000004E-3</v>
+      </c>
+      <c r="R25" s="15">
+        <v>41.46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A26" s="25">
+        <v>24</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="26">
+        <v>4</v>
+      </c>
+      <c r="E26" s="26">
+        <v>200</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="H26" s="27"/>
+      <c r="I26" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="L26" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="M26" s="36">
+        <v>-33.430999999999997</v>
+      </c>
+      <c r="N26" s="37">
+        <v>7.6959999999999997</v>
+      </c>
+      <c r="O26" s="37">
+        <v>1.5129999999999999E-4</v>
+      </c>
+      <c r="P26" s="37">
+        <v>7.1160000000000003E-5</v>
+      </c>
+      <c r="Q26" s="37">
+        <v>7.7550000000000001E-5</v>
+      </c>
+      <c r="R26" s="37">
+        <v>7.7869999999999998E-5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A27" s="25">
+        <v>25</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="26">
+        <v>4</v>
+      </c>
+      <c r="E27" s="26">
+        <v>200</v>
+      </c>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="H27" s="27"/>
+      <c r="I27" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="L27" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="M27" s="14">
+        <v>8.7560000000000002</v>
+      </c>
+      <c r="N27" s="15">
+        <v>183.9</v>
+      </c>
+      <c r="O27" s="15">
+        <v>6.9179999999999997E-3</v>
+      </c>
+      <c r="P27" s="15">
+        <v>3.5500000000000001E-4</v>
+      </c>
+      <c r="Q27" s="15">
+        <v>19.75</v>
+      </c>
+      <c r="R27" s="15">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A28" s="25">
+        <v>26</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="26">
+        <v>4</v>
+      </c>
+      <c r="E28" s="26">
+        <v>200</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="H28" s="27"/>
+      <c r="I28" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="L28" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="M28" s="14">
+        <v>-0.126</v>
+      </c>
+      <c r="N28" s="15">
+        <v>54.08</v>
+      </c>
+      <c r="O28" s="15">
+        <v>1.7390000000000001E-3</v>
+      </c>
+      <c r="P28" s="15">
+        <v>3.4619999999999998E-3</v>
+      </c>
+      <c r="Q28" s="15">
+        <v>2.496</v>
+      </c>
+      <c r="R28" s="15">
+        <v>170.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A29" s="25">
+        <v>27</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" s="26">
+        <v>4</v>
+      </c>
+      <c r="E29" s="26">
+        <v>200</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G29" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="H29" s="27"/>
+      <c r="I29" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="L29" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="M29" s="14">
+        <v>-14.593</v>
+      </c>
+      <c r="N29" s="15">
+        <v>840.4</v>
+      </c>
+      <c r="O29" s="15">
+        <v>2.929E-2</v>
+      </c>
+      <c r="P29" s="15">
+        <v>8.4180000000000001E-3</v>
+      </c>
+      <c r="Q29" s="15">
+        <v>0.23419999999999999</v>
+      </c>
+      <c r="R29" s="15">
+        <v>10.28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A30" s="25">
+        <v>28</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="26">
+        <v>4</v>
+      </c>
+      <c r="E30" s="26">
+        <v>200</v>
+      </c>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="H30" s="27"/>
+      <c r="I30" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="L30" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="M30" s="14">
+        <v>10.164</v>
+      </c>
+      <c r="N30" s="15">
+        <v>388.1</v>
+      </c>
+      <c r="O30" s="15">
+        <v>2.8249999999999998E-3</v>
+      </c>
+      <c r="P30" s="15">
+        <v>2.853E-4</v>
+      </c>
+      <c r="Q30" s="15">
+        <v>7.9470000000000001</v>
+      </c>
+      <c r="R30" s="15">
+        <v>456.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A31" s="33">
+        <v>29</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="34">
+        <v>4</v>
+      </c>
+      <c r="E31" s="34">
+        <v>200</v>
+      </c>
+      <c r="F31" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="G31" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="H31" s="35"/>
+      <c r="I31" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="L31" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="M31" s="14">
+        <v>-43.003999999999998</v>
+      </c>
+      <c r="N31" s="15">
+        <v>137.6</v>
+      </c>
+      <c r="O31" s="15">
+        <v>2.408E-4</v>
+      </c>
+      <c r="P31" s="15">
+        <v>1.6419999999999999E-5</v>
+      </c>
+      <c r="Q31" s="15">
+        <v>2.0679999999999999E-5</v>
+      </c>
+      <c r="R31" s="15">
+        <v>59.35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A32" s="33">
+        <v>30</v>
+      </c>
+      <c r="B32" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="34">
+        <v>4</v>
+      </c>
+      <c r="E32" s="34">
+        <v>200</v>
+      </c>
+      <c r="F32" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="G32" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="H32" s="35"/>
+      <c r="I32" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="L32" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="M32" s="14">
+        <v>13.164999999999999</v>
+      </c>
+      <c r="N32" s="15">
+        <v>349.2</v>
+      </c>
+      <c r="O32" s="15">
+        <v>1.8090000000000001E-3</v>
+      </c>
+      <c r="P32" s="15">
+        <v>1.8489999999999999E-3</v>
+      </c>
+      <c r="Q32" s="15">
+        <v>4.8899999999999999E-2</v>
+      </c>
+      <c r="R32" s="15">
+        <v>676.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A33" s="33">
+        <v>31</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="34">
+        <v>4</v>
+      </c>
+      <c r="E33" s="34">
+        <v>300</v>
+      </c>
+      <c r="F33" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="G33" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="H33" s="35"/>
+      <c r="I33" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="L33" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="M33" s="14">
+        <v>4.5789999999999997</v>
+      </c>
+      <c r="N33" s="15">
+        <v>1061</v>
+      </c>
+      <c r="O33" s="15">
+        <v>3.2250000000000001E-2</v>
+      </c>
+      <c r="P33" s="15">
+        <v>0.14169999999999999</v>
+      </c>
+      <c r="Q33" s="15">
+        <v>939.1</v>
+      </c>
+      <c r="R33" s="15">
+        <v>108.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A34" s="33">
+        <v>32</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="34">
+        <v>4</v>
+      </c>
+      <c r="E34" s="34">
+        <v>120</v>
+      </c>
+      <c r="F34" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="G34" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="H34" s="35"/>
+      <c r="I34" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="L34" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M34" s="36">
+        <v>-41.350999999999999</v>
+      </c>
+      <c r="N34" s="37">
+        <v>6.1580000000000004</v>
+      </c>
+      <c r="O34" s="37">
+        <v>1.4090000000000001E-4</v>
+      </c>
+      <c r="P34" s="37">
+        <v>5.2059999999999997E-4</v>
+      </c>
+      <c r="Q34" s="37">
+        <v>5.33</v>
+      </c>
+      <c r="R34" s="37">
+        <v>1.661E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A35" s="33">
+        <v>33</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" s="34">
+        <v>3</v>
+      </c>
+      <c r="E35" s="34">
+        <v>200</v>
+      </c>
+      <c r="F35" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="G35" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="H35" s="35"/>
+      <c r="I35" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="L35" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="M35" s="14">
+        <v>-18.919</v>
+      </c>
+      <c r="N35" s="15">
+        <v>285.60000000000002</v>
+      </c>
+      <c r="O35" s="15">
+        <v>4.5979999999999997E-3</v>
+      </c>
+      <c r="P35" s="15">
+        <v>9.4820000000000008E-3</v>
+      </c>
+      <c r="Q35" s="15">
+        <v>14.91</v>
+      </c>
+      <c r="R35" s="15">
+        <v>7.8540000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A36" s="33">
+        <v>34</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" s="34">
+        <v>5</v>
+      </c>
+      <c r="E36" s="34">
+        <v>200</v>
+      </c>
+      <c r="F36" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="G36" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="H36" s="35"/>
+      <c r="I36" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="L36" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="M36" s="14">
+        <v>249.46700000000001</v>
+      </c>
+      <c r="N36" s="15">
+        <v>1214</v>
+      </c>
+      <c r="O36" s="15">
+        <v>3.3399999999999999E-2</v>
+      </c>
+      <c r="P36" s="15">
+        <v>8.2660000000000008E-3</v>
+      </c>
+      <c r="Q36" s="15">
+        <v>0.1024</v>
+      </c>
+      <c r="R36" s="15">
+        <v>186.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:R1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="L3:L36">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"media"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"mala"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"buena"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>